--- a/Primer_Trimestres/Nomalizacion/correccion/Normalización .xlsx
+++ b/Primer_Trimestres/Nomalizacion/correccion/Normalización .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d01d89a1400d5043/Documentos/FARMIFARMACY/Docs excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{5D5CD52F-53E4-4F0F-B9B6-38621EE8DA4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AF730BA1-46E8-49F3-B006-2027590EA4E5}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{5D5CD52F-53E4-4F0F-B9B6-38621EE8DA4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{43EF1CC0-5624-4CB7-95D0-D640E49D8568}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="4" activeTab="7" xr2:uid="{EB7CC955-6B47-4A67-9DA5-CC93A65E4CC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="3" activeTab="7" xr2:uid="{EB7CC955-6B47-4A67-9DA5-CC93A65E4CC7}"/>
   </bookViews>
   <sheets>
     <sheet name="cliente" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="276">
   <si>
     <t>identificacion</t>
   </si>
@@ -836,6 +836,30 @@
   </si>
   <si>
     <t>VENDEDOR-ROL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aceite de bacalao.jpg </t>
+  </si>
+  <si>
+    <t>jarabe abrilar.jpg</t>
+  </si>
+  <si>
+    <t>caja de acetaminofén.jpg</t>
+  </si>
+  <si>
+    <t>jarabe acetaminofén.jpg</t>
+  </si>
+  <si>
+    <t>acetaminofén en gotas.jpg</t>
+  </si>
+  <si>
+    <t>acetato de aluminio caja.jpg</t>
+  </si>
+  <si>
+    <t>acetilcisteína en polvo.jpg</t>
   </si>
 </sst>
 </file>
@@ -1181,6 +1205,7 @@
     <xf numFmtId="164" fontId="0" fillId="18" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1190,7 +1215,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1205,14 +1233,10 @@
     <xf numFmtId="0" fontId="4" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2470,7 +2494,7 @@
       </c>
       <c r="D2" s="15">
         <f ca="1">NOW()</f>
-        <v>44316.597251157407</v>
+        <v>44319.803879050924</v>
       </c>
       <c r="E2" s="15">
         <v>44673.458333333336</v>
@@ -2488,7 +2512,7 @@
       </c>
       <c r="D3" s="15">
         <f t="shared" ref="D3:D20" ca="1" si="0">NOW()</f>
-        <v>44316.597251157407</v>
+        <v>44319.803879050924</v>
       </c>
       <c r="E3" s="15">
         <v>44674.458333333336</v>
@@ -2506,7 +2530,7 @@
       </c>
       <c r="D4" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44316.597251157407</v>
+        <v>44319.803879050924</v>
       </c>
       <c r="E4" s="15">
         <v>44675.458333333336</v>
@@ -2524,7 +2548,7 @@
       </c>
       <c r="D5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44316.597251157407</v>
+        <v>44319.803879050924</v>
       </c>
       <c r="E5" s="15">
         <v>44676.458333333336</v>
@@ -2542,7 +2566,7 @@
       </c>
       <c r="D6" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44316.597251157407</v>
+        <v>44319.803879050924</v>
       </c>
       <c r="E6" s="15">
         <v>44677.458333333336</v>
@@ -2560,7 +2584,7 @@
       </c>
       <c r="D7" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44316.597251157407</v>
+        <v>44319.803879050924</v>
       </c>
       <c r="E7" s="15">
         <v>44678.458333333336</v>
@@ -2578,7 +2602,7 @@
       </c>
       <c r="D8" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44316.597251157407</v>
+        <v>44319.803879050924</v>
       </c>
       <c r="E8" s="15">
         <v>44679.458333333336</v>
@@ -2596,7 +2620,7 @@
       </c>
       <c r="D9" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44316.597251157407</v>
+        <v>44319.803879050924</v>
       </c>
       <c r="E9" s="15">
         <v>44680.458333333336</v>
@@ -2614,7 +2638,7 @@
       </c>
       <c r="D10" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44316.597251157407</v>
+        <v>44319.803879050924</v>
       </c>
       <c r="E10" s="15">
         <v>44681.458333333336</v>
@@ -2632,7 +2656,7 @@
       </c>
       <c r="D11" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44316.597251157407</v>
+        <v>44319.803879050924</v>
       </c>
       <c r="E11" s="15">
         <v>44682.458333333336</v>
@@ -2650,7 +2674,7 @@
       </c>
       <c r="D12" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44316.597251157407</v>
+        <v>44319.803879050924</v>
       </c>
       <c r="E12" s="15">
         <v>44683.458333333336</v>
@@ -2668,7 +2692,7 @@
       </c>
       <c r="D13" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44316.597251157407</v>
+        <v>44319.803879050924</v>
       </c>
       <c r="E13" s="15">
         <v>44684.458333333336</v>
@@ -2686,7 +2710,7 @@
       </c>
       <c r="D14" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44316.597251157407</v>
+        <v>44319.803879050924</v>
       </c>
       <c r="E14" s="15">
         <v>44685.458333333336</v>
@@ -2704,7 +2728,7 @@
       </c>
       <c r="D15" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44316.597251157407</v>
+        <v>44319.803879050924</v>
       </c>
       <c r="E15" s="15">
         <v>44686.458333333336</v>
@@ -2722,7 +2746,7 @@
       </c>
       <c r="D16" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44316.597251157407</v>
+        <v>44319.803879050924</v>
       </c>
       <c r="E16" s="15">
         <v>44687.458333333336</v>
@@ -2740,7 +2764,7 @@
       </c>
       <c r="D17" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44316.597251157407</v>
+        <v>44319.803879050924</v>
       </c>
       <c r="E17" s="15">
         <v>44688.458333333336</v>
@@ -2758,7 +2782,7 @@
       </c>
       <c r="D18" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44316.597251157407</v>
+        <v>44319.803879050924</v>
       </c>
       <c r="E18" s="15">
         <v>44689.458333333336</v>
@@ -2776,7 +2800,7 @@
       </c>
       <c r="D19" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44316.597251157407</v>
+        <v>44319.803879050924</v>
       </c>
       <c r="E19" s="15">
         <v>44690.458333333336</v>
@@ -2794,7 +2818,7 @@
       </c>
       <c r="D20" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44316.597251157407</v>
+        <v>44319.803879050924</v>
       </c>
       <c r="E20" s="15">
         <v>44691.458333333336</v>
@@ -2993,63 +3017,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="51">
+      <c r="B1" s="53"/>
+      <c r="C1" s="52">
         <v>1192831945</v>
       </c>
-      <c r="D1" s="51"/>
+      <c r="D1" s="52"/>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="5">
         <f ca="1">NOW()</f>
-        <v>44316.597251157407</v>
+        <v>44319.803879050924</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="53" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="52">
         <v>3172727783</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="51"/>
+      <c r="F4" s="52"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -3242,39 +3266,39 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="51"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="6">
         <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="51"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="6">
         <v>73.91</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51" t="s">
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="51"/>
+      <c r="E18" s="52"/>
       <c r="F18" s="6">
         <v>462.90999999999997</v>
       </c>
@@ -3318,7 +3342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C30745-176D-41BA-8D9A-0B39EE9C6969}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
@@ -4814,8 +4838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154A3EB2-7D84-4648-B4B7-AFD12D379634}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41:E41"/>
+    <sheetView topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5127,16 +5151,16 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
@@ -5411,18 +5435,18 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="G25" s="58" t="s">
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="G25" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
     </row>
     <row r="26" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -5444,6 +5468,9 @@
       <c r="G27" s="41" t="s">
         <v>141</v>
       </c>
+      <c r="H27" s="41" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
@@ -5464,6 +5491,9 @@
       <c r="G28" s="42">
         <v>43</v>
       </c>
+      <c r="H28" s="41" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
@@ -5484,6 +5514,9 @@
       <c r="G29" s="42">
         <v>76</v>
       </c>
+      <c r="H29" s="41" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
@@ -5504,6 +5537,9 @@
       <c r="G30" s="42">
         <v>8</v>
       </c>
+      <c r="H30" s="41" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
@@ -5524,6 +5560,9 @@
       <c r="G31" s="42">
         <v>6</v>
       </c>
+      <c r="H31" s="41" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
@@ -5544,8 +5583,11 @@
       <c r="G32" s="42">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="41" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
         <v>237</v>
       </c>
@@ -5564,8 +5606,11 @@
       <c r="G33" s="42">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="41" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
         <v>238</v>
       </c>
@@ -5584,20 +5629,24 @@
       <c r="G34" s="42">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="57" t="s">
+      <c r="H34" s="41" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="B35" s="57"/>
-      <c r="D35" s="54" t="s">
+      <c r="B35" s="59"/>
+      <c r="D35" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
         <v>230</v>
       </c>
@@ -5607,11 +5656,11 @@
       <c r="D37" s="48" t="s">
         <v>257</v>
       </c>
-      <c r="E37" s="61" t="s">
+      <c r="E37" s="51" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>178</v>
       </c>
@@ -5621,11 +5670,11 @@
       <c r="D38" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="E38" s="61" t="s">
+      <c r="E38" s="51" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
         <v>249</v>
       </c>
@@ -5635,11 +5684,11 @@
       <c r="D39" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="E39" s="61" t="s">
+      <c r="E39" s="51" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>251</v>
       </c>
@@ -5649,29 +5698,29 @@
       <c r="D40" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="E40" s="61" t="s">
+      <c r="E40" s="51" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="55" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="B41" s="55"/>
-      <c r="D41" s="62" t="s">
+      <c r="B41" s="57"/>
+      <c r="D41" s="56" t="s">
         <v>265</v>
       </c>
-      <c r="E41" s="62"/>
+      <c r="E41" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D35:G35"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D35:H35"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -5695,8 +5744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15CDDD0-1EC6-46EB-86DD-BB5C7073D9F7}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6001,22 +6050,22 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="D12" s="60" t="s">
+      <c r="B12" s="62"/>
+      <c r="D12" s="62" t="s">
         <v>255</v>
       </c>
-      <c r="E12" s="60"/>
-      <c r="G12" s="60" t="s">
+      <c r="E12" s="62"/>
+      <c r="G12" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="H12" s="60"/>
-      <c r="J12" s="60" t="s">
+      <c r="H12" s="62"/>
+      <c r="J12" s="62" t="s">
         <v>256</v>
       </c>
-      <c r="K12" s="60"/>
+      <c r="K12" s="62"/>
     </row>
     <row r="13" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G13"/>
@@ -6312,29 +6361,29 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="62" t="s">
         <v>253</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="D25" s="60" t="s">
+      <c r="B25" s="62"/>
+      <c r="D25" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="E25" s="60"/>
-      <c r="G25" s="60" t="s">
+      <c r="E25" s="62"/>
+      <c r="G25" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="H25" s="60"/>
-      <c r="J25" s="60" t="s">
+      <c r="H25" s="62"/>
+      <c r="J25" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="K25" s="60"/>
+      <c r="K25" s="62"/>
     </row>
     <row r="27" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="56" t="s">
         <v>265</v>
       </c>
-      <c r="B28" s="62"/>
+      <c r="B28" s="56"/>
     </row>
     <row r="29" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
@@ -6350,10 +6399,10 @@
       <c r="A31" s="44">
         <v>1</v>
       </c>
-      <c r="E31" s="55" t="s">
+      <c r="E31" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="F31" s="55"/>
+      <c r="F31" s="57"/>
     </row>
     <row r="32" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D32" s="44">
@@ -6372,14 +6421,14 @@
       </c>
     </row>
     <row r="34" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="62" t="s">
         <v>253</v>
       </c>
-      <c r="D34" s="60"/>
-      <c r="G34" s="60" t="s">
+      <c r="D34" s="62"/>
+      <c r="G34" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="H34" s="60"/>
+      <c r="H34" s="62"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
@@ -6409,14 +6458,14 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="B38" s="59"/>
-      <c r="G38" s="56" t="s">
+      <c r="B38" s="55"/>
+      <c r="G38" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="H38" s="56"/>
+      <c r="H38" s="58"/>
       <c r="I38" s="44">
         <v>1</v>
       </c>
@@ -6437,10 +6486,10 @@
       <c r="H39">
         <v>1</v>
       </c>
-      <c r="J39" s="60" t="s">
+      <c r="J39" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="K39" s="60"/>
+      <c r="K39" s="62"/>
       <c r="L39" s="44" t="s">
         <v>243</v>
       </c>
@@ -6494,20 +6543,20 @@
       <c r="E43" t="s">
         <v>243</v>
       </c>
-      <c r="K43" s="62" t="s">
+      <c r="K43" s="56" t="s">
         <v>265</v>
       </c>
-      <c r="L43" s="62"/>
+      <c r="L43" s="56"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="60" t="s">
+      <c r="A44" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="B44" s="60"/>
-      <c r="E44" s="58" t="s">
+      <c r="B44" s="62"/>
+      <c r="E44" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="F44" s="58"/>
+      <c r="F44" s="60"/>
       <c r="K44" t="s">
         <v>243</v>
       </c>
@@ -6531,14 +6580,14 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="54"/>
-      <c r="E51" s="57" t="s">
+      <c r="B51" s="61"/>
+      <c r="E51" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="F51" s="57"/>
+      <c r="F51" s="59"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B52">

--- a/Primer_Trimestres/Nomalizacion/correccion/Normalización .xlsx
+++ b/Primer_Trimestres/Nomalizacion/correccion/Normalización .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d01d89a1400d5043/Documentos/FARMIFARMACY/Docs excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{5D5CD52F-53E4-4F0F-B9B6-38621EE8DA4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{43EF1CC0-5624-4CB7-95D0-D640E49D8568}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{5D5CD52F-53E4-4F0F-B9B6-38621EE8DA4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A5030065-18E6-4402-B1DF-C0D246E868D9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="3" activeTab="7" xr2:uid="{EB7CC955-6B47-4A67-9DA5-CC93A65E4CC7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="276">
   <si>
     <t>identificacion</t>
   </si>
@@ -1089,7 +1089,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1168,9 +1168,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1206,6 +1203,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1237,6 +1237,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1346,7 +1349,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="28575">
-          <a:prstDash val="dash"/>
+          <a:prstDash val="solid"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2494,7 +2497,7 @@
       </c>
       <c r="D2" s="15">
         <f ca="1">NOW()</f>
-        <v>44319.803879050924</v>
+        <v>44337.808376504632</v>
       </c>
       <c r="E2" s="15">
         <v>44673.458333333336</v>
@@ -2512,7 +2515,7 @@
       </c>
       <c r="D3" s="15">
         <f t="shared" ref="D3:D20" ca="1" si="0">NOW()</f>
-        <v>44319.803879050924</v>
+        <v>44337.808376504632</v>
       </c>
       <c r="E3" s="15">
         <v>44674.458333333336</v>
@@ -2530,7 +2533,7 @@
       </c>
       <c r="D4" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44319.803879050924</v>
+        <v>44337.808376504632</v>
       </c>
       <c r="E4" s="15">
         <v>44675.458333333336</v>
@@ -2548,7 +2551,7 @@
       </c>
       <c r="D5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44319.803879050924</v>
+        <v>44337.808376504632</v>
       </c>
       <c r="E5" s="15">
         <v>44676.458333333336</v>
@@ -2566,7 +2569,7 @@
       </c>
       <c r="D6" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44319.803879050924</v>
+        <v>44337.808376504632</v>
       </c>
       <c r="E6" s="15">
         <v>44677.458333333336</v>
@@ -2584,7 +2587,7 @@
       </c>
       <c r="D7" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44319.803879050924</v>
+        <v>44337.808376504632</v>
       </c>
       <c r="E7" s="15">
         <v>44678.458333333336</v>
@@ -2602,7 +2605,7 @@
       </c>
       <c r="D8" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44319.803879050924</v>
+        <v>44337.808376504632</v>
       </c>
       <c r="E8" s="15">
         <v>44679.458333333336</v>
@@ -2620,7 +2623,7 @@
       </c>
       <c r="D9" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44319.803879050924</v>
+        <v>44337.808376504632</v>
       </c>
       <c r="E9" s="15">
         <v>44680.458333333336</v>
@@ -2638,7 +2641,7 @@
       </c>
       <c r="D10" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44319.803879050924</v>
+        <v>44337.808376504632</v>
       </c>
       <c r="E10" s="15">
         <v>44681.458333333336</v>
@@ -2656,7 +2659,7 @@
       </c>
       <c r="D11" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44319.803879050924</v>
+        <v>44337.808376504632</v>
       </c>
       <c r="E11" s="15">
         <v>44682.458333333336</v>
@@ -2674,7 +2677,7 @@
       </c>
       <c r="D12" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44319.803879050924</v>
+        <v>44337.808376504632</v>
       </c>
       <c r="E12" s="15">
         <v>44683.458333333336</v>
@@ -2692,7 +2695,7 @@
       </c>
       <c r="D13" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44319.803879050924</v>
+        <v>44337.808376504632</v>
       </c>
       <c r="E13" s="15">
         <v>44684.458333333336</v>
@@ -2710,7 +2713,7 @@
       </c>
       <c r="D14" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44319.803879050924</v>
+        <v>44337.808376504632</v>
       </c>
       <c r="E14" s="15">
         <v>44685.458333333336</v>
@@ -2728,7 +2731,7 @@
       </c>
       <c r="D15" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44319.803879050924</v>
+        <v>44337.808376504632</v>
       </c>
       <c r="E15" s="15">
         <v>44686.458333333336</v>
@@ -2746,7 +2749,7 @@
       </c>
       <c r="D16" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44319.803879050924</v>
+        <v>44337.808376504632</v>
       </c>
       <c r="E16" s="15">
         <v>44687.458333333336</v>
@@ -2764,7 +2767,7 @@
       </c>
       <c r="D17" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44319.803879050924</v>
+        <v>44337.808376504632</v>
       </c>
       <c r="E17" s="15">
         <v>44688.458333333336</v>
@@ -2782,7 +2785,7 @@
       </c>
       <c r="D18" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44319.803879050924</v>
+        <v>44337.808376504632</v>
       </c>
       <c r="E18" s="15">
         <v>44689.458333333336</v>
@@ -2800,7 +2803,7 @@
       </c>
       <c r="D19" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44319.803879050924</v>
+        <v>44337.808376504632</v>
       </c>
       <c r="E19" s="15">
         <v>44690.458333333336</v>
@@ -2818,7 +2821,7 @@
       </c>
       <c r="D20" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44319.803879050924</v>
+        <v>44337.808376504632</v>
       </c>
       <c r="E20" s="15">
         <v>44691.458333333336</v>
@@ -3030,7 +3033,7 @@
       </c>
       <c r="F1" s="5">
         <f ca="1">NOW()</f>
-        <v>44319.803879050924</v>
+        <v>44337.808376504632</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4838,8 +4841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154A3EB2-7D84-4648-B4B7-AFD12D379634}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5178,13 +5181,13 @@
       <c r="E14" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="I14" s="49" t="s">
+      <c r="I14" s="48" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5204,13 +5207,13 @@
       <c r="E15" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="44">
         <v>1</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="46">
         <v>44228</v>
       </c>
-      <c r="I15" s="50">
+      <c r="I15" s="49">
         <v>129</v>
       </c>
     </row>
@@ -5228,13 +5231,13 @@
         <v>191</v>
       </c>
       <c r="E16" s="35"/>
-      <c r="G16" s="45">
+      <c r="G16" s="44">
         <v>2</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="46">
         <v>44229</v>
       </c>
-      <c r="I16" s="50">
+      <c r="I16" s="49">
         <v>76</v>
       </c>
     </row>
@@ -5245,18 +5248,18 @@
       <c r="B17" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="35"/>
       <c r="E17" s="35"/>
-      <c r="G17" s="45">
+      <c r="G17" s="44">
         <v>3</v>
       </c>
-      <c r="H17" s="47">
+      <c r="H17" s="46">
         <v>44230</v>
       </c>
-      <c r="I17" s="50">
+      <c r="I17" s="49">
         <v>16</v>
       </c>
     </row>
@@ -5276,13 +5279,13 @@
       <c r="E18" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="44">
         <v>4</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18" s="46">
         <v>44231</v>
       </c>
-      <c r="I18" s="50">
+      <c r="I18" s="49">
         <v>18</v>
       </c>
     </row>
@@ -5300,13 +5303,13 @@
         <v>204</v>
       </c>
       <c r="E19" s="35"/>
-      <c r="G19" s="45">
+      <c r="G19" s="44">
         <v>5</v>
       </c>
-      <c r="H19" s="47">
+      <c r="H19" s="46">
         <v>44232</v>
       </c>
-      <c r="I19" s="50">
+      <c r="I19" s="49">
         <v>14</v>
       </c>
     </row>
@@ -5326,13 +5329,13 @@
       <c r="E20" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="44">
         <v>6</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="46">
         <v>44233</v>
       </c>
-      <c r="I20" s="50">
+      <c r="I20" s="49">
         <v>46</v>
       </c>
     </row>
@@ -5350,13 +5353,13 @@
         <v>123</v>
       </c>
       <c r="E21" s="35"/>
-      <c r="G21" s="45">
+      <c r="G21" s="44">
         <v>7</v>
       </c>
-      <c r="H21" s="47">
+      <c r="H21" s="46">
         <v>44234</v>
       </c>
-      <c r="I21" s="50">
+      <c r="I21" s="49">
         <v>90</v>
       </c>
     </row>
@@ -5367,18 +5370,18 @@
       <c r="B22" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="35"/>
+      <c r="D22" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="35"/>
       <c r="E22" s="35"/>
-      <c r="G22" s="45">
+      <c r="G22" s="44">
         <v>8</v>
       </c>
-      <c r="H22" s="47">
+      <c r="H22" s="46">
         <v>44235</v>
       </c>
-      <c r="I22" s="50">
+      <c r="I22" s="49">
         <v>129</v>
       </c>
     </row>
@@ -5398,18 +5401,18 @@
       <c r="E23" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="44">
         <v>9</v>
       </c>
-      <c r="H23" s="47">
+      <c r="H23" s="46">
         <v>44236</v>
       </c>
-      <c r="I23" s="50">
+      <c r="I23" s="49">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="33">
+      <c r="A24" s="51">
         <v>10281927364</v>
       </c>
       <c r="B24" s="35" t="s">
@@ -5424,13 +5427,13 @@
       <c r="E24" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="G24" s="45">
+      <c r="G24" s="44">
         <v>10</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24" s="46">
         <v>44237</v>
       </c>
-      <c r="I24" s="50">
+      <c r="I24" s="49">
         <v>16</v>
       </c>
     </row>
@@ -5456,19 +5459,19 @@
       <c r="B27" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E27" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="H27" s="41" t="s">
+      <c r="H27" s="40" t="s">
         <v>268</v>
       </c>
     </row>
@@ -5476,22 +5479,22 @@
       <c r="A28" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="B28" s="38">
-        <v>44275</v>
-      </c>
-      <c r="D28" s="39" t="s">
+      <c r="B28" s="63">
+        <v>1234</v>
+      </c>
+      <c r="D28" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28" s="40">
         <v>3</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="42">
+      <c r="G28" s="41">
         <v>43</v>
       </c>
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="40" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5499,22 +5502,22 @@
       <c r="A29" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="B29" s="38">
-        <v>44276</v>
-      </c>
-      <c r="D29" s="39" t="s">
+      <c r="B29" s="63">
+        <v>2876</v>
+      </c>
+      <c r="D29" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="41">
+      <c r="E29" s="40">
         <v>1</v>
       </c>
-      <c r="F29" s="40" t="s">
+      <c r="F29" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="42">
+      <c r="G29" s="41">
         <v>76</v>
       </c>
-      <c r="H29" s="41" t="s">
+      <c r="H29" s="40" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5522,22 +5525,22 @@
       <c r="A30" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="B30" s="38">
-        <v>44277</v>
-      </c>
-      <c r="D30" s="39" t="s">
+      <c r="B30" s="63">
+        <v>8744</v>
+      </c>
+      <c r="D30" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="40">
         <v>2</v>
       </c>
-      <c r="F30" s="40" t="s">
+      <c r="F30" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="42">
+      <c r="G30" s="41">
         <v>8</v>
       </c>
-      <c r="H30" s="41" t="s">
+      <c r="H30" s="40" t="s">
         <v>271</v>
       </c>
     </row>
@@ -5545,22 +5548,22 @@
       <c r="A31" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="B31" s="38">
-        <v>44278</v>
-      </c>
-      <c r="D31" s="39" t="s">
+      <c r="B31" s="63">
+        <v>3978</v>
+      </c>
+      <c r="D31" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="41">
+      <c r="E31" s="40">
         <v>3</v>
       </c>
-      <c r="F31" s="40" t="s">
+      <c r="F31" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="42">
+      <c r="G31" s="41">
         <v>6</v>
       </c>
-      <c r="H31" s="41" t="s">
+      <c r="H31" s="40" t="s">
         <v>272</v>
       </c>
     </row>
@@ -5568,22 +5571,22 @@
       <c r="A32" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="B32" s="38">
-        <v>44279</v>
-      </c>
-      <c r="D32" s="39" t="s">
+      <c r="B32" s="63">
+        <v>2938</v>
+      </c>
+      <c r="D32" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="40">
         <v>2</v>
       </c>
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="42">
+      <c r="G32" s="41">
         <v>7</v>
       </c>
-      <c r="H32" s="41" t="s">
+      <c r="H32" s="40" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5591,22 +5594,22 @@
       <c r="A33" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="B33" s="38">
-        <v>44280</v>
-      </c>
-      <c r="D33" s="39" t="s">
+      <c r="B33" s="63">
+        <v>4937</v>
+      </c>
+      <c r="D33" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33" s="40">
         <v>2</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="42">
+      <c r="G33" s="41">
         <v>23</v>
       </c>
-      <c r="H33" s="41" t="s">
+      <c r="H33" s="40" t="s">
         <v>274</v>
       </c>
     </row>
@@ -5614,22 +5617,22 @@
       <c r="A34" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="B34" s="38">
-        <v>44281</v>
-      </c>
-      <c r="D34" s="39" t="s">
+      <c r="B34" s="63">
+        <v>8736</v>
+      </c>
+      <c r="D34" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="40">
         <v>3</v>
       </c>
-      <c r="F34" s="40" t="s">
+      <c r="F34" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="42">
+      <c r="G34" s="41">
         <v>30</v>
       </c>
-      <c r="H34" s="41" t="s">
+      <c r="H34" s="40" t="s">
         <v>275</v>
       </c>
     </row>
@@ -5647,16 +5650,16 @@
       <c r="H35" s="61"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="42" t="s">
         <v>230</v>
       </c>
       <c r="B37" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="D37" s="48" t="s">
+      <c r="D37" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="E37" s="51" t="s">
+      <c r="E37" s="50" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5667,24 +5670,24 @@
       <c r="B38" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="D38" s="48" t="s">
+      <c r="D38" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="E38" s="51" t="s">
+      <c r="E38" s="50" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="42" t="s">
         <v>249</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="47" t="s">
         <v>263</v>
       </c>
-      <c r="E39" s="51" t="s">
+      <c r="E39" s="50" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5695,10 +5698,10 @@
       <c r="B40" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="D40" s="48" t="s">
+      <c r="D40" s="47" t="s">
         <v>264</v>
       </c>
-      <c r="E40" s="51" t="s">
+      <c r="E40" s="50" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5744,8 +5747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15CDDD0-1EC6-46EB-86DD-BB5C7073D9F7}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5770,7 +5773,7 @@
       <c r="B1" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>139</v>
       </c>
       <c r="E1" s="36" t="s">
@@ -5779,13 +5782,13 @@
       <c r="G1" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="38" t="s">
         <v>139</v>
       </c>
       <c r="J1" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="47" t="s">
         <v>245</v>
       </c>
     </row>
@@ -5796,7 +5799,7 @@
       <c r="B2" s="33">
         <v>1016841206</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="36" t="s">
@@ -5805,13 +5808,13 @@
       <c r="G2" s="29">
         <v>1013576811</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="38" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="29">
         <v>1013576811</v>
       </c>
-      <c r="K2" s="45">
+      <c r="K2" s="44">
         <v>1</v>
       </c>
     </row>
@@ -5822,7 +5825,7 @@
       <c r="B3" s="33">
         <v>1003275748</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="36" t="s">
@@ -5831,13 +5834,13 @@
       <c r="G3" s="29">
         <v>1001096125</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="38" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="29">
         <v>1001096125</v>
       </c>
-      <c r="K3" s="45">
+      <c r="K3" s="44">
         <v>2</v>
       </c>
     </row>
@@ -5848,7 +5851,7 @@
       <c r="B4" s="33">
         <v>1011153857</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="36" t="s">
@@ -5857,13 +5860,13 @@
       <c r="G4" s="29">
         <v>1012316243</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="38" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="29">
         <v>1012316243</v>
       </c>
-      <c r="K4" s="45">
+      <c r="K4" s="44">
         <v>3</v>
       </c>
     </row>
@@ -5874,7 +5877,7 @@
       <c r="B5" s="33">
         <v>1026238784</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="38" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="36" t="s">
@@ -5883,13 +5886,13 @@
       <c r="G5" s="29">
         <v>1016942358</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="38" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="29">
         <v>1016942358</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="44">
         <v>4</v>
       </c>
     </row>
@@ -5900,7 +5903,7 @@
       <c r="B6" s="33">
         <v>1011752470</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="38" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="36" t="s">
@@ -5909,13 +5912,13 @@
       <c r="G6" s="29">
         <v>1192831945</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="38" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="29">
         <v>1192831945</v>
       </c>
-      <c r="K6" s="45">
+      <c r="K6" s="44">
         <v>5</v>
       </c>
     </row>
@@ -5926,7 +5929,7 @@
       <c r="B7" s="33">
         <v>1000016762</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="38" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="36" t="s">
@@ -5935,13 +5938,13 @@
       <c r="G7" s="29">
         <v>1016943117</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="38" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="29">
         <v>1016943117</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K7" s="44">
         <v>6</v>
       </c>
     </row>
@@ -5952,7 +5955,7 @@
       <c r="B8" s="33">
         <v>1021928374</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="38" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="36" t="s">
@@ -5961,13 +5964,13 @@
       <c r="G8" s="29">
         <v>1010051342</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="38" t="s">
         <v>28</v>
       </c>
       <c r="J8" s="29">
         <v>1010051342</v>
       </c>
-      <c r="K8" s="45">
+      <c r="K8" s="44">
         <v>7</v>
       </c>
     </row>
@@ -5978,7 +5981,7 @@
       <c r="B9" s="33">
         <v>1015159424</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="38" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="36" t="s">
@@ -5987,13 +5990,13 @@
       <c r="G9" s="29">
         <v>1006051207</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="38" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="29">
         <v>1006051207</v>
       </c>
-      <c r="K9" s="45">
+      <c r="K9" s="44">
         <v>8</v>
       </c>
     </row>
@@ -6004,7 +6007,7 @@
       <c r="B10" s="33">
         <v>1009812763</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="36" t="s">
@@ -6013,13 +6016,13 @@
       <c r="G10" s="29">
         <v>1014176160</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="38" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="29">
         <v>1014176160</v>
       </c>
-      <c r="K10" s="45">
+      <c r="K10" s="44">
         <v>9</v>
       </c>
     </row>
@@ -6030,7 +6033,7 @@
       <c r="B11" s="33">
         <v>10281927364</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="38" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="36" t="s">
@@ -6039,13 +6042,13 @@
       <c r="G11" s="29">
         <v>1000350620</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="38" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="29">
         <v>1000350620</v>
       </c>
-      <c r="K11" s="45">
+      <c r="K11" s="44">
         <v>10</v>
       </c>
     </row>
@@ -6075,13 +6078,13 @@
       <c r="K13"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="42" t="s">
         <v>230</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="42" t="s">
         <v>230</v>
       </c>
       <c r="E14" s="33" t="s">
@@ -6090,13 +6093,13 @@
       <c r="G14" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="H14" s="47" t="s">
         <v>257</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="K14" s="48" t="s">
+      <c r="K14" s="47" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6116,13 +6119,13 @@
       <c r="G15" s="29">
         <v>1013576811</v>
       </c>
-      <c r="H15" s="48" t="s">
+      <c r="H15" s="47" t="s">
         <v>264</v>
       </c>
       <c r="J15" s="33">
         <v>1016841206</v>
       </c>
-      <c r="K15" s="48" t="s">
+      <c r="K15" s="47" t="s">
         <v>262</v>
       </c>
     </row>
@@ -6142,13 +6145,13 @@
       <c r="G16" s="29">
         <v>1001096125</v>
       </c>
-      <c r="H16" s="48" t="s">
+      <c r="H16" s="47" t="s">
         <v>264</v>
       </c>
       <c r="J16" s="33">
         <v>1003275748</v>
       </c>
-      <c r="K16" s="48" t="s">
+      <c r="K16" s="47" t="s">
         <v>262</v>
       </c>
     </row>
@@ -6168,13 +6171,13 @@
       <c r="G17" s="29">
         <v>1012316243</v>
       </c>
-      <c r="H17" s="48" t="s">
+      <c r="H17" s="47" t="s">
         <v>264</v>
       </c>
       <c r="J17" s="33">
         <v>1011153857</v>
       </c>
-      <c r="K17" s="48" t="s">
+      <c r="K17" s="47" t="s">
         <v>262</v>
       </c>
     </row>
@@ -6194,13 +6197,13 @@
       <c r="G18" s="29">
         <v>1016942358</v>
       </c>
-      <c r="H18" s="48" t="s">
+      <c r="H18" s="47" t="s">
         <v>264</v>
       </c>
       <c r="J18" s="33">
         <v>1026238784</v>
       </c>
-      <c r="K18" s="48" t="s">
+      <c r="K18" s="47" t="s">
         <v>263</v>
       </c>
     </row>
@@ -6220,13 +6223,13 @@
       <c r="G19" s="29">
         <v>1192831945</v>
       </c>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="47" t="s">
         <v>264</v>
       </c>
       <c r="J19" s="33">
         <v>1011752470</v>
       </c>
-      <c r="K19" s="48" t="s">
+      <c r="K19" s="47" t="s">
         <v>263</v>
       </c>
     </row>
@@ -6246,13 +6249,13 @@
       <c r="G20" s="29">
         <v>1016943117</v>
       </c>
-      <c r="H20" s="48" t="s">
+      <c r="H20" s="47" t="s">
         <v>264</v>
       </c>
       <c r="J20" s="33">
         <v>1000016762</v>
       </c>
-      <c r="K20" s="48" t="s">
+      <c r="K20" s="47" t="s">
         <v>263</v>
       </c>
     </row>
@@ -6272,13 +6275,13 @@
       <c r="G21" s="29">
         <v>1010051342</v>
       </c>
-      <c r="H21" s="48" t="s">
+      <c r="H21" s="47" t="s">
         <v>264</v>
       </c>
       <c r="J21" s="33">
         <v>1021928374</v>
       </c>
-      <c r="K21" s="48" t="s">
+      <c r="K21" s="47" t="s">
         <v>263</v>
       </c>
     </row>
@@ -6298,13 +6301,13 @@
       <c r="G22" s="29">
         <v>1006051207</v>
       </c>
-      <c r="H22" s="48" t="s">
+      <c r="H22" s="47" t="s">
         <v>264</v>
       </c>
       <c r="J22" s="33">
         <v>1015159424</v>
       </c>
-      <c r="K22" s="48" t="s">
+      <c r="K22" s="47" t="s">
         <v>263</v>
       </c>
     </row>
@@ -6324,13 +6327,13 @@
       <c r="G23" s="29">
         <v>1014176160</v>
       </c>
-      <c r="H23" s="48" t="s">
+      <c r="H23" s="47" t="s">
         <v>264</v>
       </c>
       <c r="J23" s="33">
         <v>1009812763</v>
       </c>
-      <c r="K23" s="48" t="s">
+      <c r="K23" s="47" t="s">
         <v>263</v>
       </c>
     </row>
@@ -6350,13 +6353,13 @@
       <c r="G24" s="29">
         <v>1000350620</v>
       </c>
-      <c r="H24" s="48" t="s">
+      <c r="H24" s="47" t="s">
         <v>264</v>
       </c>
       <c r="J24" s="33">
         <v>10281927364</v>
       </c>
-      <c r="K24" s="48" t="s">
+      <c r="K24" s="47" t="s">
         <v>263</v>
       </c>
     </row>
@@ -6396,7 +6399,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44">
+      <c r="A31" s="43">
         <v>1</v>
       </c>
       <c r="E31" s="57" t="s">
@@ -6405,18 +6408,18 @@
       <c r="F31" s="57"/>
     </row>
     <row r="32" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="44">
+      <c r="D32" s="43">
         <v>1</v>
       </c>
-      <c r="F32" s="44">
+      <c r="F32" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="G33" s="44" t="s">
+      <c r="G33" s="43" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6431,13 +6434,13 @@
       <c r="H34" s="62"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="H35" s="44" t="s">
+      <c r="H35" s="43" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6450,10 +6453,10 @@
       <c r="A37" t="s">
         <v>243</v>
       </c>
-      <c r="B37" s="44">
+      <c r="B37" s="43">
         <v>1</v>
       </c>
-      <c r="H37" s="44">
+      <c r="H37" s="43">
         <v>1</v>
       </c>
     </row>
@@ -6466,12 +6469,12 @@
         <v>239</v>
       </c>
       <c r="H38" s="58"/>
-      <c r="I38" s="44">
+      <c r="I38" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="44">
+      <c r="A39" s="43">
         <v>1</v>
       </c>
       <c r="B39">
@@ -6490,7 +6493,7 @@
         <v>267</v>
       </c>
       <c r="K39" s="62"/>
-      <c r="L39" s="44" t="s">
+      <c r="L39" s="43" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6507,24 +6510,24 @@
       <c r="H40" t="s">
         <v>243</v>
       </c>
-      <c r="J40" s="44" t="s">
+      <c r="J40" s="43" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="C41" s="44">
+      <c r="C41" s="43">
         <v>1</v>
       </c>
-      <c r="E41" s="44" t="s">
+      <c r="E41" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="G41" s="44">
+      <c r="G41" s="43">
         <v>1</v>
       </c>
-      <c r="H41" s="44" t="s">
+      <c r="H41" s="43" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6532,12 +6535,12 @@
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="L42" s="44">
+      <c r="L42" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="43" t="s">
         <v>243</v>
       </c>
       <c r="E43" t="s">
@@ -6562,7 +6565,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="43" t="s">
         <v>243</v>
       </c>
       <c r="K45">
@@ -6570,12 +6573,12 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K46" s="44" t="s">
+      <c r="K46" s="43" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="44">
+      <c r="A50" s="43">
         <v>1</v>
       </c>
     </row>
@@ -6598,18 +6601,18 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>243</v>
+      <c r="B53">
+        <v>1</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="E54" s="44">
+      <c r="B54" s="43">
+        <v>1</v>
+      </c>
+      <c r="E54" s="43">
         <v>1</v>
       </c>
     </row>

--- a/Primer_Trimestres/Nomalizacion/correccion/Normalización .xlsx
+++ b/Primer_Trimestres/Nomalizacion/correccion/Normalización .xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d01d89a1400d5043/Documentos/FARMIFARMACY/Docs excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Documentos\GitHub\farmifarmacy1.0\Primer_Trimestres\Nomalizacion\correccion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{5D5CD52F-53E4-4F0F-B9B6-38621EE8DA4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A5030065-18E6-4402-B1DF-C0D246E868D9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EED49A-116D-468F-9EF9-408F8D9B3A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="3" activeTab="7" xr2:uid="{EB7CC955-6B47-4A67-9DA5-CC93A65E4CC7}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{EB7CC955-6B47-4A67-9DA5-CC93A65E4CC7}"/>
   </bookViews>
   <sheets>
     <sheet name="cliente" sheetId="3" r:id="rId1"/>
     <sheet name="lote" sheetId="4" r:id="rId2"/>
-    <sheet name="vendedor" sheetId="5" r:id="rId3"/>
+    <sheet name="empleado" sheetId="5" r:id="rId3"/>
     <sheet name="factura" sheetId="1" r:id="rId4"/>
     <sheet name="tabal sin normalizar" sheetId="6" r:id="rId5"/>
     <sheet name="1_forma normal" sheetId="7" r:id="rId6"/>
     <sheet name="2_forma normal" sheetId="10" r:id="rId7"/>
     <sheet name="3_forma normal" sheetId="12" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="281">
   <si>
     <t>identificacion</t>
   </si>
@@ -136,9 +136,6 @@
     <t>total cotizacion</t>
   </si>
   <si>
-    <t>vendedor</t>
-  </si>
-  <si>
     <t>Johana Marcela Aparicio Suarez</t>
   </si>
   <si>
@@ -472,9 +469,6 @@
     <t xml:space="preserve">Total Cotización </t>
   </si>
   <si>
-    <t>Vendedor</t>
-  </si>
-  <si>
     <t>Andres Felipe Orjuela</t>
   </si>
   <si>
@@ -751,12 +745,6 @@
     <t>L-7</t>
   </si>
   <si>
-    <t>VENDEDOR</t>
-  </si>
-  <si>
-    <t>CLIENTE-VENDEDOR</t>
-  </si>
-  <si>
     <t>CLIENTE-PRODUCTO</t>
   </si>
   <si>
@@ -796,9 +784,6 @@
     <t>TIPO_DOCUMENTO-CLIENTE</t>
   </si>
   <si>
-    <t>TIPO_DOCUMENTO-VENDEDOR</t>
-  </si>
-  <si>
     <t>PRODUCTO-LOTE</t>
   </si>
   <si>
@@ -860,6 +845,36 @@
   </si>
   <si>
     <t>acetilcisteína en polvo.jpg</t>
+  </si>
+  <si>
+    <t>empleado</t>
+  </si>
+  <si>
+    <t>id_empleado</t>
+  </si>
+  <si>
+    <t>P-Nombre_empleado</t>
+  </si>
+  <si>
+    <t>S-Nombre_empleado</t>
+  </si>
+  <si>
+    <t>P-Apellido_empleado</t>
+  </si>
+  <si>
+    <t>S-Apellido_empleado</t>
+  </si>
+  <si>
+    <t>EMPLEADO</t>
+  </si>
+  <si>
+    <t>CLIENTE-EMPLEADO</t>
+  </si>
+  <si>
+    <t>TIPO_DOCUMENTO-EMPLEADO</t>
+  </si>
+  <si>
+    <t>EMPLEADO-ROL</t>
   </si>
 </sst>
 </file>
@@ -867,12 +882,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.000_-;\-&quot;$&quot;\ * #,##0.000_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0.000_-;\-&quot;$&quot;* #,##0.000_-;_-&quot;$&quot;* &quot;-&quot;???_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;???_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0000"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0.000_-;\-&quot;$&quot;\ * #,##0.000_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.000_-;\-&quot;$&quot;* #,##0.000_-;_-&quot;$&quot;* &quot;-&quot;???_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;???_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1086,7 +1101,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="64">
@@ -1096,9 +1111,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
@@ -1106,7 +1121,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1116,14 +1131,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1177,14 +1192,14 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1199,12 +1214,15 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="18" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1237,9 +1255,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2201,7 +2216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFD5223-BC41-4CAE-8E46-C993E9C569CC}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -2216,22 +2231,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2239,19 +2254,19 @@
         <v>1013576811</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="D2" s="10">
         <v>3122151254</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2259,19 +2274,19 @@
         <v>1001096125</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="D3" s="10">
         <v>3012514581</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2279,19 +2294,19 @@
         <v>1012316243</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="10">
         <v>3204125846</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2299,19 +2314,19 @@
         <v>1016942358</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="D5" s="10">
         <v>3043385964</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2319,10 +2334,10 @@
         <v>1192831945</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="D6" s="10">
         <v>3172727783</v>
@@ -2339,19 +2354,19 @@
         <v>1016943117</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="D7" s="10">
         <v>3003441688</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2359,19 +2374,19 @@
         <v>1010051342</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="D8" s="10">
         <v>3118271726</v>
       </c>
       <c r="E8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2379,19 +2394,19 @@
         <v>1006051207</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="D9" s="10">
         <v>3235940505</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2399,19 +2414,19 @@
         <v>1014176160</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="D10" s="10">
         <v>3137528493</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2419,19 +2434,19 @@
         <v>1000350620</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="D11" s="10">
         <v>3044568380</v>
       </c>
       <c r="E11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2470,19 +2485,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2497,7 +2512,7 @@
       </c>
       <c r="D2" s="15">
         <f ca="1">NOW()</f>
-        <v>44337.808376504632</v>
+        <v>44371.668864120373</v>
       </c>
       <c r="E2" s="15">
         <v>44673.458333333336</v>
@@ -2515,7 +2530,7 @@
       </c>
       <c r="D3" s="15">
         <f t="shared" ref="D3:D20" ca="1" si="0">NOW()</f>
-        <v>44337.808376504632</v>
+        <v>44371.668864120373</v>
       </c>
       <c r="E3" s="15">
         <v>44674.458333333336</v>
@@ -2533,7 +2548,7 @@
       </c>
       <c r="D4" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44371.668864120373</v>
       </c>
       <c r="E4" s="15">
         <v>44675.458333333336</v>
@@ -2551,7 +2566,7 @@
       </c>
       <c r="D5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44371.668864120373</v>
       </c>
       <c r="E5" s="15">
         <v>44676.458333333336</v>
@@ -2569,7 +2584,7 @@
       </c>
       <c r="D6" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44371.668864120373</v>
       </c>
       <c r="E6" s="15">
         <v>44677.458333333336</v>
@@ -2587,7 +2602,7 @@
       </c>
       <c r="D7" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44371.668864120373</v>
       </c>
       <c r="E7" s="15">
         <v>44678.458333333336</v>
@@ -2605,7 +2620,7 @@
       </c>
       <c r="D8" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44371.668864120373</v>
       </c>
       <c r="E8" s="15">
         <v>44679.458333333336</v>
@@ -2613,17 +2628,17 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="C9" s="14">
         <v>29.1</v>
       </c>
       <c r="D9" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44371.668864120373</v>
       </c>
       <c r="E9" s="15">
         <v>44680.458333333336</v>
@@ -2631,17 +2646,17 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="C10" s="14">
         <v>9.2390000000000008</v>
       </c>
       <c r="D10" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44371.668864120373</v>
       </c>
       <c r="E10" s="15">
         <v>44681.458333333336</v>
@@ -2649,17 +2664,17 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="C11" s="14">
         <v>41.997</v>
       </c>
       <c r="D11" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44371.668864120373</v>
       </c>
       <c r="E11" s="15">
         <v>44682.458333333336</v>
@@ -2667,17 +2682,17 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>88</v>
       </c>
       <c r="C12" s="14">
         <v>15.599</v>
       </c>
       <c r="D12" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44371.668864120373</v>
       </c>
       <c r="E12" s="15">
         <v>44683.458333333336</v>
@@ -2685,17 +2700,17 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>90</v>
       </c>
       <c r="C13" s="14">
         <v>18.849</v>
       </c>
       <c r="D13" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44371.668864120373</v>
       </c>
       <c r="E13" s="15">
         <v>44684.458333333336</v>
@@ -2703,17 +2718,17 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>92</v>
       </c>
       <c r="C14" s="14">
         <v>24.048999999999999</v>
       </c>
       <c r="D14" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44371.668864120373</v>
       </c>
       <c r="E14" s="15">
         <v>44685.458333333336</v>
@@ -2721,17 +2736,17 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>93</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>94</v>
       </c>
       <c r="C15" s="14">
         <v>27.548999999999999</v>
       </c>
       <c r="D15" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44371.668864120373</v>
       </c>
       <c r="E15" s="15">
         <v>44686.458333333336</v>
@@ -2739,17 +2754,17 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>96</v>
       </c>
       <c r="C16" s="14">
         <v>55</v>
       </c>
       <c r="D16" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44371.668864120373</v>
       </c>
       <c r="E16" s="15">
         <v>44687.458333333336</v>
@@ -2757,17 +2772,17 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>97</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>98</v>
       </c>
       <c r="C17" s="14">
         <v>31.184999999999999</v>
       </c>
       <c r="D17" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44371.668864120373</v>
       </c>
       <c r="E17" s="15">
         <v>44688.458333333336</v>
@@ -2775,17 +2790,17 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>100</v>
       </c>
       <c r="C18" s="14">
         <v>1.4</v>
       </c>
       <c r="D18" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44371.668864120373</v>
       </c>
       <c r="E18" s="15">
         <v>44689.458333333336</v>
@@ -2793,17 +2808,17 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>102</v>
       </c>
       <c r="C19" s="14">
         <v>13.5</v>
       </c>
       <c r="D19" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44371.668864120373</v>
       </c>
       <c r="E19" s="15">
         <v>44690.458333333336</v>
@@ -2811,17 +2826,17 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="C20" s="14">
         <v>68.5</v>
       </c>
       <c r="D20" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44371.668864120373</v>
       </c>
       <c r="E20" s="15">
         <v>44691.458333333336</v>
@@ -2837,7 +2852,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2849,16 +2864,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>109</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2866,10 +2881,10 @@
         <v>1016841206</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="20">
         <v>450000</v>
@@ -2880,10 +2895,10 @@
         <v>1003275748</v>
       </c>
       <c r="B3" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>113</v>
       </c>
       <c r="D3" s="20">
         <v>450000</v>
@@ -2894,10 +2909,10 @@
         <v>1011153857</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>115</v>
       </c>
       <c r="D4" s="20">
         <v>450000</v>
@@ -2908,10 +2923,10 @@
         <v>1026238784</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>117</v>
       </c>
       <c r="D5" s="20">
         <v>450000</v>
@@ -2922,10 +2937,10 @@
         <v>1011752470</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>119</v>
       </c>
       <c r="D6" s="20">
         <v>450000</v>
@@ -2936,10 +2951,10 @@
         <v>1000016762</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>121</v>
       </c>
       <c r="D7" s="20">
         <v>450000</v>
@@ -2950,10 +2965,10 @@
         <v>1021928374</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>123</v>
       </c>
       <c r="D8" s="20">
         <v>450000</v>
@@ -2964,10 +2979,10 @@
         <v>1015159424</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>125</v>
       </c>
       <c r="D9" s="20">
         <v>450000</v>
@@ -2978,10 +2993,10 @@
         <v>1009812763</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>126</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="D10" s="20">
         <v>450000</v>
@@ -2992,10 +3007,10 @@
         <v>10281927364</v>
       </c>
       <c r="B11" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>128</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>129</v>
       </c>
       <c r="D11" s="20">
         <v>450000</v>
@@ -3011,72 +3026,77 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="52">
+      <c r="B1" s="54"/>
+      <c r="C1" s="53">
         <v>1192831945</v>
       </c>
-      <c r="D1" s="52"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="5">
         <f ca="1">NOW()</f>
-        <v>44337.808376504632</v>
+        <v>44371.668864120373</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="54" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="54"/>
+      <c r="F2" s="55"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="53">
         <v>3172727783</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -3269,39 +3289,39 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52" t="s">
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="52"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="6">
         <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="52"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="6">
         <v>73.91</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="52"/>
+      <c r="E18" s="53"/>
       <c r="F18" s="6">
         <v>462.90999999999997</v>
       </c>
@@ -3310,13 +3330,13 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="4" t="s">
-        <v>34</v>
+        <v>271</v>
       </c>
       <c r="D19" s="4">
         <v>1009812763</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="8">
         <v>450000</v>
@@ -3345,8 +3365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C30745-176D-41BA-8D9A-0B39EE9C6969}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3355,6 +3375,7 @@
     <col min="2" max="2" width="36.140625" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="5" max="5" width="42.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
     <col min="11" max="11" width="34" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" customWidth="1"/>
     <col min="16" max="16" width="14.85546875" customWidth="1"/>
@@ -3363,55 +3384,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="P1" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="Q1" s="12" t="s">
-        <v>146</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -3419,16 +3440,16 @@
         <v>1013576811</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="16">
         <v>3122151254</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="21">
         <v>44228</v>
@@ -3464,7 +3485,7 @@
         <v>462.91</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -3472,16 +3493,16 @@
         <v>1001096125</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="16">
         <v>3012514581</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="21">
         <v>44229</v>
@@ -3517,7 +3538,7 @@
         <v>462.91</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -3525,16 +3546,16 @@
         <v>1012316243</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="16">
         <v>3204125846</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="21">
         <v>44230</v>
@@ -3570,7 +3591,7 @@
         <v>462.91</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -3578,16 +3599,16 @@
         <v>1016942358</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="16">
         <v>3043385964</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="21">
         <v>44231</v>
@@ -3623,7 +3644,7 @@
         <v>462.91</v>
       </c>
       <c r="Q5" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -3676,7 +3697,7 @@
         <v>462.91</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -3684,16 +3705,16 @@
         <v>1016943117</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="16">
         <v>3003441688</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="21">
         <v>44233</v>
@@ -3729,7 +3750,7 @@
         <v>462.91</v>
       </c>
       <c r="Q7" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -3737,16 +3758,16 @@
         <v>1010051342</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="16">
         <v>3118271726</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="21">
         <v>44234</v>
@@ -3782,7 +3803,7 @@
         <v>462.91</v>
       </c>
       <c r="Q8" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -3790,16 +3811,16 @@
         <v>1006051207</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="16">
         <v>3235940505</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="21">
         <v>44235</v>
@@ -3835,7 +3856,7 @@
         <v>462.91</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -3843,16 +3864,16 @@
         <v>1014176160</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="16">
         <v>3137528493</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10" s="21">
         <v>44236</v>
@@ -3888,7 +3909,7 @@
         <v>462.91</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -3896,16 +3917,16 @@
         <v>1000350620</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="16">
         <v>3044568380</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="21">
         <v>44237</v>
@@ -3941,7 +3962,7 @@
         <v>462.91</v>
       </c>
       <c r="Q11" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3965,8 +3986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9B3C5C-ADFC-4BC2-AC69-E82DBE3B9792}">
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3991,106 +4012,106 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="G1" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="S1" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q1" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="S1" s="26" t="s">
-        <v>172</v>
-      </c>
       <c r="T1" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U1" s="26" t="s">
-        <v>173</v>
+        <v>272</v>
       </c>
       <c r="V1" s="26" t="s">
-        <v>174</v>
+        <v>273</v>
       </c>
       <c r="W1" s="26" t="s">
-        <v>175</v>
+        <v>274</v>
       </c>
       <c r="X1" s="26" t="s">
-        <v>176</v>
+        <v>275</v>
       </c>
       <c r="Y1" s="26" t="s">
-        <v>177</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B2" s="27">
         <v>1013576811</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="16">
         <v>3122151254</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" s="21">
         <v>44228</v>
@@ -4129,45 +4150,45 @@
         <v>1016841206</v>
       </c>
       <c r="V2" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="X2" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="Y2" s="16" t="s">
         <v>182</v>
-      </c>
-      <c r="X2" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B3" s="27">
         <v>1001096125</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>188</v>
-      </c>
       <c r="G3" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H3" s="16">
         <v>3012514581</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J3" s="21">
         <v>44229</v>
@@ -4206,43 +4227,43 @@
         <v>1003275748</v>
       </c>
       <c r="V3" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="X3" s="16" t="s">
         <v>189</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="X3" s="16" t="s">
-        <v>191</v>
       </c>
       <c r="Y3" s="16"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B4" s="27">
         <v>1012316243</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" s="16">
         <v>3204125846</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J4" s="21">
         <v>44230</v>
@@ -4281,41 +4302,41 @@
         <v>1011153857</v>
       </c>
       <c r="V4" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="W4" s="16" t="s">
         <v>114</v>
-      </c>
-      <c r="W4" s="16" t="s">
-        <v>115</v>
       </c>
       <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B5" s="27">
         <v>1016942358</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>196</v>
-      </c>
       <c r="G5" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H5" s="16">
         <v>3043385964</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J5" s="21">
         <v>44231</v>
@@ -4354,36 +4375,36 @@
         <v>1026238784</v>
       </c>
       <c r="V5" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="W5" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="X5" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y5" s="16" t="s">
         <v>197</v>
-      </c>
-      <c r="W5" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="X5" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y5" s="16" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B6" s="27">
         <v>1192831945</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>6</v>
@@ -4431,43 +4452,43 @@
         <v>1011752470</v>
       </c>
       <c r="V6" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="W6" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="X6" s="16" t="s">
         <v>202</v>
-      </c>
-      <c r="W6" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="X6" s="16" t="s">
-        <v>204</v>
       </c>
       <c r="Y6" s="16"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B7" s="27">
         <v>1016943117</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="F7" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>208</v>
-      </c>
       <c r="G7" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H7" s="16">
         <v>3003441688</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J7" s="21">
         <v>44233</v>
@@ -4506,45 +4527,45 @@
         <v>1000016762</v>
       </c>
       <c r="V7" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="W7" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="X7" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y7" s="16" t="s">
         <v>209</v>
-      </c>
-      <c r="W7" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="X7" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y7" s="16" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B8" s="27">
         <v>1010051342</v>
       </c>
       <c r="C8" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>214</v>
-      </c>
       <c r="G8" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H8" s="16">
         <v>3118271726</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J8" s="21">
         <v>44234</v>
@@ -4583,43 +4604,43 @@
         <v>1021928374</v>
       </c>
       <c r="V8" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="W8" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="X8" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y8" s="16"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B9" s="27">
         <v>1006051207</v>
       </c>
       <c r="C9" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>219</v>
-      </c>
       <c r="G9" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H9" s="16">
         <v>3235940505</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J9" s="21">
         <v>44235</v>
@@ -4658,41 +4679,41 @@
         <v>1015159424</v>
       </c>
       <c r="V9" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="W9" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="W9" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B10" s="27">
         <v>1014176160</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="16">
         <v>3137528493</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J10" s="21">
         <v>44236</v>
@@ -4731,45 +4752,45 @@
         <v>1009812763</v>
       </c>
       <c r="V10" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="W10" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="X10" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Y10" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B11" s="27">
         <v>1000350620</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H11" s="16">
         <v>3044568380</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J11" s="21">
         <v>44237</v>
@@ -4808,16 +4829,16 @@
         <v>10281927364</v>
       </c>
       <c r="V11" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W11" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="X11" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Y11" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4842,7 +4863,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4871,28 +4892,28 @@
   <sheetData>
     <row r="1" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="D1" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>171</v>
-      </c>
       <c r="F1" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>133</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -4900,23 +4921,23 @@
         <v>1013576811</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="31">
         <v>3122151254</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -4924,25 +4945,25 @@
         <v>1001096125</v>
       </c>
       <c r="B3" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="E3" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>188</v>
-      </c>
       <c r="F3" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="31">
         <v>3012514581</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -4950,25 +4971,25 @@
         <v>1012316243</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="31">
         <v>3204125846</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -4976,25 +4997,25 @@
         <v>1016942358</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>196</v>
-      </c>
       <c r="F5" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="31">
         <v>3043385964</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -5002,16 +5023,16 @@
         <v>1192831945</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>6</v>
@@ -5028,25 +5049,25 @@
         <v>1016943117</v>
       </c>
       <c r="B7" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="E7" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>208</v>
-      </c>
       <c r="F7" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G7" s="31">
         <v>3003441688</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -5054,25 +5075,25 @@
         <v>1010051342</v>
       </c>
       <c r="B8" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>214</v>
-      </c>
       <c r="F8" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="31">
         <v>3118271726</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -5080,25 +5101,25 @@
         <v>1006051207</v>
       </c>
       <c r="B9" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>219</v>
-      </c>
       <c r="F9" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G9" s="31">
         <v>3235940505</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -5106,25 +5127,25 @@
         <v>1014176160</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="31">
         <v>3137528493</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -5132,63 +5153,63 @@
         <v>1000350620</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G11" s="31">
         <v>3044568380</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
+      <c r="A12" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="D14" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="E14" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>177</v>
-      </c>
       <c r="G14" s="47" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I14" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -5196,16 +5217,16 @@
         <v>1016841206</v>
       </c>
       <c r="B15" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="E15" s="35" t="s">
         <v>182</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>184</v>
       </c>
       <c r="G15" s="44">
         <v>1</v>
@@ -5222,13 +5243,13 @@
         <v>1003275748</v>
       </c>
       <c r="B16" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="35" t="s">
         <v>189</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>191</v>
       </c>
       <c r="E16" s="35"/>
       <c r="G16" s="44">
@@ -5246,11 +5267,11 @@
         <v>1011153857</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" s="35"/>
       <c r="G17" s="44">
@@ -5268,16 +5289,16 @@
         <v>1026238784</v>
       </c>
       <c r="B18" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" s="35" t="s">
         <v>197</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>199</v>
       </c>
       <c r="G18" s="44">
         <v>4</v>
@@ -5294,13 +5315,13 @@
         <v>1011752470</v>
       </c>
       <c r="B19" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" s="35" t="s">
         <v>202</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>204</v>
       </c>
       <c r="E19" s="35"/>
       <c r="G19" s="44">
@@ -5318,16 +5339,16 @@
         <v>1000016762</v>
       </c>
       <c r="B20" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="E20" s="35" t="s">
         <v>209</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>211</v>
       </c>
       <c r="G20" s="44">
         <v>6</v>
@@ -5344,13 +5365,13 @@
         <v>1021928374</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E21" s="35"/>
       <c r="G21" s="44">
@@ -5368,11 +5389,11 @@
         <v>1015159424</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" s="35"/>
       <c r="D22" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E22" s="35"/>
       <c r="G22" s="44">
@@ -5390,16 +5411,16 @@
         <v>1009812763</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G23" s="44">
         <v>9</v>
@@ -5416,16 +5437,16 @@
         <v>10281927364</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G24" s="44">
         <v>10</v>
@@ -5438,48 +5459,48 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="G25" s="60" t="s">
-        <v>244</v>
-      </c>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
+      <c r="A25" s="59" t="s">
+        <v>277</v>
+      </c>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="G25" s="61" t="s">
+        <v>240</v>
+      </c>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
     </row>
     <row r="26" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D27" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="E27" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="F27" s="40" t="s">
+      <c r="G27" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="G27" s="40" t="s">
-        <v>141</v>
-      </c>
       <c r="H27" s="40" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="B28" s="63">
+        <v>230</v>
+      </c>
+      <c r="B28" s="52">
         <v>1234</v>
       </c>
       <c r="D28" s="38" t="s">
@@ -5495,14 +5516,14 @@
         <v>43</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="B29" s="63">
+        <v>231</v>
+      </c>
+      <c r="B29" s="52">
         <v>2876</v>
       </c>
       <c r="D29" s="38" t="s">
@@ -5518,14 +5539,14 @@
         <v>76</v>
       </c>
       <c r="H29" s="40" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="B30" s="63">
+        <v>232</v>
+      </c>
+      <c r="B30" s="52">
         <v>8744</v>
       </c>
       <c r="D30" s="38" t="s">
@@ -5541,14 +5562,14 @@
         <v>8</v>
       </c>
       <c r="H30" s="40" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="B31" s="63">
+        <v>233</v>
+      </c>
+      <c r="B31" s="52">
         <v>3978</v>
       </c>
       <c r="D31" s="38" t="s">
@@ -5564,14 +5585,14 @@
         <v>6</v>
       </c>
       <c r="H31" s="40" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="B32" s="63">
+        <v>234</v>
+      </c>
+      <c r="B32" s="52">
         <v>2938</v>
       </c>
       <c r="D32" s="38" t="s">
@@ -5587,14 +5608,14 @@
         <v>7</v>
       </c>
       <c r="H32" s="40" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="B33" s="63">
+        <v>235</v>
+      </c>
+      <c r="B33" s="52">
         <v>4937</v>
       </c>
       <c r="D33" s="38" t="s">
@@ -5610,14 +5631,14 @@
         <v>23</v>
       </c>
       <c r="H33" s="40" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="B34" s="63">
+        <v>236</v>
+      </c>
+      <c r="B34" s="52">
         <v>8736</v>
       </c>
       <c r="D34" s="38" t="s">
@@ -5633,87 +5654,87 @@
         <v>30</v>
       </c>
       <c r="H34" s="40" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="B35" s="59"/>
-      <c r="D35" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
+      <c r="A35" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="D35" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E37" s="50" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E38" s="50" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="42" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E39" s="50" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E40" s="50" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="B41" s="57"/>
-      <c r="D41" s="56" t="s">
-        <v>265</v>
-      </c>
-      <c r="E41" s="56"/>
+      <c r="A41" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="B41" s="58"/>
+      <c r="D41" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="E41" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5747,8 +5768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15CDDD0-1EC6-46EB-86DD-BB5C7073D9F7}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5768,28 +5789,28 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K1" s="47" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -5803,7 +5824,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G2" s="29">
         <v>1013576811</v>
@@ -5829,7 +5850,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G3" s="29">
         <v>1001096125</v>
@@ -5855,7 +5876,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G4" s="29">
         <v>1012316243</v>
@@ -5881,7 +5902,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G5" s="29">
         <v>1016942358</v>
@@ -5907,7 +5928,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G6" s="29">
         <v>1192831945</v>
@@ -5933,7 +5954,7 @@
         <v>26</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G7" s="29">
         <v>1016943117</v>
@@ -5959,7 +5980,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G8" s="29">
         <v>1010051342</v>
@@ -5985,7 +6006,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G9" s="29">
         <v>1006051207</v>
@@ -6011,7 +6032,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G10" s="29">
         <v>1014176160</v>
@@ -6037,7 +6058,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G11" s="29">
         <v>1000350620</v>
@@ -6053,22 +6074,22 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
-        <v>240</v>
-      </c>
-      <c r="B12" s="62"/>
-      <c r="D12" s="62" t="s">
-        <v>255</v>
-      </c>
-      <c r="E12" s="62"/>
-      <c r="G12" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="H12" s="62"/>
-      <c r="J12" s="62" t="s">
-        <v>256</v>
-      </c>
-      <c r="K12" s="62"/>
+      <c r="A12" s="63" t="s">
+        <v>278</v>
+      </c>
+      <c r="B12" s="63"/>
+      <c r="D12" s="63" t="s">
+        <v>250</v>
+      </c>
+      <c r="E12" s="63"/>
+      <c r="G12" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="H12" s="63"/>
+      <c r="J12" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="K12" s="63"/>
     </row>
     <row r="13" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G13"/>
@@ -6079,39 +6100,39 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H14" s="47" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K14" s="47" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B15" s="29">
         <v>1013576811</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E15" s="33">
         <v>1016841206</v>
@@ -6120,24 +6141,24 @@
         <v>1013576811</v>
       </c>
       <c r="H15" s="47" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J15" s="33">
         <v>1016841206</v>
       </c>
       <c r="K15" s="47" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B16" s="29">
         <v>1001096125</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E16" s="33">
         <v>1003275748</v>
@@ -6146,24 +6167,24 @@
         <v>1001096125</v>
       </c>
       <c r="H16" s="47" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J16" s="33">
         <v>1003275748</v>
       </c>
       <c r="K16" s="47" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B17" s="29">
         <v>1012316243</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E17" s="33">
         <v>1011153857</v>
@@ -6172,24 +6193,24 @@
         <v>1012316243</v>
       </c>
       <c r="H17" s="47" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J17" s="33">
         <v>1011153857</v>
       </c>
       <c r="K17" s="47" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B18" s="29">
         <v>1016942358</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E18" s="33">
         <v>1026238784</v>
@@ -6198,24 +6219,24 @@
         <v>1016942358</v>
       </c>
       <c r="H18" s="47" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J18" s="33">
         <v>1026238784</v>
       </c>
       <c r="K18" s="47" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B19" s="29">
         <v>1192831945</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E19" s="33">
         <v>1011752470</v>
@@ -6224,24 +6245,24 @@
         <v>1192831945</v>
       </c>
       <c r="H19" s="47" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J19" s="33">
         <v>1011752470</v>
       </c>
       <c r="K19" s="47" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B20" s="29">
         <v>1016943117</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E20" s="33">
         <v>1000016762</v>
@@ -6250,24 +6271,24 @@
         <v>1016943117</v>
       </c>
       <c r="H20" s="47" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J20" s="33">
         <v>1000016762</v>
       </c>
       <c r="K20" s="47" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B21" s="29">
         <v>1010051342</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E21" s="33">
         <v>1021928374</v>
@@ -6276,24 +6297,24 @@
         <v>1010051342</v>
       </c>
       <c r="H21" s="47" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J21" s="33">
         <v>1021928374</v>
       </c>
       <c r="K21" s="47" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B22" s="29">
         <v>1006051207</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E22" s="33">
         <v>1015159424</v>
@@ -6302,24 +6323,24 @@
         <v>1006051207</v>
       </c>
       <c r="H22" s="47" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J22" s="33">
         <v>1015159424</v>
       </c>
       <c r="K22" s="47" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B23" s="29">
         <v>1014176160</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E23" s="33">
         <v>1009812763</v>
@@ -6328,24 +6349,24 @@
         <v>1014176160</v>
       </c>
       <c r="H23" s="47" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J23" s="33">
         <v>1009812763</v>
       </c>
       <c r="K23" s="47" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B24" s="29">
         <v>1000350620</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E24" s="33">
         <v>10281927364</v>
@@ -6354,39 +6375,39 @@
         <v>1000350620</v>
       </c>
       <c r="H24" s="47" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J24" s="33">
         <v>10281927364</v>
       </c>
       <c r="K24" s="47" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="62" t="s">
-        <v>253</v>
-      </c>
-      <c r="B25" s="62"/>
-      <c r="D25" s="62" t="s">
-        <v>254</v>
-      </c>
-      <c r="E25" s="62"/>
-      <c r="G25" s="62" t="s">
-        <v>266</v>
-      </c>
-      <c r="H25" s="62"/>
-      <c r="J25" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="K25" s="62"/>
+      <c r="A25" s="63" t="s">
+        <v>249</v>
+      </c>
+      <c r="B25" s="63"/>
+      <c r="D25" s="63" t="s">
+        <v>279</v>
+      </c>
+      <c r="E25" s="63"/>
+      <c r="G25" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="H25" s="63"/>
+      <c r="J25" s="63" t="s">
+        <v>262</v>
+      </c>
+      <c r="K25" s="63"/>
     </row>
     <row r="27" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="56" t="s">
-        <v>265</v>
-      </c>
-      <c r="B28" s="56"/>
+      <c r="A28" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="B28" s="57"/>
     </row>
     <row r="29" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
@@ -6402,10 +6423,10 @@
       <c r="A31" s="43">
         <v>1</v>
       </c>
-      <c r="E31" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="F31" s="57"/>
+      <c r="E31" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="F31" s="58"/>
     </row>
     <row r="32" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D32" s="43">
@@ -6417,31 +6438,31 @@
     </row>
     <row r="33" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D33" s="43" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G33" s="43" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="62" t="s">
-        <v>253</v>
-      </c>
-      <c r="D34" s="62"/>
-      <c r="G34" s="62" t="s">
-        <v>254</v>
-      </c>
-      <c r="H34" s="62"/>
+      <c r="C34" s="63" t="s">
+        <v>249</v>
+      </c>
+      <c r="D34" s="63"/>
+      <c r="G34" s="63" t="s">
+        <v>279</v>
+      </c>
+      <c r="H34" s="63"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -6451,7 +6472,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B37" s="43">
         <v>1</v>
@@ -6461,14 +6482,14 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="B38" s="55"/>
-      <c r="G38" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="H38" s="58"/>
+      <c r="A38" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="B38" s="56"/>
+      <c r="G38" s="59" t="s">
+        <v>277</v>
+      </c>
+      <c r="H38" s="59"/>
       <c r="I38" s="43">
         <v>1</v>
       </c>
@@ -6489,17 +6510,17 @@
       <c r="H39">
         <v>1</v>
       </c>
-      <c r="J39" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="K39" s="62"/>
+      <c r="J39" s="63" t="s">
+        <v>280</v>
+      </c>
+      <c r="K39" s="63"/>
       <c r="L39" s="43" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -6508,27 +6529,27 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J40" s="43" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" s="43" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C41" s="43">
         <v>1</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G41" s="43">
         <v>1</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -6541,32 +6562,32 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E43" t="s">
-        <v>243</v>
-      </c>
-      <c r="K43" s="56" t="s">
-        <v>265</v>
-      </c>
-      <c r="L43" s="56"/>
+        <v>239</v>
+      </c>
+      <c r="K43" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="L43" s="57"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="B44" s="62"/>
-      <c r="E44" s="60" t="s">
-        <v>244</v>
-      </c>
-      <c r="F44" s="60"/>
+      <c r="A44" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="B44" s="63"/>
+      <c r="E44" s="61" t="s">
+        <v>240</v>
+      </c>
+      <c r="F44" s="61"/>
       <c r="K44" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="43" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -6574,7 +6595,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K46" s="43" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -6583,14 +6604,14 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" s="61"/>
-      <c r="E51" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F51" s="59"/>
+      <c r="A51" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="62"/>
+      <c r="E51" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="F51" s="60"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B52">

--- a/Primer_Trimestres/Nomalizacion/correccion/Normalización .xlsx
+++ b/Primer_Trimestres/Nomalizacion/correccion/Normalización .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d01d89a1400d5043/Documentos/FARMIFARMACY/Docs excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{5D5CD52F-53E4-4F0F-B9B6-38621EE8DA4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A5030065-18E6-4402-B1DF-C0D246E868D9}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{5D5CD52F-53E4-4F0F-B9B6-38621EE8DA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD59913C-B014-4078-B1D8-E39275E402CF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="3" activeTab="7" xr2:uid="{EB7CC955-6B47-4A67-9DA5-CC93A65E4CC7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="275">
   <si>
     <t>identificacion</t>
   </si>
@@ -751,18 +751,6 @@
     <t>L-7</t>
   </si>
   <si>
-    <t>VENDEDOR</t>
-  </si>
-  <si>
-    <t>CLIENTE-VENDEDOR</t>
-  </si>
-  <si>
-    <t>CLIENTE-PRODUCTO</t>
-  </si>
-  <si>
-    <t>CLIENTE</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -793,27 +781,15 @@
     <t>TIPO_DOCUMENTO</t>
   </si>
   <si>
-    <t>TIPO_DOCUMENTO-CLIENTE</t>
-  </si>
-  <si>
-    <t>TIPO_DOCUMENTO-VENDEDOR</t>
-  </si>
-  <si>
     <t>PRODUCTO-LOTE</t>
   </si>
   <si>
-    <t xml:space="preserve">CLIENTE-COTIZACIÓN </t>
-  </si>
-  <si>
     <t>Cod_rol</t>
   </si>
   <si>
     <t>Rol</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>Empleado</t>
   </si>
   <si>
@@ -829,15 +805,6 @@
     <t>r_3</t>
   </si>
   <si>
-    <t>ROLES</t>
-  </si>
-  <si>
-    <t>CLIENTE-ROL</t>
-  </si>
-  <si>
-    <t>VENDEDOR-ROL</t>
-  </si>
-  <si>
     <t xml:space="preserve">Imagen </t>
   </si>
   <si>
@@ -860,6 +827,36 @@
   </si>
   <si>
     <t>acetilcisteína en polvo.jpg</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
+    <t>USUARIO</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>ROL</t>
+  </si>
+  <si>
+    <t>USUARIO-TIPO_DOCUMENTO</t>
+  </si>
+  <si>
+    <t>USUARIO-PRODUCTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USUARIO-COTIZACIÓN </t>
+  </si>
+  <si>
+    <t>USUARIO-ROL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -917,7 +914,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -950,12 +947,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -969,18 +960,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,7 +1030,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1083,13 +1062,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1144,35 +1175,47 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1180,31 +1223,12 @@
     <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1215,32 +1239,89 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1266,22 +1347,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Conector recto 36">
+        <xdr:cNvPr id="3" name="Conector recto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AED0BBA4-78C4-433D-BFEC-193FEC4E465A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE765914-A192-42BE-A444-56F9929EEFFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1289,8 +1370,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2200275" y="5400675"/>
-          <a:ext cx="3895725" cy="19050"/>
+          <a:off x="3048000" y="9515475"/>
+          <a:ext cx="1943100" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1318,23 +1399,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Conector recto 37">
+        <xdr:cNvPr id="16" name="Conector recto 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2376EE3-3FEB-40B1-86F0-C3E16C940021}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5497DB5A-F0CD-4B52-B8BA-0B285ACE9C3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,114 +1423,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2209800" y="9039225"/>
-          <a:ext cx="1695450" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="Conector recto 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF9392B-6FBB-493B-8D2C-60D0ECEF3CB0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="485775" y="5534025"/>
-          <a:ext cx="600075" cy="933450"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="Conector recto 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B5EFF3B-D29C-4948-9F73-7ADBCFCBBF8C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="542925" y="6686550"/>
-          <a:ext cx="533400" cy="1133475"/>
+          <a:off x="3057525" y="10858500"/>
+          <a:ext cx="1943100" cy="1152525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1479,21 +1454,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="Conector recto 52">
+        <xdr:cNvPr id="22" name="Conector recto 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE4BB9D8-F996-401E-92F6-69D397497346}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B33671-0470-4609-8A36-22893173F271}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1501,8 +1476,61 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2200275" y="5543550"/>
-          <a:ext cx="2790825" cy="942975"/>
+          <a:off x="2200275" y="12201525"/>
+          <a:ext cx="0" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Conector recto 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1225771-AC55-473E-BB15-5C83BC2CE199}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7181850" y="9915526"/>
+          <a:ext cx="933450" cy="742949"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1530,23 +1558,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="Conector recto 55">
+        <xdr:cNvPr id="26" name="Conector recto 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BF900AF-B601-462A-81ED-7641BF717848}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD4255E7-5AD7-4F4B-930F-ED348651898D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1554,61 +1582,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2200275" y="5905500"/>
-          <a:ext cx="838200" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="Conector recto 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFC805C9-542C-4BD6-B232-DDBBA40A4034}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3914775" y="5343525"/>
-          <a:ext cx="561975" cy="381000"/>
+          <a:off x="10201275" y="9544050"/>
+          <a:ext cx="847725" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1637,31 +1612,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="Conector recto 66">
+        <xdr:cNvPr id="30" name="Conector recto 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2CC647-8DF7-4CFB-9B2B-BCD0370E1C2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD1FD81-1E5C-437A-BCB7-F15A91CBFEBB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6096000" y="5334000"/>
-          <a:ext cx="1104900" cy="361950"/>
+        <a:xfrm>
+          <a:off x="7181850" y="10877550"/>
+          <a:ext cx="923925" cy="733425"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1689,23 +1664,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9527</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="70" name="Conector recto 69">
+        <xdr:cNvPr id="33" name="Conector recto 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF7C294-0C85-4AD3-84C3-3FED6A3B37DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD035D81-B7ED-4CC0-B4D8-860ACCB87DAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1713,167 +1688,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7200900" y="5895975"/>
-          <a:ext cx="2" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Conector recto 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A0F299-4980-40B8-B0B3-2C1FCDCE1A39}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1076325" y="5353050"/>
-          <a:ext cx="0" cy="1685925"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Conector recto 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69C18B8B-6682-4C25-8D61-739F6E16F93C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="8134350" y="7258050"/>
-          <a:ext cx="971551" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Conector recto 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6EDECE2-4CE4-46B1-B4DD-2E57F3FC8924}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="11077575" y="7419976"/>
-          <a:ext cx="9525" cy="590549"/>
+          <a:off x="10210800" y="11610975"/>
+          <a:ext cx="876300" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2497,7 +2313,7 @@
       </c>
       <c r="D2" s="15">
         <f ca="1">NOW()</f>
-        <v>44337.808376504632</v>
+        <v>44372.768375462962</v>
       </c>
       <c r="E2" s="15">
         <v>44673.458333333336</v>
@@ -2515,7 +2331,7 @@
       </c>
       <c r="D3" s="15">
         <f t="shared" ref="D3:D20" ca="1" si="0">NOW()</f>
-        <v>44337.808376504632</v>
+        <v>44372.768375462962</v>
       </c>
       <c r="E3" s="15">
         <v>44674.458333333336</v>
@@ -2533,7 +2349,7 @@
       </c>
       <c r="D4" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44372.768375462962</v>
       </c>
       <c r="E4" s="15">
         <v>44675.458333333336</v>
@@ -2551,7 +2367,7 @@
       </c>
       <c r="D5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44372.768375462962</v>
       </c>
       <c r="E5" s="15">
         <v>44676.458333333336</v>
@@ -2569,7 +2385,7 @@
       </c>
       <c r="D6" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44372.768375462962</v>
       </c>
       <c r="E6" s="15">
         <v>44677.458333333336</v>
@@ -2587,7 +2403,7 @@
       </c>
       <c r="D7" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44372.768375462962</v>
       </c>
       <c r="E7" s="15">
         <v>44678.458333333336</v>
@@ -2605,7 +2421,7 @@
       </c>
       <c r="D8" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44372.768375462962</v>
       </c>
       <c r="E8" s="15">
         <v>44679.458333333336</v>
@@ -2623,7 +2439,7 @@
       </c>
       <c r="D9" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44372.768375462962</v>
       </c>
       <c r="E9" s="15">
         <v>44680.458333333336</v>
@@ -2641,7 +2457,7 @@
       </c>
       <c r="D10" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44372.768375462962</v>
       </c>
       <c r="E10" s="15">
         <v>44681.458333333336</v>
@@ -2659,7 +2475,7 @@
       </c>
       <c r="D11" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44372.768375462962</v>
       </c>
       <c r="E11" s="15">
         <v>44682.458333333336</v>
@@ -2677,7 +2493,7 @@
       </c>
       <c r="D12" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44372.768375462962</v>
       </c>
       <c r="E12" s="15">
         <v>44683.458333333336</v>
@@ -2695,7 +2511,7 @@
       </c>
       <c r="D13" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44372.768375462962</v>
       </c>
       <c r="E13" s="15">
         <v>44684.458333333336</v>
@@ -2713,7 +2529,7 @@
       </c>
       <c r="D14" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44372.768375462962</v>
       </c>
       <c r="E14" s="15">
         <v>44685.458333333336</v>
@@ -2731,7 +2547,7 @@
       </c>
       <c r="D15" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44372.768375462962</v>
       </c>
       <c r="E15" s="15">
         <v>44686.458333333336</v>
@@ -2749,7 +2565,7 @@
       </c>
       <c r="D16" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44372.768375462962</v>
       </c>
       <c r="E16" s="15">
         <v>44687.458333333336</v>
@@ -2767,7 +2583,7 @@
       </c>
       <c r="D17" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44372.768375462962</v>
       </c>
       <c r="E17" s="15">
         <v>44688.458333333336</v>
@@ -2785,7 +2601,7 @@
       </c>
       <c r="D18" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44372.768375462962</v>
       </c>
       <c r="E18" s="15">
         <v>44689.458333333336</v>
@@ -2803,7 +2619,7 @@
       </c>
       <c r="D19" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44372.768375462962</v>
       </c>
       <c r="E19" s="15">
         <v>44690.458333333336</v>
@@ -2821,7 +2637,7 @@
       </c>
       <c r="D20" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44337.808376504632</v>
+        <v>44372.768375462962</v>
       </c>
       <c r="E20" s="15">
         <v>44691.458333333336</v>
@@ -3020,63 +2836,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="52">
+      <c r="B1" s="50"/>
+      <c r="C1" s="49">
         <v>1192831945</v>
       </c>
-      <c r="D1" s="52"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="5">
         <f ca="1">NOW()</f>
-        <v>44337.808376504632</v>
+        <v>44372.768375462962</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="54" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="54"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="49">
         <v>3172727783</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -3269,39 +3085,39 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52" t="s">
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="52"/>
+      <c r="E16" s="49"/>
       <c r="F16" s="6">
         <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52" t="s">
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="52"/>
+      <c r="E17" s="49"/>
       <c r="F17" s="6">
         <v>73.91</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52" t="s">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="52"/>
+      <c r="E18" s="49"/>
       <c r="F18" s="6">
         <v>462.90999999999997</v>
       </c>
@@ -3324,6 +3140,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C18"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A1:B1"/>
@@ -3331,11 +3152,6 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C18"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3965,8 +3781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9B3C5C-ADFC-4BC2-AC69-E82DBE3B9792}">
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4839,19 +4655,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154A3EB2-7D84-4648-B4B7-AFD12D379634}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" customWidth="1"/>
     <col min="8" max="8" width="40.5703125" customWidth="1"/>
@@ -4869,7 +4685,7 @@
     <col min="25" max="25" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>167</v>
       </c>
@@ -4894,8 +4710,14 @@
       <c r="H1" s="30" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>1013576811</v>
       </c>
@@ -4918,8 +4740,14 @@
       <c r="H2" s="32" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>1001096125</v>
       </c>
@@ -4944,8 +4772,14 @@
       <c r="H3" s="32" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>1012316243</v>
       </c>
@@ -4970,8 +4804,14 @@
       <c r="H4" s="32" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>1016942358</v>
       </c>
@@ -4996,8 +4836,14 @@
       <c r="H5" s="32" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>1192831945</v>
       </c>
@@ -5022,8 +4868,14 @@
       <c r="H6" s="32" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>1016943117</v>
       </c>
@@ -5048,8 +4900,14 @@
       <c r="H7" s="32" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>1010051342</v>
       </c>
@@ -5074,8 +4932,14 @@
       <c r="H8" s="32" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>1006051207</v>
       </c>
@@ -5100,8 +4964,14 @@
       <c r="H9" s="32" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>1014176160</v>
       </c>
@@ -5126,8 +4996,14 @@
       <c r="H10" s="32" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>1000350620</v>
       </c>
@@ -5152,578 +5028,674 @@
       <c r="H11" s="32" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
+      <c r="I11" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="39">
+        <v>1016841206</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
+        <v>1003275748</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
+        <v>1011153857</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
+        <v>1026238784</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
+        <v>1011752470</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
+        <v>1000016762</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
+        <v>1021928374</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
+        <v>1015159424</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="39">
+        <v>1009812763</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="39">
+        <v>10281927364</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="60"/>
+      <c r="E24" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="40">
+        <v>1</v>
+      </c>
+      <c r="B25" s="42">
+        <v>44228</v>
+      </c>
+      <c r="C25" s="45">
+        <v>129</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="F25" s="47">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="40">
+        <v>2</v>
+      </c>
+      <c r="B26" s="42">
+        <v>44229</v>
+      </c>
+      <c r="C26" s="45">
+        <v>76</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="F26" s="47">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="40">
+        <v>3</v>
+      </c>
+      <c r="B27" s="42">
+        <v>44230</v>
+      </c>
+      <c r="C27" s="45">
+        <v>16</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="F27" s="47">
+        <v>8744</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="40">
+        <v>4</v>
+      </c>
+      <c r="B28" s="42">
+        <v>44231</v>
+      </c>
+      <c r="C28" s="45">
+        <v>18</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="F28" s="47">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="40">
+        <v>5</v>
+      </c>
+      <c r="B29" s="42">
+        <v>44232</v>
+      </c>
+      <c r="C29" s="45">
+        <v>14</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="F29" s="47">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="40">
+        <v>6</v>
+      </c>
+      <c r="B30" s="42">
+        <v>44233</v>
+      </c>
+      <c r="C30" s="45">
+        <v>46</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F30" s="47">
+        <v>4937</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="40">
+        <v>7</v>
+      </c>
+      <c r="B31" s="42">
+        <v>44234</v>
+      </c>
+      <c r="C31" s="45">
+        <v>90</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="F31" s="47">
+        <v>8736</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="40">
+        <v>8</v>
+      </c>
+      <c r="B32" s="42">
+        <v>44235</v>
+      </c>
+      <c r="C32" s="45">
+        <v>129</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="54"/>
+    </row>
+    <row r="33" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="40">
+        <v>9</v>
+      </c>
+      <c r="B33" s="42">
+        <v>44236</v>
+      </c>
+      <c r="C33" s="45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="40">
+        <v>10</v>
+      </c>
+      <c r="B34" s="42">
+        <v>44237</v>
+      </c>
+      <c r="C34" s="45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+    </row>
+    <row r="36" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="37">
+        <v>3</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="38">
+        <v>43</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="37">
+        <v>1</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="38">
+        <v>76</v>
+      </c>
+      <c r="E39" s="36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="37">
+        <v>2</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="38">
+        <v>8</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="37">
+        <v>3</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="38">
+        <v>6</v>
+      </c>
+      <c r="E41" s="36" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="37">
+        <v>2</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="38">
+        <v>7</v>
+      </c>
+      <c r="E42" s="36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="37">
+        <v>2</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="38">
+        <v>23</v>
+      </c>
+      <c r="E43" s="36" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="37">
+        <v>3</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="38">
+        <v>30</v>
+      </c>
+      <c r="E44" s="36" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="B47" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="G14" s="47" t="s">
+      <c r="D47" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="E47" s="46" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="E48" s="46" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="H14" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
-        <v>1016841206</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="G15" s="44">
-        <v>1</v>
-      </c>
-      <c r="H15" s="46">
-        <v>44228</v>
-      </c>
-      <c r="I15" s="49">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
-        <v>1003275748</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="E16" s="35"/>
-      <c r="G16" s="44">
-        <v>2</v>
-      </c>
-      <c r="H16" s="46">
-        <v>44229</v>
-      </c>
-      <c r="I16" s="49">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
-        <v>1011153857</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" s="35"/>
-      <c r="G17" s="44">
-        <v>3</v>
-      </c>
-      <c r="H17" s="46">
-        <v>44230</v>
-      </c>
-      <c r="I17" s="49">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
-        <v>1026238784</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="G18" s="44">
-        <v>4</v>
-      </c>
-      <c r="H18" s="46">
-        <v>44231</v>
-      </c>
-      <c r="I18" s="49">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="33">
-        <v>1011752470</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="E19" s="35"/>
-      <c r="G19" s="44">
-        <v>5</v>
-      </c>
-      <c r="H19" s="46">
-        <v>44232</v>
-      </c>
-      <c r="I19" s="49">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="33">
-        <v>1000016762</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="G20" s="44">
-        <v>6</v>
-      </c>
-      <c r="H20" s="46">
-        <v>44233</v>
-      </c>
-      <c r="I20" s="49">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="33">
-        <v>1021928374</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="35"/>
-      <c r="G21" s="44">
-        <v>7</v>
-      </c>
-      <c r="H21" s="46">
-        <v>44234</v>
-      </c>
-      <c r="I21" s="49">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="33">
-        <v>1015159424</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="E22" s="35"/>
-      <c r="G22" s="44">
-        <v>8</v>
-      </c>
-      <c r="H22" s="46">
-        <v>44235</v>
-      </c>
-      <c r="I22" s="49">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
-        <v>1009812763</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="G23" s="44">
-        <v>9</v>
-      </c>
-      <c r="H23" s="46">
-        <v>44236</v>
-      </c>
-      <c r="I23" s="49">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="51">
-        <v>10281927364</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="G24" s="44">
-        <v>10</v>
-      </c>
-      <c r="H24" s="46">
-        <v>44237</v>
-      </c>
-      <c r="I24" s="49">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="G25" s="60" t="s">
+      <c r="B49" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-    </row>
-    <row r="26" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="G27" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="H27" s="40" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="B28" s="63">
-        <v>1234</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="40">
-        <v>3</v>
-      </c>
-      <c r="F28" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="41">
-        <v>43</v>
-      </c>
-      <c r="H28" s="40" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="B29" s="63">
-        <v>2876</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="40">
-        <v>1</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="41">
-        <v>76</v>
-      </c>
-      <c r="H29" s="40" t="s">
+      <c r="D49" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="E49" s="46" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="D50" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="E50" s="46" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="B51" s="53"/>
+      <c r="D51" s="52" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="B30" s="63">
-        <v>8744</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="40">
-        <v>2</v>
-      </c>
-      <c r="F30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="41">
-        <v>8</v>
-      </c>
-      <c r="H30" s="40" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="B31" s="63">
-        <v>3978</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="40">
-        <v>3</v>
-      </c>
-      <c r="F31" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="41">
-        <v>6</v>
-      </c>
-      <c r="H31" s="40" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="B32" s="63">
-        <v>2938</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="40">
-        <v>2</v>
-      </c>
-      <c r="F32" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="41">
-        <v>7</v>
-      </c>
-      <c r="H32" s="40" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="B33" s="63">
-        <v>4937</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="40">
-        <v>2</v>
-      </c>
-      <c r="F33" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="41">
-        <v>23</v>
-      </c>
-      <c r="H33" s="40" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="B34" s="63">
-        <v>8736</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="40">
-        <v>3</v>
-      </c>
-      <c r="F34" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="41">
-        <v>30</v>
-      </c>
-      <c r="H34" s="40" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="B35" s="59"/>
-      <c r="D35" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="D37" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="E37" s="50" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>262</v>
-      </c>
-      <c r="E38" s="50" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="D39" s="47" t="s">
-        <v>263</v>
-      </c>
-      <c r="E39" s="50" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="D40" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="E40" s="50" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="B41" s="57"/>
-      <c r="D41" s="56" t="s">
-        <v>265</v>
-      </c>
-      <c r="E41" s="56"/>
+      <c r="E51" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D35:H35"/>
+  <mergeCells count="6">
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A22:J22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -5745,10 +5717,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15CDDD0-1EC6-46EB-86DD-BB5C7073D9F7}">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5770,51 +5742,51 @@
       <c r="A1" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="D1" s="38" t="s">
+      <c r="B1" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="33" t="s">
         <v>231</v>
       </c>
       <c r="G1" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="35" t="s">
         <v>139</v>
       </c>
       <c r="J1" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="K1" s="47" t="s">
-        <v>245</v>
+      <c r="K1" s="43" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>1013576811</v>
       </c>
-      <c r="B2" s="33">
-        <v>1016841206</v>
-      </c>
-      <c r="D2" s="38" t="s">
+      <c r="B2" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="33" t="s">
         <v>232</v>
       </c>
       <c r="G2" s="29">
         <v>1013576811</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="35" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="29">
         <v>1013576811</v>
       </c>
-      <c r="K2" s="44">
+      <c r="K2" s="40">
         <v>1</v>
       </c>
     </row>
@@ -5822,25 +5794,25 @@
       <c r="A3" s="29">
         <v>1001096125</v>
       </c>
-      <c r="B3" s="33">
-        <v>1003275748</v>
-      </c>
-      <c r="D3" s="38" t="s">
+      <c r="B3" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="33" t="s">
         <v>233</v>
       </c>
       <c r="G3" s="29">
         <v>1001096125</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="29">
         <v>1001096125</v>
       </c>
-      <c r="K3" s="44">
+      <c r="K3" s="40">
         <v>2</v>
       </c>
     </row>
@@ -5848,25 +5820,25 @@
       <c r="A4" s="29">
         <v>1012316243</v>
       </c>
-      <c r="B4" s="33">
-        <v>1011153857</v>
-      </c>
-      <c r="D4" s="38" t="s">
+      <c r="B4" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="33" t="s">
         <v>234</v>
       </c>
       <c r="G4" s="29">
         <v>1012316243</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="35" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="29">
         <v>1012316243</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="40">
         <v>3</v>
       </c>
     </row>
@@ -5874,25 +5846,25 @@
       <c r="A5" s="29">
         <v>1016942358</v>
       </c>
-      <c r="B5" s="33">
-        <v>1026238784</v>
-      </c>
-      <c r="D5" s="38" t="s">
+      <c r="B5" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="33" t="s">
         <v>235</v>
       </c>
       <c r="G5" s="29">
         <v>1016942358</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="35" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="29">
         <v>1016942358</v>
       </c>
-      <c r="K5" s="44">
+      <c r="K5" s="40">
         <v>4</v>
       </c>
     </row>
@@ -5900,25 +5872,25 @@
       <c r="A6" s="29">
         <v>1192831945</v>
       </c>
-      <c r="B6" s="33">
-        <v>1011752470</v>
-      </c>
-      <c r="D6" s="38" t="s">
+      <c r="B6" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="33" t="s">
         <v>236</v>
       </c>
       <c r="G6" s="29">
         <v>1192831945</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="35" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="29">
         <v>1192831945</v>
       </c>
-      <c r="K6" s="44">
+      <c r="K6" s="40">
         <v>5</v>
       </c>
     </row>
@@ -5926,25 +5898,25 @@
       <c r="A7" s="29">
         <v>1016943117</v>
       </c>
-      <c r="B7" s="33">
-        <v>1000016762</v>
-      </c>
-      <c r="D7" s="38" t="s">
+      <c r="B7" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="33" t="s">
         <v>237</v>
       </c>
       <c r="G7" s="29">
         <v>1016943117</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="35" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="29">
         <v>1016943117</v>
       </c>
-      <c r="K7" s="44">
+      <c r="K7" s="40">
         <v>6</v>
       </c>
     </row>
@@ -5952,25 +5924,25 @@
       <c r="A8" s="29">
         <v>1010051342</v>
       </c>
-      <c r="B8" s="33">
-        <v>1021928374</v>
-      </c>
-      <c r="D8" s="38" t="s">
+      <c r="B8" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="33" t="s">
         <v>238</v>
       </c>
       <c r="G8" s="29">
         <v>1010051342</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="35" t="s">
         <v>28</v>
       </c>
       <c r="J8" s="29">
         <v>1010051342</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="40">
         <v>7</v>
       </c>
     </row>
@@ -5978,25 +5950,25 @@
       <c r="A9" s="29">
         <v>1006051207</v>
       </c>
-      <c r="B9" s="33">
-        <v>1015159424</v>
-      </c>
-      <c r="D9" s="38" t="s">
+      <c r="B9" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="33" t="s">
         <v>232</v>
       </c>
       <c r="G9" s="29">
         <v>1006051207</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="35" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="29">
         <v>1006051207</v>
       </c>
-      <c r="K9" s="44">
+      <c r="K9" s="40">
         <v>8</v>
       </c>
     </row>
@@ -6004,640 +5976,580 @@
       <c r="A10" s="29">
         <v>1014176160</v>
       </c>
-      <c r="B10" s="33">
-        <v>1009812763</v>
-      </c>
-      <c r="D10" s="38" t="s">
+      <c r="B10" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="33" t="s">
         <v>233</v>
       </c>
       <c r="G10" s="29">
         <v>1014176160</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="29">
         <v>1014176160</v>
       </c>
-      <c r="K10" s="44">
+      <c r="K10" s="40">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
+      <c r="A11" s="62">
         <v>1000350620</v>
       </c>
-      <c r="B11" s="33">
-        <v>10281927364</v>
-      </c>
-      <c r="D11" s="38" t="s">
+      <c r="B11" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="33" t="s">
         <v>234</v>
       </c>
       <c r="G11" s="29">
         <v>1000350620</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="35" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="29">
         <v>1000350620</v>
       </c>
-      <c r="K11" s="44">
+      <c r="K11" s="40">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
-        <v>240</v>
-      </c>
-      <c r="B12" s="62"/>
-      <c r="D12" s="62" t="s">
-        <v>255</v>
-      </c>
-      <c r="E12" s="62"/>
-      <c r="G12" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="H12" s="62"/>
-      <c r="J12" s="62" t="s">
-        <v>256</v>
-      </c>
-      <c r="K12" s="62"/>
+      <c r="A12" s="39">
+        <v>1016841206</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="E12" s="57"/>
+      <c r="G12" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="H12" s="57"/>
+      <c r="J12" s="57" t="s">
+        <v>272</v>
+      </c>
+      <c r="K12" s="57"/>
     </row>
     <row r="13" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
+        <v>1003275748</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>178</v>
+      </c>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="B14" s="28" t="s">
+    <row r="14" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
+        <v>1011153857</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
+        <v>1026238784</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
+        <v>1011752470</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
+        <v>1000016762</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
+        <v>1021928374</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
+        <v>1015159424</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39">
+        <v>1009812763</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39">
+        <v>10281927364</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="B22" s="57"/>
+    </row>
+    <row r="23" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="H14" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="K14" s="47" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B15" s="29">
+      <c r="B24" s="43" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
         <v>1013576811</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="E15" s="33">
+      <c r="B25" s="43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="29">
+        <v>1001096125</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="29">
+        <v>1012316243</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="29">
+        <v>1016942358</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="29">
+        <v>1192831945</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="29">
+        <v>1016943117</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="29">
+        <v>1010051342</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="29">
+        <v>1006051207</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="29">
+        <v>1014176160</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="62">
+        <v>1000350620</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="39">
         <v>1016841206</v>
       </c>
-      <c r="G15" s="29">
-        <v>1013576811</v>
-      </c>
-      <c r="H15" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="J15" s="33">
-        <v>1016841206</v>
-      </c>
-      <c r="K15" s="47" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B16" s="29">
-        <v>1001096125</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="E16" s="33">
+      <c r="B35" s="43" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="39">
         <v>1003275748</v>
       </c>
-      <c r="G16" s="29">
-        <v>1001096125</v>
-      </c>
-      <c r="H16" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="J16" s="33">
-        <v>1003275748</v>
-      </c>
-      <c r="K16" s="47" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B17" s="29">
-        <v>1012316243</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="E17" s="33">
+      <c r="B36" s="43" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="39">
         <v>1011153857</v>
       </c>
-      <c r="G17" s="29">
-        <v>1012316243</v>
-      </c>
-      <c r="H17" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="J17" s="33">
-        <v>1011153857</v>
-      </c>
-      <c r="K17" s="47" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B18" s="29">
-        <v>1016942358</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="E18" s="33">
+      <c r="B37" s="43" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="39">
         <v>1026238784</v>
       </c>
-      <c r="G18" s="29">
-        <v>1016942358</v>
-      </c>
-      <c r="H18" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="J18" s="33">
-        <v>1026238784</v>
-      </c>
-      <c r="K18" s="47" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B19" s="29">
-        <v>1192831945</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="E19" s="33">
+      <c r="B38" s="43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="39">
         <v>1011752470</v>
       </c>
-      <c r="G19" s="29">
-        <v>1192831945</v>
-      </c>
-      <c r="H19" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="J19" s="33">
-        <v>1011752470</v>
-      </c>
-      <c r="K19" s="47" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B20" s="29">
-        <v>1016943117</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="E20" s="33">
+      <c r="B39" s="43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="39">
         <v>1000016762</v>
       </c>
-      <c r="G20" s="29">
-        <v>1016943117</v>
-      </c>
-      <c r="H20" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="J20" s="33">
-        <v>1000016762</v>
-      </c>
-      <c r="K20" s="47" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B21" s="29">
-        <v>1010051342</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="E21" s="33">
+      <c r="B40" s="43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="39">
         <v>1021928374</v>
       </c>
-      <c r="G21" s="29">
-        <v>1010051342</v>
-      </c>
-      <c r="H21" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="J21" s="33">
-        <v>1021928374</v>
-      </c>
-      <c r="K21" s="47" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B22" s="29">
-        <v>1006051207</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="E22" s="33">
+      <c r="B41" s="43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="39">
         <v>1015159424</v>
       </c>
-      <c r="G22" s="29">
-        <v>1006051207</v>
-      </c>
-      <c r="H22" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="J22" s="33">
-        <v>1015159424</v>
-      </c>
-      <c r="K22" s="47" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B23" s="29">
-        <v>1014176160</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="E23" s="33">
+      <c r="B42" s="43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="39">
         <v>1009812763</v>
       </c>
-      <c r="G23" s="29">
-        <v>1014176160</v>
-      </c>
-      <c r="H23" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="J23" s="33">
-        <v>1009812763</v>
-      </c>
-      <c r="K23" s="47" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B24" s="29">
-        <v>1000350620</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="E24" s="33">
+      <c r="B43" s="43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="39">
         <v>10281927364</v>
       </c>
-      <c r="G24" s="29">
-        <v>1000350620</v>
-      </c>
-      <c r="H24" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="J24" s="33">
-        <v>10281927364</v>
-      </c>
-      <c r="K24" s="47" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="62" t="s">
-        <v>253</v>
-      </c>
-      <c r="B25" s="62"/>
-      <c r="D25" s="62" t="s">
-        <v>254</v>
-      </c>
-      <c r="E25" s="62"/>
-      <c r="G25" s="62" t="s">
-        <v>266</v>
-      </c>
-      <c r="H25" s="62"/>
-      <c r="J25" s="62" t="s">
+      <c r="B44" s="43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="57" t="s">
+        <v>273</v>
+      </c>
+      <c r="B45" s="57"/>
+    </row>
+    <row r="47" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="71">
+        <v>1</v>
+      </c>
+      <c r="L47" s="75" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C48" s="48">
+        <v>1</v>
+      </c>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="L48" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C49" s="69">
+        <v>1</v>
+      </c>
+      <c r="F49" s="59"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="68" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" s="70"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="L50" s="74" t="s">
+        <v>269</v>
+      </c>
+      <c r="M50" s="52"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="L51" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C52" s="60"/>
+      <c r="I52" s="77" t="s">
+        <v>273</v>
+      </c>
+      <c r="J52" s="77"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I53" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="J53" s="76" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F54" s="72" t="s">
+        <v>239</v>
+      </c>
+      <c r="G54" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F55" s="73">
+        <v>1</v>
+      </c>
+      <c r="G55" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F56" s="73" t="s">
+        <v>239</v>
+      </c>
+      <c r="G56" s="73">
+        <v>1</v>
+      </c>
+      <c r="H56" s="71">
+        <v>1</v>
+      </c>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F57" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="K25" s="62"/>
-    </row>
-    <row r="27" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="56" t="s">
-        <v>265</v>
-      </c>
-      <c r="B28" s="56"/>
-    </row>
-    <row r="29" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
+      <c r="G57" s="58"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F58" s="78">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18">
+      <c r="G58" s="79">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43">
+      <c r="H58" s="71">
         <v>1</v>
       </c>
-      <c r="E31" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="F31" s="57"/>
-    </row>
-    <row r="32" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="43">
+      <c r="I58" s="18"/>
+      <c r="K58" s="18"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F59" s="78">
         <v>1</v>
       </c>
-      <c r="F32" s="43">
+      <c r="G59" s="79" t="s">
+        <v>239</v>
+      </c>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F60" s="71">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="G33" s="43" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="62" t="s">
-        <v>253</v>
-      </c>
-      <c r="D34" s="62"/>
-      <c r="G34" s="62" t="s">
-        <v>254</v>
-      </c>
-      <c r="H34" s="62"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="H35" s="43" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18">
+      <c r="G60" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="H60" s="18"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C61" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="H61" s="18"/>
+      <c r="I61" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="J61" s="71" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C62" s="78">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>243</v>
-      </c>
-      <c r="B37" s="43">
+      <c r="H62" s="18"/>
+      <c r="I62" s="77" t="s">
+        <v>272</v>
+      </c>
+      <c r="J62" s="77"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C63" s="78" t="s">
+        <v>239</v>
+      </c>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="L63" s="71">
         <v>1</v>
       </c>
-      <c r="H37" s="43">
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="67"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="L64" s="66" t="s">
+        <v>240</v>
+      </c>
+      <c r="M64" s="66"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C65" s="78">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="B38" s="55"/>
-      <c r="G38" s="58" t="s">
+      <c r="F65" t="s">
+        <v>274</v>
+      </c>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="L65" s="78" t="s">
         <v>239</v>
       </c>
-      <c r="H38" s="58"/>
-      <c r="I38" s="43">
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C66" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="L66" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="43">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C67" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="L67" s="71" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="C71" s="65"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C72" s="81">
         <v>1</v>
       </c>
-      <c r="B39">
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C73" s="78">
         <v>1</v>
       </c>
-      <c r="C39">
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C74" s="71">
         <v>1</v>
       </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="J39" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="K39" s="62"/>
-      <c r="L39" s="43" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>243</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
-        <v>243</v>
-      </c>
-      <c r="J40" s="43" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="C41" s="43">
-        <v>1</v>
-      </c>
-      <c r="E41" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="G41" s="43">
-        <v>1</v>
-      </c>
-      <c r="H41" s="43" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="L42" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="E43" t="s">
-        <v>243</v>
-      </c>
-      <c r="K43" s="56" t="s">
-        <v>265</v>
-      </c>
-      <c r="L43" s="56"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="B44" s="62"/>
-      <c r="E44" s="60" t="s">
-        <v>244</v>
-      </c>
-      <c r="F44" s="60"/>
-      <c r="K44" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K46" s="43" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" s="61"/>
-      <c r="E51" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F51" s="59"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="43">
-        <v>1</v>
-      </c>
-      <c r="E54" s="43">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A12:B12"/>
+  <mergeCells count="13">
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I62:J62"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="L64:M64"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Primer_Trimestres/Nomalizacion/correccion/Normalización .xlsx
+++ b/Primer_Trimestres/Nomalizacion/correccion/Normalización .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d01d89a1400d5043/Documentos/FARMIFARMACY/Docs excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMBIENTE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{5D5CD52F-53E4-4F0F-B9B6-38621EE8DA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD59913C-B014-4078-B1D8-E39275E402CF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104EEF89-F2B3-49DC-9324-F38107CAC097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="3" activeTab="7" xr2:uid="{EB7CC955-6B47-4A67-9DA5-CC93A65E4CC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{EB7CC955-6B47-4A67-9DA5-CC93A65E4CC7}"/>
   </bookViews>
   <sheets>
     <sheet name="cliente" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="303">
   <si>
     <t>identificacion</t>
   </si>
@@ -754,12 +754,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>COTIZACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id_Cotización </t>
-  </si>
-  <si>
     <t>Desc_T-doc</t>
   </si>
   <si>
@@ -850,13 +844,103 @@
     <t>USUARIO-PRODUCTO</t>
   </si>
   <si>
-    <t xml:space="preserve">USUARIO-COTIZACIÓN </t>
-  </si>
-  <si>
     <t>USUARIO-ROL</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cod_venta </t>
+  </si>
+  <si>
+    <t>CARRO DE COMPRAS</t>
+  </si>
+  <si>
+    <t>Item_producto</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Valor SubTotal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cod_Carro </t>
+  </si>
+  <si>
+    <t>V_001</t>
+  </si>
+  <si>
+    <t>V_002</t>
+  </si>
+  <si>
+    <t>V_003</t>
+  </si>
+  <si>
+    <t>V_004</t>
+  </si>
+  <si>
+    <t>V_005</t>
+  </si>
+  <si>
+    <t>V_006</t>
+  </si>
+  <si>
+    <t>V_007</t>
+  </si>
+  <si>
+    <t>V_008</t>
+  </si>
+  <si>
+    <t>V_009</t>
+  </si>
+  <si>
+    <t>V_010</t>
+  </si>
+  <si>
+    <t>V_011</t>
+  </si>
+  <si>
+    <t>V_012</t>
+  </si>
+  <si>
+    <t>V_013</t>
+  </si>
+  <si>
+    <t>V_014</t>
+  </si>
+  <si>
+    <t>V_015</t>
+  </si>
+  <si>
+    <t>V_016</t>
+  </si>
+  <si>
+    <t>V_017</t>
+  </si>
+  <si>
+    <t>V_018</t>
+  </si>
+  <si>
+    <t>V_019</t>
+  </si>
+  <si>
+    <t>V_020</t>
+  </si>
+  <si>
+    <t>VENTA-USUARIO</t>
+  </si>
+  <si>
+    <t>USUARIO-CARRO DE COMPRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id_Carro </t>
+  </si>
+  <si>
+    <t>VENTA-CARRO DE COMPRAS</t>
+  </si>
+  <si>
+    <t>VENTA</t>
   </si>
 </sst>
 </file>
@@ -864,12 +948,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.000_-;\-&quot;$&quot;\ * #,##0.000_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0.000_-;\-&quot;$&quot;* #,##0.000_-;_-&quot;$&quot;* &quot;-&quot;???_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;???_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0000"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0.000_-;\-&quot;$&quot;\ * #,##0.000_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.000_-;\-&quot;$&quot;* #,##0.000_-;_-&quot;$&quot;* &quot;-&quot;???_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;???_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -914,7 +998,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1029,8 +1113,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1101,35 +1191,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
@@ -1137,7 +1214,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1147,14 +1224,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1199,13 +1276,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1220,7 +1297,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1230,6 +1307,67 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1237,6 +1375,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1254,74 +1398,35 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1611,23 +1716,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Conector recto 29">
+        <xdr:cNvPr id="10" name="Conector recto 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD1FD81-1E5C-437A-BCB7-F15A91CBFEBB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3773BE0-2CA0-48CD-BC43-3663B6E9E7A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1635,14 +1740,14 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7181850" y="10877550"/>
-          <a:ext cx="923925" cy="733425"/>
+          <a:off x="7191375" y="10868025"/>
+          <a:ext cx="3886200" cy="1152525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="28575">
-          <a:prstDash val="solid"/>
+          <a:prstDash val="dash"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1664,32 +1769,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Conector recto 32">
+        <xdr:cNvPr id="12" name="Conector recto 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD035D81-B7ED-4CC0-B4D8-860ACCB87DAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{870F02DC-6715-4023-B041-67A2854FA8B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10210800" y="11610975"/>
-          <a:ext cx="876300" cy="400050"/>
+        <a:xfrm flipV="1">
+          <a:off x="12153900" y="12230100"/>
+          <a:ext cx="19050" cy="1457325"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2313,7 +2418,7 @@
       </c>
       <c r="D2" s="15">
         <f ca="1">NOW()</f>
-        <v>44372.768375462962</v>
+        <v>44411.600464236108</v>
       </c>
       <c r="E2" s="15">
         <v>44673.458333333336</v>
@@ -2331,7 +2436,7 @@
       </c>
       <c r="D3" s="15">
         <f t="shared" ref="D3:D20" ca="1" si="0">NOW()</f>
-        <v>44372.768375462962</v>
+        <v>44411.600464236108</v>
       </c>
       <c r="E3" s="15">
         <v>44674.458333333336</v>
@@ -2349,7 +2454,7 @@
       </c>
       <c r="D4" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44372.768375462962</v>
+        <v>44411.600464236108</v>
       </c>
       <c r="E4" s="15">
         <v>44675.458333333336</v>
@@ -2367,7 +2472,7 @@
       </c>
       <c r="D5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44372.768375462962</v>
+        <v>44411.600464236108</v>
       </c>
       <c r="E5" s="15">
         <v>44676.458333333336</v>
@@ -2385,7 +2490,7 @@
       </c>
       <c r="D6" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44372.768375462962</v>
+        <v>44411.600464236108</v>
       </c>
       <c r="E6" s="15">
         <v>44677.458333333336</v>
@@ -2403,7 +2508,7 @@
       </c>
       <c r="D7" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44372.768375462962</v>
+        <v>44411.600464236108</v>
       </c>
       <c r="E7" s="15">
         <v>44678.458333333336</v>
@@ -2421,7 +2526,7 @@
       </c>
       <c r="D8" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44372.768375462962</v>
+        <v>44411.600464236108</v>
       </c>
       <c r="E8" s="15">
         <v>44679.458333333336</v>
@@ -2439,7 +2544,7 @@
       </c>
       <c r="D9" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44372.768375462962</v>
+        <v>44411.600464236108</v>
       </c>
       <c r="E9" s="15">
         <v>44680.458333333336</v>
@@ -2457,7 +2562,7 @@
       </c>
       <c r="D10" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44372.768375462962</v>
+        <v>44411.600464236108</v>
       </c>
       <c r="E10" s="15">
         <v>44681.458333333336</v>
@@ -2475,7 +2580,7 @@
       </c>
       <c r="D11" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44372.768375462962</v>
+        <v>44411.600464236108</v>
       </c>
       <c r="E11" s="15">
         <v>44682.458333333336</v>
@@ -2493,7 +2598,7 @@
       </c>
       <c r="D12" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44372.768375462962</v>
+        <v>44411.600464236108</v>
       </c>
       <c r="E12" s="15">
         <v>44683.458333333336</v>
@@ -2511,7 +2616,7 @@
       </c>
       <c r="D13" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44372.768375462962</v>
+        <v>44411.600464236108</v>
       </c>
       <c r="E13" s="15">
         <v>44684.458333333336</v>
@@ -2529,7 +2634,7 @@
       </c>
       <c r="D14" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44372.768375462962</v>
+        <v>44411.600464236108</v>
       </c>
       <c r="E14" s="15">
         <v>44685.458333333336</v>
@@ -2547,7 +2652,7 @@
       </c>
       <c r="D15" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44372.768375462962</v>
+        <v>44411.600464236108</v>
       </c>
       <c r="E15" s="15">
         <v>44686.458333333336</v>
@@ -2565,7 +2670,7 @@
       </c>
       <c r="D16" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44372.768375462962</v>
+        <v>44411.600464236108</v>
       </c>
       <c r="E16" s="15">
         <v>44687.458333333336</v>
@@ -2583,7 +2688,7 @@
       </c>
       <c r="D17" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44372.768375462962</v>
+        <v>44411.600464236108</v>
       </c>
       <c r="E17" s="15">
         <v>44688.458333333336</v>
@@ -2601,7 +2706,7 @@
       </c>
       <c r="D18" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44372.768375462962</v>
+        <v>44411.600464236108</v>
       </c>
       <c r="E18" s="15">
         <v>44689.458333333336</v>
@@ -2619,7 +2724,7 @@
       </c>
       <c r="D19" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44372.768375462962</v>
+        <v>44411.600464236108</v>
       </c>
       <c r="E19" s="15">
         <v>44690.458333333336</v>
@@ -2637,7 +2742,7 @@
       </c>
       <c r="D20" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44372.768375462962</v>
+        <v>44411.600464236108</v>
       </c>
       <c r="E20" s="15">
         <v>44691.458333333336</v>
@@ -2836,63 +2941,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="49">
+      <c r="B1" s="73"/>
+      <c r="C1" s="72">
         <v>1192831945</v>
       </c>
-      <c r="D1" s="49"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="5">
         <f ca="1">NOW()</f>
-        <v>44372.768375462962</v>
+        <v>44411.600464236108</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="51" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="51"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="72">
         <v>3172727783</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="49"/>
+      <c r="F4" s="72"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -3085,39 +3190,39 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="49"/>
+      <c r="E16" s="72"/>
       <c r="F16" s="6">
         <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49" t="s">
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="49"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="6">
         <v>73.91</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49" t="s">
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="49"/>
+      <c r="E18" s="72"/>
       <c r="F18" s="6">
         <v>462.90999999999997</v>
       </c>
@@ -3162,7 +3267,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3171,6 +3276,7 @@
     <col min="2" max="2" width="36.140625" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="5" max="5" width="42.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="34" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" customWidth="1"/>
     <col min="16" max="16" width="14.85546875" customWidth="1"/>
@@ -3781,8 +3887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9B3C5C-ADFC-4BC2-AC69-E82DBE3B9792}">
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4657,8 +4763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154A3EB2-7D84-4648-B4B7-AFD12D379634}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46:I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4711,10 +4817,10 @@
         <v>134</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -4741,7 +4847,7 @@
         <v>46</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>131</v>
@@ -4773,7 +4879,7 @@
         <v>50</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J3" s="31" t="s">
         <v>131</v>
@@ -4805,7 +4911,7 @@
         <v>53</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J4" s="31" t="s">
         <v>131</v>
@@ -4837,7 +4943,7 @@
         <v>57</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J5" s="31" t="s">
         <v>131</v>
@@ -4869,7 +4975,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J6" s="31" t="s">
         <v>131</v>
@@ -4901,7 +5007,7 @@
         <v>63</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J7" s="31" t="s">
         <v>131</v>
@@ -4933,7 +5039,7 @@
         <v>67</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J8" s="31" t="s">
         <v>131</v>
@@ -4965,7 +5071,7 @@
         <v>71</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J9" s="31" t="s">
         <v>131</v>
@@ -4997,7 +5103,7 @@
         <v>75</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J10" s="31" t="s">
         <v>131</v>
@@ -5029,7 +5135,7 @@
         <v>79</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J11" s="31" t="s">
         <v>131</v>
@@ -5055,10 +5161,10 @@
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
       <c r="I12" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -5079,10 +5185,10 @@
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
       <c r="I13" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -5101,10 +5207,10 @@
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
       <c r="I14" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5127,10 +5233,10 @@
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
       <c r="I15" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -5151,10 +5257,10 @@
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
       <c r="I16" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -5177,10 +5283,10 @@
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
       <c r="I17" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -5201,10 +5307,10 @@
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
       <c r="I18" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -5223,10 +5329,10 @@
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
       <c r="I19" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -5249,10 +5355,10 @@
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5275,42 +5381,48 @@
       <c r="G21" s="30"/>
       <c r="H21" s="30"/>
       <c r="I21" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J21" s="31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
-        <v>267</v>
-      </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
+      <c r="A22" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="B24" s="41" t="s">
         <v>135</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="60"/>
+        <v>276</v>
+      </c>
+      <c r="D24" s="50"/>
       <c r="E24" s="33" t="s">
         <v>231</v>
       </c>
       <c r="F24" s="34" t="s">
         <v>229</v>
+      </c>
+      <c r="H24" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="I24" s="65" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -5321,13 +5433,19 @@
         <v>44228</v>
       </c>
       <c r="C25" s="45">
-        <v>129</v>
+        <v>389</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>232</v>
       </c>
       <c r="F25" s="47">
         <v>1234</v>
+      </c>
+      <c r="H25" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="I25" s="66">
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -5338,13 +5456,19 @@
         <v>44229</v>
       </c>
       <c r="C26" s="45">
-        <v>76</v>
+        <v>389</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>233</v>
       </c>
       <c r="F26" s="47">
         <v>2876</v>
+      </c>
+      <c r="H26" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="I26" s="66">
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -5355,13 +5479,19 @@
         <v>44230</v>
       </c>
       <c r="C27" s="45">
-        <v>16</v>
+        <v>389</v>
       </c>
       <c r="E27" s="33" t="s">
         <v>234</v>
       </c>
       <c r="F27" s="47">
         <v>8744</v>
+      </c>
+      <c r="H27" s="64" t="s">
+        <v>280</v>
+      </c>
+      <c r="I27" s="66">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -5372,13 +5502,19 @@
         <v>44231</v>
       </c>
       <c r="C28" s="45">
-        <v>18</v>
+        <v>389</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>235</v>
       </c>
       <c r="F28" s="47">
         <v>3978</v>
+      </c>
+      <c r="H28" s="64" t="s">
+        <v>281</v>
+      </c>
+      <c r="I28" s="66">
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -5389,13 +5525,19 @@
         <v>44232</v>
       </c>
       <c r="C29" s="45">
-        <v>14</v>
+        <v>389</v>
       </c>
       <c r="E29" s="33" t="s">
         <v>236</v>
       </c>
       <c r="F29" s="47">
         <v>2938</v>
+      </c>
+      <c r="H29" s="64" t="s">
+        <v>282</v>
+      </c>
+      <c r="I29" s="66">
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -5406,13 +5548,19 @@
         <v>44233</v>
       </c>
       <c r="C30" s="45">
-        <v>46</v>
+        <v>389</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>237</v>
       </c>
       <c r="F30" s="47">
         <v>4937</v>
+      </c>
+      <c r="H30" s="64" t="s">
+        <v>283</v>
+      </c>
+      <c r="I30" s="66">
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -5423,13 +5571,19 @@
         <v>44234</v>
       </c>
       <c r="C31" s="45">
-        <v>90</v>
+        <v>389</v>
       </c>
       <c r="E31" s="33" t="s">
         <v>238</v>
       </c>
       <c r="F31" s="47">
         <v>8736</v>
+      </c>
+      <c r="H31" s="64" t="s">
+        <v>284</v>
+      </c>
+      <c r="I31" s="66">
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -5440,14 +5594,20 @@
         <v>44235</v>
       </c>
       <c r="C32" s="45">
+        <v>389</v>
+      </c>
+      <c r="E32" s="79" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="79"/>
+      <c r="H32" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="I32" s="66">
         <v>129</v>
       </c>
-      <c r="E32" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="F32" s="54"/>
-    </row>
-    <row r="33" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>9</v>
       </c>
@@ -5455,10 +5615,16 @@
         <v>44236</v>
       </c>
       <c r="C33" s="45">
+        <v>389</v>
+      </c>
+      <c r="H33" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="I33" s="66">
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>10</v>
       </c>
@@ -5466,20 +5632,39 @@
         <v>44237</v>
       </c>
       <c r="C34" s="45">
+        <v>389</v>
+      </c>
+      <c r="H34" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="I34" s="66">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="55" t="s">
-        <v>240</v>
-      </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-    </row>
-    <row r="36" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="80" t="s">
+        <v>273</v>
+      </c>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="H35" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="I35" s="66">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="64" t="s">
+        <v>288</v>
+      </c>
+      <c r="I36" s="66">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="35" t="s">
-        <v>139</v>
+        <v>274</v>
       </c>
       <c r="B37" s="37" t="s">
         <v>138</v>
@@ -5491,10 +5676,16 @@
         <v>141</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="H37" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="I37" s="66">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
         <v>16</v>
       </c>
@@ -5508,10 +5699,16 @@
         <v>43</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="H38" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="I38" s="66">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
         <v>18</v>
       </c>
@@ -5525,10 +5722,16 @@
         <v>76</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="H39" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="I39" s="66">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
         <v>20</v>
       </c>
@@ -5542,10 +5745,16 @@
         <v>8</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="H40" s="64" t="s">
+        <v>292</v>
+      </c>
+      <c r="I40" s="66">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="35" t="s">
         <v>22</v>
       </c>
@@ -5559,10 +5768,16 @@
         <v>6</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="H41" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="I41" s="66">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="35" t="s">
         <v>24</v>
       </c>
@@ -5576,10 +5791,16 @@
         <v>7</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="H42" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="I42" s="66">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="35" t="s">
         <v>26</v>
       </c>
@@ -5593,10 +5814,16 @@
         <v>23</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="H43" s="64" t="s">
+        <v>295</v>
+      </c>
+      <c r="I43" s="66">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="35" t="s">
         <v>28</v>
       </c>
@@ -5610,92 +5837,111 @@
         <v>30</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="H44" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="I44" s="66">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="81"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="81"/>
+      <c r="H45" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="I45" s="66">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H46" s="76" t="s">
+        <v>302</v>
+      </c>
+      <c r="I46" s="76"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="39" t="s">
         <v>230</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D47" s="43" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E47" s="46" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>178</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D48" s="43" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E48" s="46" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="39" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D49" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E49" s="46" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B50" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="D50" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="E50" s="46" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="78" t="s">
         <v>246</v>
       </c>
-      <c r="D50" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="E50" s="46" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="53" t="s">
-        <v>248</v>
-      </c>
-      <c r="B51" s="53"/>
-      <c r="D51" s="52" t="s">
-        <v>269</v>
-      </c>
-      <c r="E51" s="52"/>
+      <c r="B51" s="78"/>
+      <c r="D51" s="77" t="s">
+        <v>267</v>
+      </c>
+      <c r="E51" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="H46:I46"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A22:J22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -5719,8 +5965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15CDDD0-1EC6-46EB-86DD-BB5C7073D9F7}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5761,14 +6007,14 @@
         <v>167</v>
       </c>
       <c r="K1" s="43" t="s">
-        <v>241</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>1013576811</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="52" t="s">
         <v>178</v>
       </c>
       <c r="D2" s="35" t="s">
@@ -5794,7 +6040,7 @@
       <c r="A3" s="29">
         <v>1001096125</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="52" t="s">
         <v>178</v>
       </c>
       <c r="D3" s="35" t="s">
@@ -5820,7 +6066,7 @@
       <c r="A4" s="29">
         <v>1012316243</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="52" t="s">
         <v>178</v>
       </c>
       <c r="D4" s="35" t="s">
@@ -5846,7 +6092,7 @@
       <c r="A5" s="29">
         <v>1016942358</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="52" t="s">
         <v>178</v>
       </c>
       <c r="D5" s="35" t="s">
@@ -5872,7 +6118,7 @@
       <c r="A6" s="29">
         <v>1192831945</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="52" t="s">
         <v>178</v>
       </c>
       <c r="D6" s="35" t="s">
@@ -5898,7 +6144,7 @@
       <c r="A7" s="29">
         <v>1016943117</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="52" t="s">
         <v>178</v>
       </c>
       <c r="D7" s="35" t="s">
@@ -5924,7 +6170,7 @@
       <c r="A8" s="29">
         <v>1010051342</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="52" t="s">
         <v>178</v>
       </c>
       <c r="D8" s="35" t="s">
@@ -5950,7 +6196,7 @@
       <c r="A9" s="29">
         <v>1006051207</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="52" t="s">
         <v>178</v>
       </c>
       <c r="D9" s="35" t="s">
@@ -5976,7 +6222,7 @@
       <c r="A10" s="29">
         <v>1014176160</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="52" t="s">
         <v>178</v>
       </c>
       <c r="D10" s="35" t="s">
@@ -5999,10 +6245,10 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="62">
+      <c r="A11" s="51">
         <v>1000350620</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="52" t="s">
         <v>178</v>
       </c>
       <c r="D11" s="35" t="s">
@@ -6028,27 +6274,27 @@
       <c r="A12" s="39">
         <v>1016841206</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="D12" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="E12" s="57"/>
-      <c r="G12" s="57" t="s">
-        <v>271</v>
-      </c>
-      <c r="H12" s="57"/>
-      <c r="J12" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="K12" s="57"/>
+      <c r="D12" s="83" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" s="83"/>
+      <c r="G12" s="83" t="s">
+        <v>269</v>
+      </c>
+      <c r="H12" s="83"/>
+      <c r="J12" s="83" t="s">
+        <v>299</v>
+      </c>
+      <c r="K12" s="83"/>
     </row>
     <row r="13" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>1003275748</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="52" t="s">
         <v>178</v>
       </c>
       <c r="G13"/>
@@ -6061,7 +6307,7 @@
       <c r="A14" s="39">
         <v>1011153857</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="52" t="s">
         <v>178</v>
       </c>
     </row>
@@ -6069,7 +6315,7 @@
       <c r="A15" s="39">
         <v>1026238784</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="52" t="s">
         <v>178</v>
       </c>
     </row>
@@ -6077,127 +6323,235 @@
       <c r="A16" s="39">
         <v>1011752470</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="52" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <v>1000016762</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="52" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <v>1021928374</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="52" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>1015159424</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="52" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>1009812763</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="52" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <v>10281927364</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="52" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="B22" s="57"/>
-    </row>
-    <row r="23" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="83" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22" s="83"/>
+    </row>
+    <row r="23" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>167</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="H24" s="43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>1013576811</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="E25" s="29">
+        <v>1013576811</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="H25" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>1001096125</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="E26" s="29">
+        <v>1001096125</v>
+      </c>
+      <c r="G26" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="H26" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <v>1012316243</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>280</v>
+      </c>
+      <c r="E27" s="29">
+        <v>1012316243</v>
+      </c>
+      <c r="G27" s="64" t="s">
+        <v>280</v>
+      </c>
+      <c r="H27" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
         <v>1016942358</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>281</v>
+      </c>
+      <c r="E28" s="29">
+        <v>1016942358</v>
+      </c>
+      <c r="G28" s="64" t="s">
+        <v>281</v>
+      </c>
+      <c r="H28" s="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
         <v>1192831945</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>282</v>
+      </c>
+      <c r="E29" s="29">
+        <v>1192831945</v>
+      </c>
+      <c r="G29" s="64" t="s">
+        <v>282</v>
+      </c>
+      <c r="H29" s="40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>1016943117</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="D30" s="64" t="s">
+        <v>283</v>
+      </c>
+      <c r="E30" s="29">
+        <v>1016943117</v>
+      </c>
+      <c r="G30" s="64" t="s">
+        <v>283</v>
+      </c>
+      <c r="H30" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>1010051342</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="D31" s="64" t="s">
+        <v>284</v>
+      </c>
+      <c r="E31" s="29">
+        <v>1010051342</v>
+      </c>
+      <c r="G31" s="64" t="s">
+        <v>284</v>
+      </c>
+      <c r="H31" s="40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <v>1006051207</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>256</v>
+        <v>254</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="E32" s="29">
+        <v>1006051207</v>
+      </c>
+      <c r="G32" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="H32" s="40">
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -6205,15 +6559,39 @@
         <v>1014176160</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>256</v>
+        <v>254</v>
+      </c>
+      <c r="D33" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="E33" s="29">
+        <v>1014176160</v>
+      </c>
+      <c r="G33" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="H33" s="40">
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="62">
+      <c r="A34" s="51">
         <v>1000350620</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>256</v>
+        <v>254</v>
+      </c>
+      <c r="D34" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="E34" s="51">
+        <v>1000350620</v>
+      </c>
+      <c r="G34" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="H34" s="40">
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -6221,7 +6599,19 @@
         <v>1016841206</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>254</v>
+        <v>252</v>
+      </c>
+      <c r="D35" s="64" t="s">
+        <v>288</v>
+      </c>
+      <c r="E35" s="39">
+        <v>1016841206</v>
+      </c>
+      <c r="G35" s="64" t="s">
+        <v>288</v>
+      </c>
+      <c r="H35" s="40">
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -6229,7 +6619,19 @@
         <v>1003275748</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>254</v>
+        <v>252</v>
+      </c>
+      <c r="D36" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="E36" s="39">
+        <v>1003275748</v>
+      </c>
+      <c r="G36" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="H36" s="40">
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -6237,7 +6639,19 @@
         <v>1011153857</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>254</v>
+        <v>252</v>
+      </c>
+      <c r="D37" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="E37" s="39">
+        <v>1011153857</v>
+      </c>
+      <c r="G37" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="H37" s="40">
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -6245,7 +6659,19 @@
         <v>1026238784</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
+      </c>
+      <c r="D38" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="E38" s="39">
+        <v>1026238784</v>
+      </c>
+      <c r="G38" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="H38" s="40">
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -6253,7 +6679,19 @@
         <v>1011752470</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
+      </c>
+      <c r="D39" s="64" t="s">
+        <v>292</v>
+      </c>
+      <c r="E39" s="39">
+        <v>1011752470</v>
+      </c>
+      <c r="G39" s="64" t="s">
+        <v>292</v>
+      </c>
+      <c r="H39" s="40">
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -6261,7 +6699,19 @@
         <v>1000016762</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
+      </c>
+      <c r="D40" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="E40" s="39">
+        <v>1000016762</v>
+      </c>
+      <c r="G40" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="H40" s="40">
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -6269,7 +6719,19 @@
         <v>1021928374</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
+      </c>
+      <c r="D41" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="E41" s="39">
+        <v>1021928374</v>
+      </c>
+      <c r="G41" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="H41" s="40">
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -6277,7 +6739,19 @@
         <v>1015159424</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
+      </c>
+      <c r="D42" s="64" t="s">
+        <v>295</v>
+      </c>
+      <c r="E42" s="39">
+        <v>1015159424</v>
+      </c>
+      <c r="G42" s="64" t="s">
+        <v>295</v>
+      </c>
+      <c r="H42" s="40">
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -6285,7 +6759,19 @@
         <v>1009812763</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
+      </c>
+      <c r="D43" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="E43" s="39">
+        <v>1009812763</v>
+      </c>
+      <c r="G43" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="H43" s="40">
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -6293,20 +6779,40 @@
         <v>10281927364</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
+      </c>
+      <c r="D44" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="E44" s="39">
+        <v>10281927364</v>
+      </c>
+      <c r="G44" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="H44" s="40">
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="57" t="s">
-        <v>273</v>
-      </c>
-      <c r="B45" s="57"/>
+      <c r="A45" s="83" t="s">
+        <v>270</v>
+      </c>
+      <c r="B45" s="83"/>
+      <c r="D45" s="83" t="s">
+        <v>298</v>
+      </c>
+      <c r="E45" s="83"/>
+      <c r="G45" s="83" t="s">
+        <v>301</v>
+      </c>
+      <c r="H45" s="83"/>
     </row>
     <row r="47" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="71">
+      <c r="C47" s="56">
         <v>1</v>
       </c>
-      <c r="L47" s="75" t="s">
+      <c r="L47" s="59" t="s">
         <v>239</v>
       </c>
     </row>
@@ -6321,63 +6827,63 @@
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C49" s="69">
+      <c r="C49" s="55">
         <v>1</v>
       </c>
-      <c r="F49" s="59"/>
+      <c r="F49" s="49"/>
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="68" t="s">
+      <c r="K49" s="53"/>
+      <c r="L49" s="54" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="70" t="s">
-        <v>248</v>
-      </c>
-      <c r="C50" s="70"/>
+      <c r="B50" s="86" t="s">
+        <v>246</v>
+      </c>
+      <c r="C50" s="86"/>
       <c r="I50" s="18"/>
       <c r="J50" s="18"/>
-      <c r="L50" s="74" t="s">
-        <v>269</v>
-      </c>
-      <c r="M50" s="52"/>
+      <c r="L50" s="87" t="s">
+        <v>267</v>
+      </c>
+      <c r="M50" s="77"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I51" s="18"/>
       <c r="J51" s="18"/>
-      <c r="L51" s="71">
+      <c r="L51" s="56">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C52" s="60"/>
-      <c r="I52" s="77" t="s">
-        <v>273</v>
-      </c>
-      <c r="J52" s="77"/>
+      <c r="C52" s="50"/>
+      <c r="I52" s="88" t="s">
+        <v>270</v>
+      </c>
+      <c r="J52" s="88"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I53" s="76" t="s">
+      <c r="I53" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="J53" s="76" t="s">
+      <c r="J53" s="60" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F54" s="72" t="s">
+      <c r="F54" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="G54" s="75" t="s">
+      <c r="G54" s="59" t="s">
         <v>239</v>
       </c>
       <c r="I54" s="18"/>
       <c r="J54" s="18"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F55" s="73">
+      <c r="F55" s="58">
         <v>1</v>
       </c>
       <c r="G55" s="48" t="s">
@@ -6387,167 +6893,183 @@
       <c r="J55" s="18"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F56" s="73" t="s">
+      <c r="F56" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="G56" s="73">
+      <c r="G56" s="58">
         <v>1</v>
       </c>
-      <c r="H56" s="71">
+      <c r="H56" s="56">
         <v>1</v>
       </c>
       <c r="I56" s="18"/>
       <c r="J56" s="18"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F57" s="58" t="s">
-        <v>267</v>
-      </c>
-      <c r="G57" s="58"/>
+      <c r="F57" s="90" t="s">
+        <v>265</v>
+      </c>
+      <c r="G57" s="90"/>
       <c r="I57" s="18"/>
       <c r="J57" s="18"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F58" s="78">
+      <c r="F58" s="69">
         <v>1</v>
       </c>
-      <c r="G58" s="79">
+      <c r="G58" s="61">
         <v>1</v>
       </c>
-      <c r="H58" s="71">
-        <v>1</v>
-      </c>
+      <c r="H58" s="68"/>
       <c r="I58" s="18"/>
       <c r="K58" s="18"/>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F59" s="78">
+      <c r="F59" s="69">
         <v>1</v>
       </c>
-      <c r="G59" s="79" t="s">
-        <v>239</v>
+      <c r="G59" s="62">
+        <v>1</v>
       </c>
       <c r="H59" s="18"/>
       <c r="I59" s="18"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F60" s="71">
+      <c r="F60" s="57">
         <v>1</v>
       </c>
-      <c r="G60" s="71" t="s">
+      <c r="G60" s="56">
+        <v>1</v>
+      </c>
+      <c r="H60" s="18"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C61" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="H60" s="18"/>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C61" s="71" t="s">
+      <c r="H61" s="18"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="68"/>
+      <c r="L61" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C62" s="61">
+        <v>1</v>
+      </c>
+      <c r="H62" s="18"/>
+      <c r="I62" s="89"/>
+      <c r="J62" s="89"/>
+      <c r="L62" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C63" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="H61" s="18"/>
-      <c r="I61" s="71" t="s">
-        <v>239</v>
-      </c>
-      <c r="J61" s="71" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C62" s="78">
+      <c r="H63" s="18"/>
+      <c r="I63" s="67"/>
+      <c r="L63" s="61">
         <v>1</v>
       </c>
-      <c r="H62" s="18"/>
-      <c r="I62" s="77" t="s">
-        <v>272</v>
-      </c>
-      <c r="J62" s="77"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C63" s="78" t="s">
-        <v>239</v>
-      </c>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="L63" s="71">
-        <v>1</v>
-      </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="67" t="s">
+      <c r="B64" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="67"/>
+      <c r="C64" s="85"/>
       <c r="H64" s="18"/>
       <c r="I64" s="18"/>
-      <c r="L64" s="66" t="s">
-        <v>240</v>
-      </c>
-      <c r="M64" s="66"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C65" s="78">
+      <c r="L64" s="91" t="s">
+        <v>273</v>
+      </c>
+      <c r="M64" s="91"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C65" s="61">
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H65" s="18"/>
       <c r="I65" s="18"/>
-      <c r="L65" s="78" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C66" s="80" t="s">
+      <c r="L65" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C66" s="62" t="s">
         <v>239</v>
       </c>
       <c r="H66" s="18"/>
       <c r="I66" s="18"/>
-      <c r="L66" s="78">
+      <c r="L66" s="61">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C67" s="71" t="s">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C67" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="L67" s="71" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="65" t="s">
+      <c r="L67" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L70" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="84" t="s">
         <v>228</v>
       </c>
-      <c r="C71" s="65"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C72" s="81">
+      <c r="C71" s="84"/>
+      <c r="L71" s="61">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C73" s="78">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C72" s="63">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C74" s="71">
+      <c r="L72" s="61">
         <v>1</v>
       </c>
     </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C73" s="61">
+        <v>1</v>
+      </c>
+      <c r="L73" s="82" t="s">
+        <v>302</v>
+      </c>
+      <c r="M73" s="76"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C74" s="56">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:H45"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I62:J62"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A22:B22"/>
     <mergeCell ref="F57:G57"/>
     <mergeCell ref="L64:M64"/>
   </mergeCells>

--- a/Primer_Trimestres/Nomalizacion/correccion/Normalización .xlsx
+++ b/Primer_Trimestres/Nomalizacion/correccion/Normalización .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMBIENTE\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heelen\OneDrive\Documentos\GitHub\farmifarmacy1.0\Primer_Trimestres\Nomalizacion\correccion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104EEF89-F2B3-49DC-9324-F38107CAC097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52862D3A-7303-448B-A1F3-EF6CA6C9E988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{EB7CC955-6B47-4A67-9DA5-CC93A65E4CC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="3" activeTab="7" xr2:uid="{EB7CC955-6B47-4A67-9DA5-CC93A65E4CC7}"/>
   </bookViews>
   <sheets>
     <sheet name="cliente" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="303">
   <si>
     <t>identificacion</t>
   </si>
@@ -948,12 +948,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0.000_-;\-&quot;$&quot;\ * #,##0.000_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.000_-;\-&quot;$&quot;* #,##0.000_-;_-&quot;$&quot;* &quot;-&quot;???_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;???_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="0000"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.000_-;\-&quot;$&quot;\ * #,##0.000_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0.000_-;\-&quot;$&quot;* #,##0.000_-;_-&quot;$&quot;* &quot;-&quot;???_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;???_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1194,7 +1194,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="92">
@@ -1204,9 +1204,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
@@ -1214,7 +1214,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1224,14 +1224,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1276,13 +1276,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1297,7 +1297,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="15" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1352,7 +1352,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="D2" s="15">
         <f ca="1">NOW()</f>
-        <v>44411.600464236108</v>
+        <v>44412.768436458333</v>
       </c>
       <c r="E2" s="15">
         <v>44673.458333333336</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="D3" s="15">
         <f t="shared" ref="D3:D20" ca="1" si="0">NOW()</f>
-        <v>44411.600464236108</v>
+        <v>44412.768436458333</v>
       </c>
       <c r="E3" s="15">
         <v>44674.458333333336</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="D4" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44411.600464236108</v>
+        <v>44412.768436458333</v>
       </c>
       <c r="E4" s="15">
         <v>44675.458333333336</v>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="D5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44411.600464236108</v>
+        <v>44412.768436458333</v>
       </c>
       <c r="E5" s="15">
         <v>44676.458333333336</v>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="D6" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44411.600464236108</v>
+        <v>44412.768436458333</v>
       </c>
       <c r="E6" s="15">
         <v>44677.458333333336</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="D7" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44411.600464236108</v>
+        <v>44412.768436458333</v>
       </c>
       <c r="E7" s="15">
         <v>44678.458333333336</v>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="D8" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44411.600464236108</v>
+        <v>44412.768436458333</v>
       </c>
       <c r="E8" s="15">
         <v>44679.458333333336</v>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="D9" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44411.600464236108</v>
+        <v>44412.768436458333</v>
       </c>
       <c r="E9" s="15">
         <v>44680.458333333336</v>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="D10" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44411.600464236108</v>
+        <v>44412.768436458333</v>
       </c>
       <c r="E10" s="15">
         <v>44681.458333333336</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="D11" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44411.600464236108</v>
+        <v>44412.768436458333</v>
       </c>
       <c r="E11" s="15">
         <v>44682.458333333336</v>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="D12" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44411.600464236108</v>
+        <v>44412.768436458333</v>
       </c>
       <c r="E12" s="15">
         <v>44683.458333333336</v>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="D13" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44411.600464236108</v>
+        <v>44412.768436458333</v>
       </c>
       <c r="E13" s="15">
         <v>44684.458333333336</v>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="D14" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44411.600464236108</v>
+        <v>44412.768436458333</v>
       </c>
       <c r="E14" s="15">
         <v>44685.458333333336</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="D15" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44411.600464236108</v>
+        <v>44412.768436458333</v>
       </c>
       <c r="E15" s="15">
         <v>44686.458333333336</v>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="D16" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44411.600464236108</v>
+        <v>44412.768436458333</v>
       </c>
       <c r="E16" s="15">
         <v>44687.458333333336</v>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="D17" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44411.600464236108</v>
+        <v>44412.768436458333</v>
       </c>
       <c r="E17" s="15">
         <v>44688.458333333336</v>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="D18" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44411.600464236108</v>
+        <v>44412.768436458333</v>
       </c>
       <c r="E18" s="15">
         <v>44689.458333333336</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="D19" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44411.600464236108</v>
+        <v>44412.768436458333</v>
       </c>
       <c r="E19" s="15">
         <v>44690.458333333336</v>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="D20" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44411.600464236108</v>
+        <v>44412.768436458333</v>
       </c>
       <c r="E20" s="15">
         <v>44691.458333333336</v>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="F1" s="5">
         <f ca="1">NOW()</f>
-        <v>44411.600464236108</v>
+        <v>44412.768436458333</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3245,11 +3245,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C18"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A1:B1"/>
@@ -3257,6 +3252,11 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C18"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5965,8 +5965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15CDDD0-1EC6-46EB-86DD-BB5C7073D9F7}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6950,8 +6950,8 @@
       <c r="H61" s="18"/>
       <c r="I61" s="68"/>
       <c r="J61" s="68"/>
-      <c r="L61" s="56">
-        <v>1</v>
+      <c r="L61" s="56" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
@@ -6971,8 +6971,8 @@
       </c>
       <c r="H63" s="18"/>
       <c r="I63" s="67"/>
-      <c r="L63" s="61">
-        <v>1</v>
+      <c r="L63" s="61" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">

--- a/Primer_Trimestres/Nomalizacion/correccion/Normalización .xlsx
+++ b/Primer_Trimestres/Nomalizacion/correccion/Normalización .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heelen\OneDrive\Documentos\GitHub\farmifarmacy1.0\Primer_Trimestres\Nomalizacion\correccion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52862D3A-7303-448B-A1F3-EF6CA6C9E988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AFA8DCF-3C1A-48DD-B7D9-62F7163A1C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="3" activeTab="7" xr2:uid="{EB7CC955-6B47-4A67-9DA5-CC93A65E4CC7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="285">
   <si>
     <t>identificacion</t>
   </si>
@@ -718,39 +718,12 @@
     <t>Bravo</t>
   </si>
   <si>
-    <t>LOTE</t>
-  </si>
-  <si>
     <t>Lote</t>
   </si>
   <si>
     <t xml:space="preserve">T_Doc </t>
   </si>
   <si>
-    <t>Cod_Lote</t>
-  </si>
-  <si>
-    <t>L-1</t>
-  </si>
-  <si>
-    <t>L-2</t>
-  </si>
-  <si>
-    <t>L-3</t>
-  </si>
-  <si>
-    <t>L-4</t>
-  </si>
-  <si>
-    <t>L-5</t>
-  </si>
-  <si>
-    <t>L-6</t>
-  </si>
-  <si>
-    <t>L-7</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -763,21 +736,12 @@
     <t>Cédula de Ciudadania</t>
   </si>
   <si>
-    <t>CC</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cédula de Extranjería </t>
   </si>
   <si>
-    <t>CE</t>
-  </si>
-  <si>
     <t>TIPO_DOCUMENTO</t>
   </si>
   <si>
-    <t>PRODUCTO-LOTE</t>
-  </si>
-  <si>
     <t>Cod_rol</t>
   </si>
   <si>
@@ -841,119 +805,105 @@
     <t>USUARIO-TIPO_DOCUMENTO</t>
   </si>
   <si>
-    <t>USUARIO-PRODUCTO</t>
-  </si>
-  <si>
     <t>USUARIO-ROL</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cod_venta </t>
-  </si>
-  <si>
-    <t>CARRO DE COMPRAS</t>
-  </si>
-  <si>
-    <t>Item_producto</t>
+    <t>Carro de Compras</t>
+  </si>
+  <si>
+    <t>CARRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cod_Carro </t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id_Ingreso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id_Empleado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factura </t>
+  </si>
+  <si>
+    <t>E_001</t>
+  </si>
+  <si>
+    <t>E_002</t>
+  </si>
+  <si>
+    <t>E_003</t>
+  </si>
+  <si>
+    <t>E_004</t>
+  </si>
+  <si>
+    <t>E_005</t>
+  </si>
+  <si>
+    <t>INGRESO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id_Compra </t>
+  </si>
+  <si>
+    <t>Iva</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Valor SubTotal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cod_Carro </t>
-  </si>
-  <si>
-    <t>V_001</t>
-  </si>
-  <si>
-    <t>V_002</t>
-  </si>
-  <si>
-    <t>V_003</t>
-  </si>
-  <si>
-    <t>V_004</t>
-  </si>
-  <si>
-    <t>V_005</t>
-  </si>
-  <si>
-    <t>V_006</t>
-  </si>
-  <si>
-    <t>V_007</t>
-  </si>
-  <si>
-    <t>V_008</t>
-  </si>
-  <si>
-    <t>V_009</t>
-  </si>
-  <si>
-    <t>V_010</t>
-  </si>
-  <si>
-    <t>V_011</t>
-  </si>
-  <si>
-    <t>V_012</t>
-  </si>
-  <si>
-    <t>V_013</t>
-  </si>
-  <si>
-    <t>V_014</t>
-  </si>
-  <si>
-    <t>V_015</t>
-  </si>
-  <si>
-    <t>V_016</t>
-  </si>
-  <si>
-    <t>V_017</t>
-  </si>
-  <si>
-    <t>V_018</t>
-  </si>
-  <si>
-    <t>V_019</t>
-  </si>
-  <si>
-    <t>V_020</t>
-  </si>
-  <si>
-    <t>VENTA-USUARIO</t>
-  </si>
-  <si>
-    <t>USUARIO-CARRO DE COMPRAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id_Carro </t>
-  </si>
-  <si>
-    <t>VENTA-CARRO DE COMPRAS</t>
-  </si>
-  <si>
-    <t>VENTA</t>
+    <t>COMPRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USUARIO-CARRO </t>
+  </si>
+  <si>
+    <t>USUARIO-COMPRA</t>
+  </si>
+  <si>
+    <t>USUARIO-INGRESO</t>
+  </si>
+  <si>
+    <t>CARRO-PRODUCTO</t>
+  </si>
+  <si>
+    <t>INGRESO-PRODUCTO</t>
+  </si>
+  <si>
+    <t>COMPRA-PRODUCTO</t>
+  </si>
+  <si>
+    <t>TIPO-DOCUMENTO</t>
+  </si>
+  <si>
+    <t>PRODUCTO-CARRO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="10">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.000_-;\-&quot;$&quot;\ * #,##0.000_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0.000_-;\-&quot;$&quot;* #,##0.000_-;_-&quot;$&quot;* &quot;-&quot;???_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;???_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="0000"/>
+    <numFmt numFmtId="169" formatCode="00"/>
+    <numFmt numFmtId="170" formatCode="dd\-mm\-yyyy;@"/>
+    <numFmt numFmtId="171" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="172" formatCode="000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -998,7 +948,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1031,12 +981,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1050,12 +994,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,12 +1053,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1169,10 +1125,41 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1182,9 +1169,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1192,12 +1177,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1252,121 +1238,118 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="172" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="171" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1377,60 +1360,40 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
+    <cellStyle name="Moneda" xfId="3" builtinId="4"/>
     <cellStyle name="Moneda 2" xfId="1" xr:uid="{5291C821-B920-4C78-9C2E-1D706142DAED}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1451,23 +1414,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Conector recto 2">
+        <xdr:cNvPr id="4" name="Conector recto 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE765914-A192-42BE-A444-56F9929EEFFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1DC85B2-D208-4DE6-8395-541CF04DF861}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1475,25 +1438,413 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3048000" y="9515475"/>
-          <a:ext cx="1943100" cy="1143000"/>
+          <a:off x="3067050" y="9144000"/>
+          <a:ext cx="1933575" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
           <a:prstDash val="dash"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Conector recto 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EF05279-9030-4F4D-B820-C00BB1E4F9C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7200900" y="9334500"/>
+          <a:ext cx="895350" cy="190501"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Conector recto 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AC2B656-06AD-4029-AA09-C9503049EDCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10210800" y="8953500"/>
+          <a:ext cx="857250" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Conector recto 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF85AFE3-10C3-4153-9F7E-991EB86F404A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10210800" y="10096500"/>
+          <a:ext cx="847725" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Conector recto 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94185BD2-019C-43B6-A801-85A0DA0335ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13077825" y="10487025"/>
+          <a:ext cx="0" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Conector recto 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD601D9-1E7A-442A-B61E-1B2596ACC1D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10210800" y="11430000"/>
+          <a:ext cx="857250" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Conector recto 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B7FF5E-18C6-4D13-A222-B2E36C3712DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7191375" y="11239500"/>
+          <a:ext cx="923925" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Conector recto 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5956776A-1678-41B6-BE6B-A70902A11FED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3914775" y="9725025"/>
+          <a:ext cx="1085850" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1506,47 +1857,49 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Conector recto 15">
+        <xdr:cNvPr id="31" name="Conector recto 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5497DB5A-F0CD-4B52-B8BA-0B285ACE9C3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B6F976-6ADF-4EBE-AF6A-541EDE88ABAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3057525" y="10858500"/>
-          <a:ext cx="1943100" cy="1152525"/>
+        <a:xfrm>
+          <a:off x="3057525" y="10096500"/>
+          <a:ext cx="9525" cy="1895475"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="28575">
-          <a:prstDash val="solid"/>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1557,76 +1910,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Conector recto 21">
+        <xdr:cNvPr id="32" name="Conector recto 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B33671-0470-4609-8A36-22893173F271}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2200275" y="12201525"/>
-          <a:ext cx="0" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Conector recto 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1225771-AC55-473E-BB15-5C83BC2CE199}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBAEF5D3-C379-4A32-B72C-5210627094D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,78 +1934,27 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7181850" y="9915526"/>
-          <a:ext cx="933450" cy="742949"/>
+          <a:off x="3914775" y="11830050"/>
+          <a:ext cx="7162800" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="28575">
-          <a:prstDash val="solid"/>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Conector recto 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD4255E7-5AD7-4F4B-930F-ED348651898D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10201275" y="9544050"/>
-          <a:ext cx="847725" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1718,21 +1967,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Conector recto 9">
+        <xdr:cNvPr id="36" name="Conector recto 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3773BE0-2CA0-48CD-BC43-3663B6E9E7A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28B33800-434B-4A2F-9BDF-82E332005D0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1740,25 +1989,27 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7191375" y="10868025"/>
-          <a:ext cx="3886200" cy="1152525"/>
+          <a:off x="7191375" y="9715500"/>
+          <a:ext cx="923925" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="28575">
-          <a:prstDash val="dash"/>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1769,49 +2020,51 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Conector recto 11">
+        <xdr:cNvPr id="38" name="Conector recto 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{870F02DC-6715-4023-B041-67A2854FA8B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A787A5A-8BDB-41A8-B9A0-0F8F0708A16B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="12153900" y="12230100"/>
-          <a:ext cx="19050" cy="1457325"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6086475" y="9715501"/>
+          <a:ext cx="9525" cy="1523999"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="28575">
-          <a:prstDash val="solid"/>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2418,7 +2671,7 @@
       </c>
       <c r="D2" s="15">
         <f ca="1">NOW()</f>
-        <v>44412.768436458333</v>
+        <v>44426.910352083331</v>
       </c>
       <c r="E2" s="15">
         <v>44673.458333333336</v>
@@ -2436,7 +2689,7 @@
       </c>
       <c r="D3" s="15">
         <f t="shared" ref="D3:D20" ca="1" si="0">NOW()</f>
-        <v>44412.768436458333</v>
+        <v>44426.910352083331</v>
       </c>
       <c r="E3" s="15">
         <v>44674.458333333336</v>
@@ -2454,7 +2707,7 @@
       </c>
       <c r="D4" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44412.768436458333</v>
+        <v>44426.910352083331</v>
       </c>
       <c r="E4" s="15">
         <v>44675.458333333336</v>
@@ -2472,7 +2725,7 @@
       </c>
       <c r="D5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44412.768436458333</v>
+        <v>44426.910352083331</v>
       </c>
       <c r="E5" s="15">
         <v>44676.458333333336</v>
@@ -2490,7 +2743,7 @@
       </c>
       <c r="D6" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44412.768436458333</v>
+        <v>44426.910352083331</v>
       </c>
       <c r="E6" s="15">
         <v>44677.458333333336</v>
@@ -2508,7 +2761,7 @@
       </c>
       <c r="D7" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44412.768436458333</v>
+        <v>44426.910352083331</v>
       </c>
       <c r="E7" s="15">
         <v>44678.458333333336</v>
@@ -2526,7 +2779,7 @@
       </c>
       <c r="D8" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44412.768436458333</v>
+        <v>44426.910352083331</v>
       </c>
       <c r="E8" s="15">
         <v>44679.458333333336</v>
@@ -2544,7 +2797,7 @@
       </c>
       <c r="D9" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44412.768436458333</v>
+        <v>44426.910352083331</v>
       </c>
       <c r="E9" s="15">
         <v>44680.458333333336</v>
@@ -2562,7 +2815,7 @@
       </c>
       <c r="D10" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44412.768436458333</v>
+        <v>44426.910352083331</v>
       </c>
       <c r="E10" s="15">
         <v>44681.458333333336</v>
@@ -2580,7 +2833,7 @@
       </c>
       <c r="D11" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44412.768436458333</v>
+        <v>44426.910352083331</v>
       </c>
       <c r="E11" s="15">
         <v>44682.458333333336</v>
@@ -2598,7 +2851,7 @@
       </c>
       <c r="D12" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44412.768436458333</v>
+        <v>44426.910352083331</v>
       </c>
       <c r="E12" s="15">
         <v>44683.458333333336</v>
@@ -2616,7 +2869,7 @@
       </c>
       <c r="D13" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44412.768436458333</v>
+        <v>44426.910352083331</v>
       </c>
       <c r="E13" s="15">
         <v>44684.458333333336</v>
@@ -2634,7 +2887,7 @@
       </c>
       <c r="D14" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44412.768436458333</v>
+        <v>44426.910352083331</v>
       </c>
       <c r="E14" s="15">
         <v>44685.458333333336</v>
@@ -2652,7 +2905,7 @@
       </c>
       <c r="D15" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44412.768436458333</v>
+        <v>44426.910352083331</v>
       </c>
       <c r="E15" s="15">
         <v>44686.458333333336</v>
@@ -2670,7 +2923,7 @@
       </c>
       <c r="D16" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44412.768436458333</v>
+        <v>44426.910352083331</v>
       </c>
       <c r="E16" s="15">
         <v>44687.458333333336</v>
@@ -2688,7 +2941,7 @@
       </c>
       <c r="D17" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44412.768436458333</v>
+        <v>44426.910352083331</v>
       </c>
       <c r="E17" s="15">
         <v>44688.458333333336</v>
@@ -2706,7 +2959,7 @@
       </c>
       <c r="D18" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44412.768436458333</v>
+        <v>44426.910352083331</v>
       </c>
       <c r="E18" s="15">
         <v>44689.458333333336</v>
@@ -2724,7 +2977,7 @@
       </c>
       <c r="D19" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44412.768436458333</v>
+        <v>44426.910352083331</v>
       </c>
       <c r="E19" s="15">
         <v>44690.458333333336</v>
@@ -2742,7 +2995,7 @@
       </c>
       <c r="D20" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44412.768436458333</v>
+        <v>44426.910352083331</v>
       </c>
       <c r="E20" s="15">
         <v>44691.458333333336</v>
@@ -2941,63 +3194,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="72">
+      <c r="B1" s="70"/>
+      <c r="C1" s="69">
         <v>1192831945</v>
       </c>
-      <c r="D1" s="72"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="5">
         <f ca="1">NOW()</f>
-        <v>44412.768436458333</v>
+        <v>44426.910352083331</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="74" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="71"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="72">
+      <c r="B4" s="69">
         <v>3172727783</v>
       </c>
-      <c r="C4" s="72"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="72"/>
+      <c r="F4" s="69"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -3190,39 +3443,39 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72" t="s">
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="72"/>
+      <c r="E16" s="69"/>
       <c r="F16" s="6">
         <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72" t="s">
+      <c r="A17" s="69"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="72"/>
+      <c r="E17" s="69"/>
       <c r="F17" s="6">
         <v>73.91</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72" t="s">
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="72"/>
+      <c r="E18" s="69"/>
       <c r="F18" s="6">
         <v>462.90999999999997</v>
       </c>
@@ -3245,6 +3498,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C18"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A1:B1"/>
@@ -3252,11 +3510,6 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C18"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3267,7 +3520,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3276,7 +3529,6 @@
     <col min="2" max="2" width="36.140625" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="5" max="5" width="42.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="34" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" customWidth="1"/>
     <col min="16" max="16" width="14.85546875" customWidth="1"/>
@@ -3887,7 +4139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9B3C5C-ADFC-4BC2-AC69-E82DBE3B9792}">
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView topLeftCell="J4" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2:Q11"/>
     </sheetView>
   </sheetViews>
@@ -3901,6 +4153,8 @@
     <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="21.140625" customWidth="1"/>
     <col min="9" max="9" width="41.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
     <col min="15" max="15" width="28.5703125" customWidth="1"/>
     <col min="16" max="16" width="13.28515625" customWidth="1"/>
     <col min="20" max="20" width="14.7109375" customWidth="1"/>
@@ -3943,12 +4197,12 @@
         <v>135</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="M1" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="M1" s="47" t="s">
         <v>138</v>
       </c>
       <c r="N1" s="26" t="s">
@@ -3963,10 +4217,10 @@
       <c r="Q1" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="47" t="s">
         <v>172</v>
       </c>
       <c r="T1" s="26" t="s">
@@ -4761,25 +5015,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154A3EB2-7D84-4648-B4B7-AFD12D379634}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46:I46"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" customWidth="1"/>
     <col min="8" max="8" width="40.5703125" customWidth="1"/>
     <col min="9" max="9" width="39.7109375" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
     <col min="14" max="14" width="13.28515625" customWidth="1"/>
     <col min="15" max="15" width="27.7109375" customWidth="1"/>
     <col min="16" max="16" width="13.140625" customWidth="1"/>
@@ -4817,10 +5071,10 @@
         <v>134</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -4847,7 +5101,7 @@
         <v>46</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>131</v>
@@ -4879,7 +5133,7 @@
         <v>50</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J3" s="31" t="s">
         <v>131</v>
@@ -4911,7 +5165,7 @@
         <v>53</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J4" s="31" t="s">
         <v>131</v>
@@ -4943,7 +5197,7 @@
         <v>57</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J5" s="31" t="s">
         <v>131</v>
@@ -4975,7 +5229,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J6" s="31" t="s">
         <v>131</v>
@@ -5007,7 +5261,7 @@
         <v>63</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J7" s="31" t="s">
         <v>131</v>
@@ -5039,7 +5293,7 @@
         <v>67</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J8" s="31" t="s">
         <v>131</v>
@@ -5071,7 +5325,7 @@
         <v>71</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J9" s="31" t="s">
         <v>131</v>
@@ -5103,7 +5357,7 @@
         <v>75</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J10" s="31" t="s">
         <v>131</v>
@@ -5135,14 +5389,14 @@
         <v>79</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J11" s="31" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
+      <c r="A12" s="38">
         <v>1016841206</v>
       </c>
       <c r="B12" s="31" t="s">
@@ -5161,14 +5415,14 @@
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
       <c r="I12" s="31" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
+      <c r="A13" s="38">
         <v>1003275748</v>
       </c>
       <c r="B13" s="31" t="s">
@@ -5185,14 +5439,14 @@
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
       <c r="I13" s="31" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
+      <c r="A14" s="38">
         <v>1011153857</v>
       </c>
       <c r="B14" s="31" t="s">
@@ -5207,14 +5461,14 @@
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
       <c r="I14" s="31" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
+      <c r="A15" s="38">
         <v>1026238784</v>
       </c>
       <c r="B15" s="31" t="s">
@@ -5233,14 +5487,14 @@
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
       <c r="I15" s="31" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
+      <c r="A16" s="38">
         <v>1011752470</v>
       </c>
       <c r="B16" s="31" t="s">
@@ -5257,14 +5511,14 @@
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
       <c r="I16" s="31" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="39">
+      <c r="A17" s="38">
         <v>1000016762</v>
       </c>
       <c r="B17" s="31" t="s">
@@ -5283,14 +5537,14 @@
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
       <c r="I17" s="31" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="39">
+      <c r="A18" s="38">
         <v>1021928374</v>
       </c>
       <c r="B18" s="31" t="s">
@@ -5307,14 +5561,14 @@
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
       <c r="I18" s="31" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="39">
+      <c r="A19" s="38">
         <v>1015159424</v>
       </c>
       <c r="B19" s="31" t="s">
@@ -5329,14 +5583,14 @@
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
       <c r="I19" s="31" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="39">
+      <c r="A20" s="38">
         <v>1009812763</v>
       </c>
       <c r="B20" s="31" t="s">
@@ -5355,14 +5609,14 @@
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="31" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="39">
+      <c r="A21" s="38">
         <v>10281927364</v>
       </c>
       <c r="B21" s="31" t="s">
@@ -5381,566 +5635,674 @@
       <c r="G21" s="30"/>
       <c r="H21" s="30"/>
       <c r="I21" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="E24" s="45"/>
+      <c r="F24" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="G24" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="H24" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="J24" s="36" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="39">
+        <v>1</v>
+      </c>
+      <c r="B25" s="41">
+        <v>44228</v>
+      </c>
+      <c r="C25" s="48">
+        <v>389</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="F25" s="50">
+        <v>1</v>
+      </c>
+      <c r="G25" s="52">
+        <v>44540</v>
+      </c>
+      <c r="H25" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="I25" s="51"/>
+      <c r="J25" s="36" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
+        <v>2</v>
+      </c>
+      <c r="B26" s="41">
+        <v>44229</v>
+      </c>
+      <c r="C26" s="48">
+        <v>389</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="F26" s="50">
+        <v>2</v>
+      </c>
+      <c r="G26" s="52">
+        <v>44541</v>
+      </c>
+      <c r="H26" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="I26" s="51"/>
+      <c r="J26" s="36" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="39">
+        <v>3</v>
+      </c>
+      <c r="B27" s="41">
+        <v>44230</v>
+      </c>
+      <c r="C27" s="48">
+        <v>389</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="F27" s="50">
+        <v>3</v>
+      </c>
+      <c r="G27" s="52">
+        <v>44542</v>
+      </c>
+      <c r="H27" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="I27" s="51"/>
+      <c r="J27" s="36" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39">
+        <v>4</v>
+      </c>
+      <c r="B28" s="41">
+        <v>44231</v>
+      </c>
+      <c r="C28" s="48">
+        <v>389</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="F28" s="50">
+        <v>4</v>
+      </c>
+      <c r="G28" s="52">
+        <v>44543</v>
+      </c>
+      <c r="H28" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="I28" s="51"/>
+      <c r="J28" s="36" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="39">
+        <v>5</v>
+      </c>
+      <c r="B29" s="41">
+        <v>44232</v>
+      </c>
+      <c r="C29" s="48">
+        <v>389</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="F29" s="50">
+        <v>5</v>
+      </c>
+      <c r="G29" s="52">
+        <v>44544</v>
+      </c>
+      <c r="H29" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="I29" s="51"/>
+      <c r="J29" s="36" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="39">
+        <v>6</v>
+      </c>
+      <c r="B30" s="41">
+        <v>44233</v>
+      </c>
+      <c r="C30" s="48">
+        <v>389</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="F30" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+    </row>
+    <row r="31" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="39">
+        <v>7</v>
+      </c>
+      <c r="B31" s="41">
+        <v>44234</v>
+      </c>
+      <c r="C31" s="48">
+        <v>389</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="39">
+        <v>8</v>
+      </c>
+      <c r="B32" s="41">
+        <v>44235</v>
+      </c>
+      <c r="C32" s="48">
+        <v>389</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="39">
+        <v>9</v>
+      </c>
+      <c r="B33" s="41">
+        <v>44236</v>
+      </c>
+      <c r="C33" s="48">
+        <v>389</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="39">
+        <v>10</v>
+      </c>
+      <c r="B34" s="41">
+        <v>44237</v>
+      </c>
+      <c r="C34" s="48">
+        <v>389</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+    </row>
+    <row r="36" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="E37" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="H37" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="I37" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="J37" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="K37" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="L37" s="55" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="37">
+        <v>43</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="G38" s="56">
+        <v>1</v>
+      </c>
+      <c r="H38" s="57">
+        <v>43871</v>
+      </c>
+      <c r="I38" s="53">
+        <v>389</v>
+      </c>
+      <c r="J38" s="53">
+        <v>73.91</v>
+      </c>
+      <c r="K38" s="54">
+        <v>129</v>
+      </c>
+      <c r="L38" s="58" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="37">
+        <v>76</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="E39" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="G39" s="56">
+        <v>2</v>
+      </c>
+      <c r="H39" s="57">
+        <v>43872</v>
+      </c>
+      <c r="I39" s="53">
+        <v>389</v>
+      </c>
+      <c r="J39" s="53">
+        <v>73.91</v>
+      </c>
+      <c r="K39" s="54">
+        <v>76</v>
+      </c>
+      <c r="L39" s="58" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="37">
+        <v>8</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="G40" s="56">
+        <v>3</v>
+      </c>
+      <c r="H40" s="57">
+        <v>43873</v>
+      </c>
+      <c r="I40" s="53">
+        <v>389</v>
+      </c>
+      <c r="J40" s="53">
+        <v>73.91</v>
+      </c>
+      <c r="K40" s="54">
+        <v>16</v>
+      </c>
+      <c r="L40" s="58" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="37">
+        <v>6</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="E41" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="G41" s="56">
+        <v>4</v>
+      </c>
+      <c r="H41" s="57">
+        <v>43874</v>
+      </c>
+      <c r="I41" s="53">
+        <v>389</v>
+      </c>
+      <c r="J41" s="53">
+        <v>73.91</v>
+      </c>
+      <c r="K41" s="54">
+        <v>18</v>
+      </c>
+      <c r="L41" s="58" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="37">
+        <v>7</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="E42" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="G42" s="56">
+        <v>5</v>
+      </c>
+      <c r="H42" s="57">
+        <v>43875</v>
+      </c>
+      <c r="I42" s="53">
+        <v>389</v>
+      </c>
+      <c r="J42" s="53">
+        <v>73.91</v>
+      </c>
+      <c r="K42" s="54">
+        <v>14</v>
+      </c>
+      <c r="L42" s="58" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="37">
+        <v>23</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="E43" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="G43" s="56">
+        <v>6</v>
+      </c>
+      <c r="H43" s="57">
+        <v>43876</v>
+      </c>
+      <c r="I43" s="53">
+        <v>389</v>
+      </c>
+      <c r="J43" s="53">
+        <v>73.91</v>
+      </c>
+      <c r="K43" s="54">
+        <v>46</v>
+      </c>
+      <c r="L43" s="58" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="37">
+        <v>30</v>
+      </c>
+      <c r="D44" s="35" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="s">
-        <v>265</v>
-      </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
-        <v>277</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="44" t="s">
+      <c r="E44" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="G44" s="56">
+        <v>7</v>
+      </c>
+      <c r="H44" s="57">
+        <v>43877</v>
+      </c>
+      <c r="I44" s="53">
+        <v>389</v>
+      </c>
+      <c r="J44" s="53">
+        <v>73.91</v>
+      </c>
+      <c r="K44" s="54">
+        <v>90</v>
+      </c>
+      <c r="L44" s="58" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="78"/>
+      <c r="G45" s="77" t="s">
         <v>276</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="33" t="s">
+      <c r="H45" s="77"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="77"/>
+      <c r="L45" s="77"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="F24" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="H24" s="64" t="s">
-        <v>272</v>
-      </c>
-      <c r="I24" s="65" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40">
+      <c r="C47" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="E47" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="F47" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="G47" s="44" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="29">
         <v>1</v>
       </c>
-      <c r="B25" s="42">
-        <v>44228</v>
-      </c>
-      <c r="C25" s="45">
-        <v>389</v>
-      </c>
-      <c r="E25" s="33" t="s">
+      <c r="B48" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="F25" s="47">
-        <v>1234</v>
-      </c>
-      <c r="H25" s="64" t="s">
-        <v>278</v>
-      </c>
-      <c r="I25" s="66">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40">
+      <c r="C48" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="E48" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="F48" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="G48" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="29">
         <v>2</v>
       </c>
-      <c r="B26" s="42">
-        <v>44229</v>
-      </c>
-      <c r="C26" s="45">
-        <v>389</v>
-      </c>
-      <c r="E26" s="33" t="s">
+      <c r="B49" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="F26" s="47">
-        <v>2876</v>
-      </c>
-      <c r="H26" s="64" t="s">
-        <v>279</v>
-      </c>
-      <c r="I26" s="66">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40">
+      <c r="C49" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="E49" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="F49" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="G49" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
         <v>3</v>
       </c>
-      <c r="B27" s="42">
-        <v>44230</v>
-      </c>
-      <c r="C27" s="45">
-        <v>389</v>
-      </c>
-      <c r="E27" s="33" t="s">
+      <c r="B50" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="F27" s="47">
-        <v>8744</v>
-      </c>
-      <c r="H27" s="64" t="s">
-        <v>280</v>
-      </c>
-      <c r="I27" s="66">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40">
-        <v>4</v>
-      </c>
-      <c r="B28" s="42">
-        <v>44231</v>
-      </c>
-      <c r="C28" s="45">
-        <v>389</v>
-      </c>
-      <c r="E28" s="33" t="s">
+      <c r="C50" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="E50" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="F50" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="G50" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="74" t="s">
         <v>235</v>
       </c>
-      <c r="F28" s="47">
-        <v>3978</v>
-      </c>
-      <c r="H28" s="64" t="s">
-        <v>281</v>
-      </c>
-      <c r="I28" s="66">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40">
-        <v>5</v>
-      </c>
-      <c r="B29" s="42">
-        <v>44232</v>
-      </c>
-      <c r="C29" s="45">
-        <v>389</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="F29" s="47">
-        <v>2938</v>
-      </c>
-      <c r="H29" s="64" t="s">
-        <v>282</v>
-      </c>
-      <c r="I29" s="66">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40">
-        <v>6</v>
-      </c>
-      <c r="B30" s="42">
-        <v>44233</v>
-      </c>
-      <c r="C30" s="45">
-        <v>389</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="F30" s="47">
-        <v>4937</v>
-      </c>
-      <c r="H30" s="64" t="s">
-        <v>283</v>
-      </c>
-      <c r="I30" s="66">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40">
-        <v>7</v>
-      </c>
-      <c r="B31" s="42">
-        <v>44234</v>
-      </c>
-      <c r="C31" s="45">
-        <v>389</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="F31" s="47">
-        <v>8736</v>
-      </c>
-      <c r="H31" s="64" t="s">
-        <v>284</v>
-      </c>
-      <c r="I31" s="66">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="40">
-        <v>8</v>
-      </c>
-      <c r="B32" s="42">
-        <v>44235</v>
-      </c>
-      <c r="C32" s="45">
-        <v>389</v>
-      </c>
-      <c r="E32" s="79" t="s">
-        <v>228</v>
-      </c>
-      <c r="F32" s="79"/>
-      <c r="H32" s="64" t="s">
-        <v>285</v>
-      </c>
-      <c r="I32" s="66">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40">
-        <v>9</v>
-      </c>
-      <c r="B33" s="42">
-        <v>44236</v>
-      </c>
-      <c r="C33" s="45">
-        <v>389</v>
-      </c>
-      <c r="H33" s="64" t="s">
-        <v>286</v>
-      </c>
-      <c r="I33" s="66">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40">
-        <v>10</v>
-      </c>
-      <c r="B34" s="42">
-        <v>44237</v>
-      </c>
-      <c r="C34" s="45">
-        <v>389</v>
-      </c>
-      <c r="H34" s="64" t="s">
-        <v>287</v>
-      </c>
-      <c r="I34" s="66">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="80" t="s">
-        <v>273</v>
-      </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="H35" s="64" t="s">
-        <v>287</v>
-      </c>
-      <c r="I35" s="66">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H36" s="64" t="s">
-        <v>288</v>
-      </c>
-      <c r="I36" s="66">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="E37" s="37" t="s">
+      <c r="B51" s="74"/>
+      <c r="C51" s="74"/>
+      <c r="E51" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="H37" s="64" t="s">
-        <v>289</v>
-      </c>
-      <c r="I37" s="66">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="37">
-        <v>3</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="38">
-        <v>43</v>
-      </c>
-      <c r="E38" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="H38" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="I38" s="66">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="37">
-        <v>1</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="38">
-        <v>76</v>
-      </c>
-      <c r="E39" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H39" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="I39" s="66">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="37">
-        <v>2</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="38">
-        <v>8</v>
-      </c>
-      <c r="E40" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="H40" s="64" t="s">
-        <v>292</v>
-      </c>
-      <c r="I40" s="66">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="37">
-        <v>3</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="38">
-        <v>6</v>
-      </c>
-      <c r="E41" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="H41" s="64" t="s">
-        <v>293</v>
-      </c>
-      <c r="I41" s="66">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="37">
-        <v>2</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="38">
-        <v>7</v>
-      </c>
-      <c r="E42" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="H42" s="64" t="s">
-        <v>294</v>
-      </c>
-      <c r="I42" s="66">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="37">
-        <v>2</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="38">
-        <v>23</v>
-      </c>
-      <c r="E43" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="H43" s="64" t="s">
-        <v>295</v>
-      </c>
-      <c r="I43" s="66">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="37">
-        <v>3</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="38">
-        <v>30</v>
-      </c>
-      <c r="E44" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="H44" s="64" t="s">
-        <v>296</v>
-      </c>
-      <c r="I44" s="66">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="81"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="81"/>
-      <c r="H45" s="64" t="s">
-        <v>297</v>
-      </c>
-      <c r="I45" s="66">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H46" s="76" t="s">
-        <v>302</v>
-      </c>
-      <c r="I46" s="76"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="E47" s="46" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="D48" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="E48" s="46" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="D49" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="E49" s="46" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="D50" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="E50" s="46" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="78" t="s">
-        <v>246</v>
-      </c>
-      <c r="B51" s="78"/>
-      <c r="D51" s="77" t="s">
-        <v>267</v>
-      </c>
-      <c r="E51" s="77"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A22:J22"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="G45:L45"/>
     <mergeCell ref="A45:E45"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -5963,10 +6325,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15CDDD0-1EC6-46EB-86DD-BB5C7073D9F7}">
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5988,51 +6350,51 @@
       <c r="A1" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>231</v>
+      <c r="B1" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>260</v>
       </c>
       <c r="G1" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="H1" s="35" t="s">
-        <v>139</v>
+      <c r="H1" s="42" t="s">
+        <v>236</v>
       </c>
       <c r="J1" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="K1" s="43" t="s">
-        <v>300</v>
+      <c r="K1" s="42" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>1013576811</v>
       </c>
-      <c r="B2" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>232</v>
+      <c r="B2" s="29">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29">
+        <v>1013576811</v>
+      </c>
+      <c r="E2" s="39">
+        <v>1</v>
       </c>
       <c r="G2" s="29">
         <v>1013576811</v>
       </c>
-      <c r="H2" s="35" t="s">
-        <v>16</v>
+      <c r="H2" s="42" t="s">
+        <v>242</v>
       </c>
       <c r="J2" s="29">
         <v>1013576811</v>
       </c>
-      <c r="K2" s="40">
+      <c r="K2" s="56">
         <v>1</v>
       </c>
     </row>
@@ -6040,25 +6402,25 @@
       <c r="A3" s="29">
         <v>1001096125</v>
       </c>
-      <c r="B3" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>233</v>
+      <c r="B3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29">
+        <v>1001096125</v>
+      </c>
+      <c r="E3" s="39">
+        <v>2</v>
       </c>
       <c r="G3" s="29">
         <v>1001096125</v>
       </c>
-      <c r="H3" s="35" t="s">
-        <v>18</v>
+      <c r="H3" s="42" t="s">
+        <v>242</v>
       </c>
       <c r="J3" s="29">
         <v>1001096125</v>
       </c>
-      <c r="K3" s="40">
+      <c r="K3" s="56">
         <v>2</v>
       </c>
     </row>
@@ -6066,25 +6428,25 @@
       <c r="A4" s="29">
         <v>1012316243</v>
       </c>
-      <c r="B4" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>234</v>
+      <c r="B4" s="29">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29">
+        <v>1012316243</v>
+      </c>
+      <c r="E4" s="39">
+        <v>3</v>
       </c>
       <c r="G4" s="29">
         <v>1012316243</v>
       </c>
-      <c r="H4" s="35" t="s">
-        <v>20</v>
+      <c r="H4" s="42" t="s">
+        <v>242</v>
       </c>
       <c r="J4" s="29">
         <v>1012316243</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="56">
         <v>3</v>
       </c>
     </row>
@@ -6092,25 +6454,25 @@
       <c r="A5" s="29">
         <v>1016942358</v>
       </c>
-      <c r="B5" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>235</v>
+      <c r="B5" s="29">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29">
+        <v>1016942358</v>
+      </c>
+      <c r="E5" s="39">
+        <v>4</v>
       </c>
       <c r="G5" s="29">
         <v>1016942358</v>
       </c>
-      <c r="H5" s="35" t="s">
-        <v>22</v>
+      <c r="H5" s="42" t="s">
+        <v>242</v>
       </c>
       <c r="J5" s="29">
         <v>1016942358</v>
       </c>
-      <c r="K5" s="40">
+      <c r="K5" s="56">
         <v>4</v>
       </c>
     </row>
@@ -6118,25 +6480,25 @@
       <c r="A6" s="29">
         <v>1192831945</v>
       </c>
-      <c r="B6" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>236</v>
+      <c r="B6" s="29">
+        <v>1</v>
+      </c>
+      <c r="D6" s="29">
+        <v>1192831945</v>
+      </c>
+      <c r="E6" s="39">
+        <v>5</v>
       </c>
       <c r="G6" s="29">
         <v>1192831945</v>
       </c>
-      <c r="H6" s="35" t="s">
-        <v>24</v>
+      <c r="H6" s="42" t="s">
+        <v>242</v>
       </c>
       <c r="J6" s="29">
         <v>1192831945</v>
       </c>
-      <c r="K6" s="40">
+      <c r="K6" s="56">
         <v>5</v>
       </c>
     </row>
@@ -6144,25 +6506,25 @@
       <c r="A7" s="29">
         <v>1016943117</v>
       </c>
-      <c r="B7" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>237</v>
+      <c r="B7" s="29">
+        <v>1</v>
+      </c>
+      <c r="D7" s="29">
+        <v>1016943117</v>
+      </c>
+      <c r="E7" s="39">
+        <v>6</v>
       </c>
       <c r="G7" s="29">
         <v>1016943117</v>
       </c>
-      <c r="H7" s="35" t="s">
-        <v>26</v>
+      <c r="H7" s="42" t="s">
+        <v>242</v>
       </c>
       <c r="J7" s="29">
         <v>1016943117</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="56">
         <v>6</v>
       </c>
     </row>
@@ -6170,25 +6532,25 @@
       <c r="A8" s="29">
         <v>1010051342</v>
       </c>
-      <c r="B8" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>238</v>
+      <c r="B8" s="29">
+        <v>1</v>
+      </c>
+      <c r="D8" s="29">
+        <v>1010051342</v>
+      </c>
+      <c r="E8" s="39">
+        <v>7</v>
       </c>
       <c r="G8" s="29">
         <v>1010051342</v>
       </c>
-      <c r="H8" s="35" t="s">
-        <v>28</v>
+      <c r="H8" s="42" t="s">
+        <v>242</v>
       </c>
       <c r="J8" s="29">
         <v>1010051342</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="56">
         <v>7</v>
       </c>
     </row>
@@ -6196,25 +6558,25 @@
       <c r="A9" s="29">
         <v>1006051207</v>
       </c>
-      <c r="B9" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>232</v>
+      <c r="B9" s="29">
+        <v>1</v>
+      </c>
+      <c r="D9" s="29">
+        <v>1006051207</v>
+      </c>
+      <c r="E9" s="39">
+        <v>8</v>
       </c>
       <c r="G9" s="29">
         <v>1006051207</v>
       </c>
-      <c r="H9" s="35" t="s">
-        <v>16</v>
+      <c r="H9" s="42" t="s">
+        <v>242</v>
       </c>
       <c r="J9" s="29">
         <v>1006051207</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="56">
         <v>8</v>
       </c>
     </row>
@@ -6222,856 +6584,876 @@
       <c r="A10" s="29">
         <v>1014176160</v>
       </c>
-      <c r="B10" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>233</v>
+      <c r="B10" s="29">
+        <v>1</v>
+      </c>
+      <c r="D10" s="29">
+        <v>1014176160</v>
+      </c>
+      <c r="E10" s="39">
+        <v>9</v>
       </c>
       <c r="G10" s="29">
         <v>1014176160</v>
       </c>
-      <c r="H10" s="35" t="s">
-        <v>18</v>
+      <c r="H10" s="42" t="s">
+        <v>242</v>
       </c>
       <c r="J10" s="29">
         <v>1014176160</v>
       </c>
-      <c r="K10" s="40">
+      <c r="K10" s="56">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="51">
+      <c r="A11" s="46">
         <v>1000350620</v>
       </c>
-      <c r="B11" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="D11" s="35" t="s">
+      <c r="B11" s="29">
+        <v>1</v>
+      </c>
+      <c r="D11" s="29">
+        <v>1000350620</v>
+      </c>
+      <c r="E11" s="39">
+        <v>10</v>
+      </c>
+      <c r="G11" s="46">
+        <v>1000350620</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="J11" s="46">
+        <v>1000350620</v>
+      </c>
+      <c r="K11" s="56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
+        <v>1016841206</v>
+      </c>
+      <c r="B12" s="29">
+        <v>1</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>277</v>
+      </c>
+      <c r="E12" s="80"/>
+      <c r="G12" s="38">
+        <v>1016841206</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="J12" s="38">
+        <v>1016841206</v>
+      </c>
+      <c r="K12" s="56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
+        <v>1003275748</v>
+      </c>
+      <c r="B13" s="29">
+        <v>1</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="G13" s="38">
+        <v>1003275748</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="J13" s="38">
+        <v>1003275748</v>
+      </c>
+      <c r="K13" s="56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
+        <v>1011153857</v>
+      </c>
+      <c r="B14" s="29">
+        <v>1</v>
+      </c>
+      <c r="G14" s="38">
+        <v>1011153857</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="J14" s="38">
+        <v>1011153857</v>
+      </c>
+      <c r="K14" s="56">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38">
+        <v>1026238784</v>
+      </c>
+      <c r="B15" s="29">
+        <v>1</v>
+      </c>
+      <c r="G15" s="38">
+        <v>1026238784</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="J15" s="38">
+        <v>1026238784</v>
+      </c>
+      <c r="K15" s="56">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38">
+        <v>1011752470</v>
+      </c>
+      <c r="B16" s="29">
+        <v>1</v>
+      </c>
+      <c r="G16" s="38">
+        <v>1011752470</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="J16" s="38">
+        <v>1011752470</v>
+      </c>
+      <c r="K16" s="56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38">
+        <v>1000016762</v>
+      </c>
+      <c r="B17" s="29">
+        <v>1</v>
+      </c>
+      <c r="G17" s="38">
+        <v>1000016762</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="J17" s="38">
+        <v>1000016762</v>
+      </c>
+      <c r="K17" s="56">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
+        <v>1021928374</v>
+      </c>
+      <c r="B18" s="29">
+        <v>1</v>
+      </c>
+      <c r="G18" s="38">
+        <v>1021928374</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="J18" s="38">
+        <v>1021928374</v>
+      </c>
+      <c r="K18" s="56">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38">
+        <v>1015159424</v>
+      </c>
+      <c r="B19" s="29">
+        <v>1</v>
+      </c>
+      <c r="G19" s="38">
+        <v>1015159424</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="J19" s="38">
+        <v>1015159424</v>
+      </c>
+      <c r="K19" s="56">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
+        <v>1009812763</v>
+      </c>
+      <c r="B20" s="29">
+        <v>1</v>
+      </c>
+      <c r="G20" s="38">
+        <v>1009812763</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="J20" s="38">
+        <v>1009812763</v>
+      </c>
+      <c r="K20" s="56">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38">
+        <v>10281927364</v>
+      </c>
+      <c r="B21" s="29">
+        <v>1</v>
+      </c>
+      <c r="G21" s="38">
+        <v>10281927364</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="J21" s="38">
+        <v>10281927364</v>
+      </c>
+      <c r="K21" s="56">
         <v>20</v>
       </c>
-      <c r="E11" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="G11" s="29">
-        <v>1000350620</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="29">
-        <v>1000350620</v>
-      </c>
-      <c r="K11" s="40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
-        <v>1016841206</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="83" t="s">
-        <v>247</v>
-      </c>
-      <c r="E12" s="83"/>
-      <c r="G12" s="83" t="s">
-        <v>269</v>
-      </c>
-      <c r="H12" s="83"/>
-      <c r="J12" s="83" t="s">
-        <v>299</v>
-      </c>
-      <c r="K12" s="83"/>
-    </row>
-    <row r="13" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
-        <v>1003275748</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-    </row>
-    <row r="14" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
-        <v>1011153857</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
-        <v>1026238784</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
-        <v>1011752470</v>
-      </c>
-      <c r="B16" s="52" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39">
-        <v>1000016762</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39">
-        <v>1021928374</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39">
-        <v>1015159424</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39">
-        <v>1009812763</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39">
-        <v>10281927364</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="83" t="s">
-        <v>268</v>
-      </c>
-      <c r="B22" s="83"/>
-    </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="80" t="s">
+        <v>256</v>
+      </c>
+      <c r="B22" s="80"/>
+      <c r="G22" s="80" t="s">
+        <v>257</v>
+      </c>
+      <c r="H22" s="80"/>
+      <c r="J22" s="80" t="s">
+        <v>278</v>
+      </c>
+      <c r="K22" s="80"/>
+    </row>
+    <row r="23" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="D24" s="64" t="s">
-        <v>272</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G24" s="64" t="s">
-        <v>272</v>
-      </c>
-      <c r="H24" s="43" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="K24" s="34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>1013576811</v>
       </c>
-      <c r="B25" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="D25" s="64" t="s">
-        <v>278</v>
-      </c>
-      <c r="E25" s="29">
-        <v>1013576811</v>
-      </c>
-      <c r="G25" s="64" t="s">
-        <v>278</v>
-      </c>
-      <c r="H25" s="40">
+      <c r="B25" s="50">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="39">
+        <v>1</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="50">
+        <v>1</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="56">
+        <v>1</v>
+      </c>
+      <c r="K25" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>1001096125</v>
       </c>
-      <c r="B26" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="D26" s="64" t="s">
-        <v>279</v>
-      </c>
-      <c r="E26" s="29">
-        <v>1001096125</v>
-      </c>
-      <c r="G26" s="64" t="s">
-        <v>279</v>
-      </c>
-      <c r="H26" s="40">
+      <c r="B26" s="50">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="39">
+        <v>2</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="50">
+        <v>2</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="56">
+        <v>2</v>
+      </c>
+      <c r="K26" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <v>1012316243</v>
       </c>
-      <c r="B27" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="D27" s="64" t="s">
-        <v>280</v>
-      </c>
-      <c r="E27" s="29">
-        <v>1012316243</v>
-      </c>
-      <c r="G27" s="64" t="s">
-        <v>280</v>
-      </c>
-      <c r="H27" s="40">
+      <c r="B27" s="50">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="39">
+        <v>3</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="50">
+        <v>3</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="56">
+        <v>3</v>
+      </c>
+      <c r="K27" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
         <v>1016942358</v>
       </c>
-      <c r="B28" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="D28" s="64" t="s">
-        <v>281</v>
-      </c>
-      <c r="E28" s="29">
-        <v>1016942358</v>
-      </c>
-      <c r="G28" s="64" t="s">
-        <v>281</v>
-      </c>
-      <c r="H28" s="40">
+      <c r="B28" s="50">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="39">
+        <v>4</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="50">
+        <v>4</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="56">
+        <v>4</v>
+      </c>
+      <c r="K28" s="34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
         <v>1192831945</v>
       </c>
-      <c r="B29" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="D29" s="64" t="s">
-        <v>282</v>
-      </c>
-      <c r="E29" s="29">
-        <v>1192831945</v>
-      </c>
-      <c r="G29" s="64" t="s">
-        <v>282</v>
-      </c>
-      <c r="H29" s="40">
+      <c r="B29" s="50">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="39">
+        <v>5</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="50">
+        <v>5</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="56">
+        <v>5</v>
+      </c>
+      <c r="K29" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>1016943117</v>
       </c>
-      <c r="B30" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="D30" s="64" t="s">
-        <v>283</v>
-      </c>
-      <c r="E30" s="29">
-        <v>1016943117</v>
-      </c>
-      <c r="G30" s="64" t="s">
-        <v>283</v>
-      </c>
-      <c r="H30" s="40">
+      <c r="B30" s="50">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="39">
+        <v>6</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="50">
+        <v>6</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="56">
+        <v>6</v>
+      </c>
+      <c r="K30" s="34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>1010051342</v>
       </c>
-      <c r="B31" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="D31" s="64" t="s">
-        <v>284</v>
-      </c>
-      <c r="E31" s="29">
-        <v>1010051342</v>
-      </c>
-      <c r="G31" s="64" t="s">
-        <v>284</v>
-      </c>
-      <c r="H31" s="40">
+      <c r="B31" s="50">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="39">
+        <v>7</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="50">
+        <v>7</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="J31" s="56">
+        <v>7</v>
+      </c>
+      <c r="K31" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <v>1006051207</v>
       </c>
-      <c r="B32" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="D32" s="64" t="s">
-        <v>285</v>
-      </c>
-      <c r="E32" s="29">
-        <v>1006051207</v>
-      </c>
-      <c r="G32" s="64" t="s">
-        <v>285</v>
-      </c>
-      <c r="H32" s="40">
+      <c r="B32" s="50">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="39">
+        <v>8</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="50">
+        <v>8</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="J32" s="56">
+        <v>8</v>
+      </c>
+      <c r="K32" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29">
         <v>1014176160</v>
       </c>
-      <c r="B33" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="D33" s="64" t="s">
-        <v>286</v>
-      </c>
-      <c r="E33" s="29">
-        <v>1014176160</v>
-      </c>
-      <c r="G33" s="64" t="s">
-        <v>286</v>
-      </c>
-      <c r="H33" s="40">
+      <c r="B33" s="50">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="51">
+      <c r="D33" s="39">
+        <v>9</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="50">
+        <v>9</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J33" s="56">
+        <v>9</v>
+      </c>
+      <c r="K33" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="46">
         <v>1000350620</v>
       </c>
-      <c r="B34" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="D34" s="64" t="s">
-        <v>287</v>
-      </c>
-      <c r="E34" s="51">
-        <v>1000350620</v>
-      </c>
-      <c r="G34" s="64" t="s">
-        <v>287</v>
-      </c>
-      <c r="H34" s="40">
+      <c r="B34" s="50">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="39">
+      <c r="D34" s="39">
+        <v>10</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="80" t="s">
+        <v>281</v>
+      </c>
+      <c r="H34" s="80"/>
+      <c r="J34" s="56">
+        <v>10</v>
+      </c>
+      <c r="K34" s="34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="38">
         <v>1016841206</v>
       </c>
-      <c r="B35" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="D35" s="64" t="s">
-        <v>288</v>
-      </c>
-      <c r="E35" s="39">
-        <v>1016841206</v>
-      </c>
-      <c r="G35" s="64" t="s">
-        <v>288</v>
-      </c>
-      <c r="H35" s="40">
+      <c r="B35" s="50">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="39">
+      <c r="D35" s="80" t="s">
+        <v>280</v>
+      </c>
+      <c r="E35" s="80"/>
+      <c r="J35" s="80" t="s">
+        <v>282</v>
+      </c>
+      <c r="K35" s="80"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="38">
         <v>1003275748</v>
       </c>
-      <c r="B36" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="D36" s="64" t="s">
-        <v>289</v>
-      </c>
-      <c r="E36" s="39">
-        <v>1003275748</v>
-      </c>
-      <c r="G36" s="64" t="s">
-        <v>289</v>
-      </c>
-      <c r="H36" s="40">
+      <c r="B36" s="50">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="39">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="38">
         <v>1011153857</v>
       </c>
-      <c r="B37" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="D37" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="E37" s="39">
-        <v>1011153857</v>
-      </c>
-      <c r="G37" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="H37" s="40">
+      <c r="B37" s="50">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="39">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="38">
         <v>1026238784</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="50">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="38">
+        <v>1011752470</v>
+      </c>
+      <c r="B39" s="50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="38">
+        <v>1000016762</v>
+      </c>
+      <c r="B40" s="50">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="38">
+        <v>1021928374</v>
+      </c>
+      <c r="B41" s="50">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="38">
+        <v>1015159424</v>
+      </c>
+      <c r="B42" s="50">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="38">
+        <v>1009812763</v>
+      </c>
+      <c r="B43" s="50">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="38">
+        <v>10281927364</v>
+      </c>
+      <c r="B44" s="50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="80" t="s">
+        <v>279</v>
+      </c>
+      <c r="B45" s="80"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L47" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="79" t="s">
+        <v>283</v>
+      </c>
+      <c r="C48" s="79"/>
+      <c r="F48" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="I48" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="J48" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="L48" s="79" t="s">
+        <v>255</v>
+      </c>
+      <c r="M48" s="79"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C49" s="59">
+        <v>1</v>
+      </c>
+      <c r="F49" s="59">
+        <v>1</v>
+      </c>
+      <c r="I49" s="79" t="s">
+        <v>257</v>
+      </c>
+      <c r="J49" s="79"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C50" s="60">
+        <v>1</v>
+      </c>
+      <c r="F50" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="G50" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C51" s="66">
+        <v>1</v>
+      </c>
+      <c r="F51" s="79" t="s">
         <v>253</v>
       </c>
-      <c r="D38" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="E38" s="39">
-        <v>1026238784</v>
-      </c>
-      <c r="G38" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="H38" s="40">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="39">
-        <v>1011752470</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="D39" s="64" t="s">
-        <v>292</v>
-      </c>
-      <c r="E39" s="39">
-        <v>1011752470</v>
-      </c>
-      <c r="G39" s="64" t="s">
-        <v>292</v>
-      </c>
-      <c r="H39" s="40">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="39">
-        <v>1000016762</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="D40" s="64" t="s">
-        <v>293</v>
-      </c>
-      <c r="E40" s="39">
-        <v>1000016762</v>
-      </c>
-      <c r="G40" s="64" t="s">
-        <v>293</v>
-      </c>
-      <c r="H40" s="40">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="39">
-        <v>1021928374</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="D41" s="64" t="s">
-        <v>294</v>
-      </c>
-      <c r="E41" s="39">
-        <v>1021928374</v>
-      </c>
-      <c r="G41" s="64" t="s">
-        <v>294</v>
-      </c>
-      <c r="H41" s="40">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="39">
-        <v>1015159424</v>
-      </c>
-      <c r="B42" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="D42" s="64" t="s">
-        <v>295</v>
-      </c>
-      <c r="E42" s="39">
-        <v>1015159424</v>
-      </c>
-      <c r="G42" s="64" t="s">
-        <v>295</v>
-      </c>
-      <c r="H42" s="40">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="39">
-        <v>1009812763</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="D43" s="64" t="s">
-        <v>296</v>
-      </c>
-      <c r="E43" s="39">
-        <v>1009812763</v>
-      </c>
-      <c r="G43" s="64" t="s">
-        <v>296</v>
-      </c>
-      <c r="H43" s="40">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="39">
-        <v>10281927364</v>
-      </c>
-      <c r="B44" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="D44" s="64" t="s">
-        <v>297</v>
-      </c>
-      <c r="E44" s="39">
-        <v>10281927364</v>
-      </c>
-      <c r="G44" s="64" t="s">
-        <v>297</v>
-      </c>
-      <c r="H44" s="40">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="83" t="s">
-        <v>270</v>
-      </c>
-      <c r="B45" s="83"/>
-      <c r="D45" s="83" t="s">
-        <v>298</v>
-      </c>
-      <c r="E45" s="83"/>
-      <c r="G45" s="83" t="s">
-        <v>301</v>
-      </c>
-      <c r="H45" s="83"/>
-    </row>
-    <row r="47" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="56">
+      <c r="G51" s="79"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E52" s="62">
         <v>1</v>
       </c>
-      <c r="L47" s="59" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C48" s="48">
+      <c r="F52" s="59">
         <v>1</v>
       </c>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="L48" s="48">
+      <c r="G52" s="59">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C49" s="55">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C53" s="79" t="s">
+        <v>276</v>
+      </c>
+      <c r="D53" s="79"/>
+      <c r="E53" s="63">
         <v>1</v>
       </c>
-      <c r="F49" s="49"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="54" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="86" t="s">
-        <v>246</v>
-      </c>
-      <c r="C50" s="86"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="L50" s="87" t="s">
-        <v>267</v>
-      </c>
-      <c r="M50" s="77"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="L51" s="56">
+      <c r="F53" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C52" s="50"/>
-      <c r="I52" s="88" t="s">
-        <v>270</v>
-      </c>
-      <c r="J52" s="88"/>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I53" s="60" t="s">
-        <v>239</v>
-      </c>
-      <c r="J53" s="60" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F54" s="57" t="s">
-        <v>239</v>
-      </c>
-      <c r="G54" s="59" t="s">
-        <v>239</v>
-      </c>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F55" s="58">
+      <c r="G53" s="60">
         <v>1</v>
       </c>
-      <c r="G55" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F56" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="G56" s="58">
+      <c r="I53" s="79" t="s">
+        <v>259</v>
+      </c>
+      <c r="J53" s="79"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C54" s="68">
         <v>1</v>
       </c>
-      <c r="H56" s="56">
+      <c r="D54" s="64">
         <v>1</v>
       </c>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F57" s="90" t="s">
-        <v>265</v>
-      </c>
-      <c r="G57" s="90"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F58" s="69">
+      <c r="E54" s="66">
         <v>1</v>
       </c>
-      <c r="G58" s="61">
+      <c r="F54" s="66">
         <v>1</v>
       </c>
-      <c r="H58" s="68"/>
-      <c r="I58" s="18"/>
-      <c r="K58" s="18"/>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F59" s="69">
+      <c r="G54" s="66">
         <v>1</v>
       </c>
-      <c r="G59" s="62">
+      <c r="I54" s="65">
         <v>1</v>
       </c>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F60" s="57">
+      <c r="J54" s="68">
         <v>1</v>
       </c>
-      <c r="G60" s="56">
+      <c r="L54" s="67" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D55" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="I55" s="60">
         <v>1</v>
       </c>
-      <c r="H60" s="18"/>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C61" s="56" t="s">
-        <v>239</v>
-      </c>
-      <c r="H61" s="18"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="68"/>
-      <c r="L61" s="56" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C62" s="61">
+      <c r="L55" s="79" t="s">
+        <v>284</v>
+      </c>
+      <c r="M55" s="79"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D56" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="I56" s="66">
         <v>1</v>
       </c>
-      <c r="H62" s="18"/>
-      <c r="I62" s="89"/>
-      <c r="J62" s="89"/>
-      <c r="L62" s="63">
+      <c r="M56" s="68" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F57" s="66" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F58" s="59">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C63" s="61" t="s">
-        <v>239</v>
-      </c>
-      <c r="H63" s="18"/>
-      <c r="I63" s="67"/>
-      <c r="L63" s="61" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="85" t="s">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F59" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="G59" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F60" s="79" t="s">
+        <v>272</v>
+      </c>
+      <c r="G60" s="79"/>
+      <c r="I60" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="J60" s="66" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I61" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="J61" s="81"/>
+      <c r="L61" s="67">
+        <v>1</v>
+      </c>
+      <c r="M61" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L62" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="85"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="L64" s="91" t="s">
-        <v>273</v>
-      </c>
-      <c r="M64" s="91"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C65" s="61">
+      <c r="M62" s="79"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C63" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="L63" s="68">
         <v>1</v>
       </c>
-      <c r="F65" t="s">
-        <v>271</v>
-      </c>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="L65" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C66" s="62" t="s">
-        <v>239</v>
-      </c>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="L66" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C67" s="56" t="s">
-        <v>239</v>
-      </c>
-      <c r="L67" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L70" s="71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B71" s="84" t="s">
-        <v>228</v>
-      </c>
-      <c r="C71" s="84"/>
-      <c r="L71" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C72" s="63">
-        <v>1</v>
-      </c>
-      <c r="L72" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C73" s="61">
-        <v>1</v>
-      </c>
-      <c r="L73" s="82" t="s">
-        <v>302</v>
-      </c>
-      <c r="M73" s="76"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C74" s="56">
-        <v>1</v>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C64" s="79" t="s">
+        <v>282</v>
+      </c>
+      <c r="D64" s="79"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="68" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="G12:H12"/>
+  <mergeCells count="19">
+    <mergeCell ref="C64:D64"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="J22:K22"/>
     <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="C53:D53"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Primer_Trimestres/Nomalizacion/correccion/Normalización .xlsx
+++ b/Primer_Trimestres/Nomalizacion/correccion/Normalización .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heelen\OneDrive\Documentos\GitHub\farmifarmacy1.0\Primer_Trimestres\Nomalizacion\correccion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d01d89a1400d5043/Documentos/GitHub/farmifarmacy1.0/Primer_Trimestres/Nomalizacion/correccion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AFA8DCF-3C1A-48DD-B7D9-62F7163A1C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{9AFA8DCF-3C1A-48DD-B7D9-62F7163A1C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF6A613F-2422-443E-89C2-D846455EAA86}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="3" activeTab="7" xr2:uid="{EB7CC955-6B47-4A67-9DA5-CC93A65E4CC7}"/>
   </bookViews>
@@ -27,12 +27,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="285">
   <si>
     <t>identificacion</t>
   </si>
@@ -1076,7 +1083,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1176,6 +1183,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1183,7 +1201,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1390,6 +1408,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1496,61 +1526,6 @@
         <a:xfrm flipV="1">
           <a:off x="7200900" y="9334500"/>
           <a:ext cx="895350" cy="190501"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Conector recto 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AC2B656-06AD-4029-AA09-C9503049EDCA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10210800" y="8953500"/>
-          <a:ext cx="857250" cy="180976"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2671,7 +2646,7 @@
       </c>
       <c r="D2" s="15">
         <f ca="1">NOW()</f>
-        <v>44426.910352083331</v>
+        <v>44480.914987847224</v>
       </c>
       <c r="E2" s="15">
         <v>44673.458333333336</v>
@@ -2689,7 +2664,7 @@
       </c>
       <c r="D3" s="15">
         <f t="shared" ref="D3:D20" ca="1" si="0">NOW()</f>
-        <v>44426.910352083331</v>
+        <v>44480.914987847224</v>
       </c>
       <c r="E3" s="15">
         <v>44674.458333333336</v>
@@ -2707,7 +2682,7 @@
       </c>
       <c r="D4" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44426.910352083331</v>
+        <v>44480.914987847224</v>
       </c>
       <c r="E4" s="15">
         <v>44675.458333333336</v>
@@ -2725,7 +2700,7 @@
       </c>
       <c r="D5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44426.910352083331</v>
+        <v>44480.914987847224</v>
       </c>
       <c r="E5" s="15">
         <v>44676.458333333336</v>
@@ -2743,7 +2718,7 @@
       </c>
       <c r="D6" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44426.910352083331</v>
+        <v>44480.914987847224</v>
       </c>
       <c r="E6" s="15">
         <v>44677.458333333336</v>
@@ -2761,7 +2736,7 @@
       </c>
       <c r="D7" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44426.910352083331</v>
+        <v>44480.914987847224</v>
       </c>
       <c r="E7" s="15">
         <v>44678.458333333336</v>
@@ -2779,7 +2754,7 @@
       </c>
       <c r="D8" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44426.910352083331</v>
+        <v>44480.914987847224</v>
       </c>
       <c r="E8" s="15">
         <v>44679.458333333336</v>
@@ -2797,7 +2772,7 @@
       </c>
       <c r="D9" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44426.910352083331</v>
+        <v>44480.914987847224</v>
       </c>
       <c r="E9" s="15">
         <v>44680.458333333336</v>
@@ -2815,7 +2790,7 @@
       </c>
       <c r="D10" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44426.910352083331</v>
+        <v>44480.914987847224</v>
       </c>
       <c r="E10" s="15">
         <v>44681.458333333336</v>
@@ -2833,7 +2808,7 @@
       </c>
       <c r="D11" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44426.910352083331</v>
+        <v>44480.914987847224</v>
       </c>
       <c r="E11" s="15">
         <v>44682.458333333336</v>
@@ -2851,7 +2826,7 @@
       </c>
       <c r="D12" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44426.910352083331</v>
+        <v>44480.914987847224</v>
       </c>
       <c r="E12" s="15">
         <v>44683.458333333336</v>
@@ -2869,7 +2844,7 @@
       </c>
       <c r="D13" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44426.910352083331</v>
+        <v>44480.914987847224</v>
       </c>
       <c r="E13" s="15">
         <v>44684.458333333336</v>
@@ -2887,7 +2862,7 @@
       </c>
       <c r="D14" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44426.910352083331</v>
+        <v>44480.914987847224</v>
       </c>
       <c r="E14" s="15">
         <v>44685.458333333336</v>
@@ -2905,7 +2880,7 @@
       </c>
       <c r="D15" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44426.910352083331</v>
+        <v>44480.914987847224</v>
       </c>
       <c r="E15" s="15">
         <v>44686.458333333336</v>
@@ -2923,7 +2898,7 @@
       </c>
       <c r="D16" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44426.910352083331</v>
+        <v>44480.914987847224</v>
       </c>
       <c r="E16" s="15">
         <v>44687.458333333336</v>
@@ -2941,7 +2916,7 @@
       </c>
       <c r="D17" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44426.910352083331</v>
+        <v>44480.914987847224</v>
       </c>
       <c r="E17" s="15">
         <v>44688.458333333336</v>
@@ -2959,7 +2934,7 @@
       </c>
       <c r="D18" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44426.910352083331</v>
+        <v>44480.914987847224</v>
       </c>
       <c r="E18" s="15">
         <v>44689.458333333336</v>
@@ -2977,7 +2952,7 @@
       </c>
       <c r="D19" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44426.910352083331</v>
+        <v>44480.914987847224</v>
       </c>
       <c r="E19" s="15">
         <v>44690.458333333336</v>
@@ -2995,7 +2970,7 @@
       </c>
       <c r="D20" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44426.910352083331</v>
+        <v>44480.914987847224</v>
       </c>
       <c r="E20" s="15">
         <v>44691.458333333336</v>
@@ -3207,7 +3182,7 @@
       </c>
       <c r="F1" s="5">
         <f ca="1">NOW()</f>
-        <v>44426.910352083331</v>
+        <v>44480.914987847224</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3498,11 +3473,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C18"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A1:B1"/>
@@ -3510,6 +3480,11 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C18"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6327,8 +6302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15CDDD0-1EC6-46EB-86DD-BB5C7073D9F7}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7087,7 +7062,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29">
         <v>1014176160</v>
       </c>
@@ -7113,7 +7088,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="46">
         <v>1000350620</v>
       </c>
@@ -7137,7 +7112,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="38">
         <v>1016841206</v>
       </c>
@@ -7153,7 +7128,7 @@
       </c>
       <c r="K35" s="80"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="38">
         <v>1003275748</v>
       </c>
@@ -7161,7 +7136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="38">
         <v>1011153857</v>
       </c>
@@ -7169,7 +7144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="38">
         <v>1026238784</v>
       </c>
@@ -7177,7 +7152,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="38">
         <v>1011752470</v>
       </c>
@@ -7185,7 +7160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
         <v>1000016762</v>
       </c>
@@ -7193,7 +7168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="38">
         <v>1021928374</v>
       </c>
@@ -7201,7 +7176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <v>1015159424</v>
       </c>
@@ -7209,7 +7184,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="38">
         <v>1009812763</v>
       </c>
@@ -7217,7 +7192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="38">
         <v>10281927364</v>
       </c>
@@ -7225,18 +7200,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="80" t="s">
         <v>279</v>
       </c>
       <c r="B45" s="80"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L47" s="67">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I47" s="85">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L47" s="83"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" s="79" t="s">
         <v>283</v>
       </c>
@@ -7244,26 +7220,23 @@
       <c r="F48" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="I48" s="67" t="s">
-        <v>230</v>
-      </c>
-      <c r="J48" s="67" t="s">
-        <v>230</v>
-      </c>
-      <c r="L48" s="79" t="s">
-        <v>255</v>
-      </c>
-      <c r="M48" s="79"/>
+      <c r="I48" s="85">
+        <v>1</v>
+      </c>
+      <c r="J48" s="83"/>
     </row>
     <row r="49" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C49" s="59">
         <v>1</v>
       </c>
-      <c r="F49" s="59">
+      <c r="F49" s="65">
         <v>1</v>
       </c>
-      <c r="I49" s="79" t="s">
-        <v>257</v>
+      <c r="G49" s="85" t="s">
+        <v>230</v>
+      </c>
+      <c r="I49" s="82" t="s">
+        <v>255</v>
       </c>
       <c r="J49" s="79"/>
     </row>
@@ -7274,7 +7247,7 @@
       <c r="F50" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="G50" s="67">
+      <c r="G50" s="84">
         <v>1</v>
       </c>
     </row>
@@ -7434,7 +7407,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="18">
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="C53:D53"/>
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="G22:H22"/>
@@ -7450,10 +7426,6 @@
     <mergeCell ref="J35:K35"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="F51:G51"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="C53:D53"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Primer_Trimestres/Nomalizacion/correccion/Normalización .xlsx
+++ b/Primer_Trimestres/Nomalizacion/correccion/Normalización .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d01d89a1400d5043/Documentos/GitHub/farmifarmacy1.0/Primer_Trimestres/Nomalizacion/correccion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d01d89a1400d5043/Documentos/FARMIFARMACY/Docs excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{9AFA8DCF-3C1A-48DD-B7D9-62F7163A1C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF6A613F-2422-443E-89C2-D846455EAA86}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{5D5CD52F-53E4-4F0F-B9B6-38621EE8DA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF543552-2428-4FDE-A4B3-9177D6661B22}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="3" activeTab="7" xr2:uid="{EB7CC955-6B47-4A67-9DA5-CC93A65E4CC7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="270">
   <si>
     <t>identificacion</t>
   </si>
@@ -728,27 +728,9 @@
     <t>Lote</t>
   </si>
   <si>
-    <t xml:space="preserve">T_Doc </t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>Desc_T-doc</t>
-  </si>
-  <si>
-    <t>Tarjeta de identidad</t>
-  </si>
-  <si>
-    <t>Cédula de Ciudadania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cédula de Extranjería </t>
-  </si>
-  <si>
-    <t>TIPO_DOCUMENTO</t>
-  </si>
-  <si>
     <t>Cod_rol</t>
   </si>
   <si>
@@ -770,33 +752,6 @@
     <t>r_3</t>
   </si>
   <si>
-    <t xml:space="preserve">Imagen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">aceite de bacalao.jpg </t>
-  </si>
-  <si>
-    <t>jarabe abrilar.jpg</t>
-  </si>
-  <si>
-    <t>caja de acetaminofén.jpg</t>
-  </si>
-  <si>
-    <t>jarabe acetaminofén.jpg</t>
-  </si>
-  <si>
-    <t>acetaminofén en gotas.jpg</t>
-  </si>
-  <si>
-    <t>acetato de aluminio caja.jpg</t>
-  </si>
-  <si>
-    <t>acetilcisteína en polvo.jpg</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
     <t>Activo</t>
   </si>
   <si>
@@ -809,108 +764,104 @@
     <t>ROL</t>
   </si>
   <si>
-    <t>USUARIO-TIPO_DOCUMENTO</t>
-  </si>
-  <si>
     <t>USUARIO-ROL</t>
   </si>
   <si>
     <t>Carro de Compras</t>
   </si>
   <si>
-    <t>CARRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cod_Carro </t>
-  </si>
-  <si>
-    <t>Subtotal</t>
-  </si>
-  <si>
     <t xml:space="preserve">Estado </t>
   </si>
   <si>
-    <t xml:space="preserve">Id_Ingreso </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id_Empleado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factura </t>
-  </si>
-  <si>
-    <t>E_001</t>
-  </si>
-  <si>
-    <t>E_002</t>
-  </si>
-  <si>
-    <t>E_003</t>
-  </si>
-  <si>
-    <t>E_004</t>
-  </si>
-  <si>
-    <t>E_005</t>
-  </si>
-  <si>
-    <t>INGRESO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id_Compra </t>
-  </si>
-  <si>
-    <t>Iva</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>COMPRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USUARIO-CARRO </t>
-  </si>
-  <si>
-    <t>USUARIO-COMPRA</t>
-  </si>
-  <si>
-    <t>USUARIO-INGRESO</t>
-  </si>
-  <si>
-    <t>CARRO-PRODUCTO</t>
-  </si>
-  <si>
-    <t>INGRESO-PRODUCTO</t>
-  </si>
-  <si>
-    <t>COMPRA-PRODUCTO</t>
-  </si>
-  <si>
-    <t>TIPO-DOCUMENTO</t>
-  </si>
-  <si>
-    <t>PRODUCTO-CARRO</t>
+    <t>VENTA</t>
+  </si>
+  <si>
+    <t>id_venta</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fecha </t>
+  </si>
+  <si>
+    <t>precio_venta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_media </t>
+  </si>
+  <si>
+    <t>nombre_archivo</t>
+  </si>
+  <si>
+    <t>tipo_arhivo</t>
+  </si>
+  <si>
+    <t>img1</t>
+  </si>
+  <si>
+    <t>img2</t>
+  </si>
+  <si>
+    <t>img3</t>
+  </si>
+  <si>
+    <t>jpg</t>
+  </si>
+  <si>
+    <t>png</t>
+  </si>
+  <si>
+    <t>jpeg</t>
+  </si>
+  <si>
+    <t>MEDIA</t>
+  </si>
+  <si>
+    <t>id_categoria</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>pastas</t>
+  </si>
+  <si>
+    <t>jarabes</t>
+  </si>
+  <si>
+    <t>vendas</t>
+  </si>
+  <si>
+    <t>CATEGORIA</t>
+  </si>
+  <si>
+    <t>USUARIO-VENTA</t>
+  </si>
+  <si>
+    <t>VENTA-PRODUCTO</t>
+  </si>
+  <si>
+    <t>PRODUCTO-CATEGORIA</t>
+  </si>
+  <si>
+    <t>PRODUCTO-MEDIA</t>
+  </si>
+  <si>
+    <t>USUARIO-MEDIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.000_-;\-&quot;$&quot;\ * #,##0.000_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0.000_-;\-&quot;$&quot;* #,##0.000_-;_-&quot;$&quot;* &quot;-&quot;???_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;???_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="0000"/>
-    <numFmt numFmtId="169" formatCode="00"/>
-    <numFmt numFmtId="170" formatCode="dd\-mm\-yyyy;@"/>
-    <numFmt numFmtId="171" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="172" formatCode="000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -955,7 +906,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1000,12 +951,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1013,12 +958,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,24 +981,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1072,18 +993,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1115,85 +1060,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1201,7 +1067,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1257,116 +1123,37 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1378,47 +1165,78 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1444,23 +1262,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Conector recto 3">
+        <xdr:cNvPr id="3" name="Conector recto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1DC85B2-D208-4DE6-8395-541CF04DF861}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F683547-F7FE-4B37-A49B-2F3B07DCF756}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1468,523 +1286,23 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3067050" y="9144000"/>
-          <a:ext cx="1933575" cy="361950"/>
+          <a:off x="3067050" y="9429750"/>
+          <a:ext cx="1933575" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent6"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Conector recto 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EF05279-9030-4F4D-B820-C00BB1E4F9C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7200900" y="9334500"/>
-          <a:ext cx="895350" cy="190501"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Conector recto 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF85AFE3-10C3-4153-9F7E-991EB86F404A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10210800" y="10096500"/>
-          <a:ext cx="847725" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Conector recto 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94185BD2-019C-43B6-A801-85A0DA0335ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="13077825" y="10487025"/>
-          <a:ext cx="0" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="92D050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Conector recto 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD601D9-1E7A-442A-B61E-1B2596ACC1D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10210800" y="11430000"/>
-          <a:ext cx="857250" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Conector recto 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B7FF5E-18C6-4D13-A222-B2E36C3712DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7191375" y="11239500"/>
-          <a:ext cx="923925" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Conector recto 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5956776A-1678-41B6-BE6B-A70902A11FED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3914775" y="9725025"/>
-          <a:ext cx="1085850" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Conector recto 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B6F976-6ADF-4EBE-AF6A-541EDE88ABAC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3057525" y="10096500"/>
-          <a:ext cx="9525" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Conector recto 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBAEF5D3-C379-4A32-B72C-5210627094D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3914775" y="11830050"/>
-          <a:ext cx="7162800" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Conector recto 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28B33800-434B-4A2F-9BDF-82E332005D0D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7191375" y="9715500"/>
-          <a:ext cx="923925" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1997,49 +1315,300 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Conector recto 37">
+        <xdr:cNvPr id="16" name="Conector recto 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A787A5A-8BDB-41A8-B9A0-0F8F0708A16B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4383D3E-B1FE-457E-95AF-EEBFE5758A08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6086475" y="9715501"/>
-          <a:ext cx="9525" cy="1523999"/>
+        <a:xfrm>
+          <a:off x="6115050" y="9334500"/>
+          <a:ext cx="1914525" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent6"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Conector recto 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07B56B7B-9A2A-49F6-9822-15DEC7C38CE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9115425" y="9534525"/>
+          <a:ext cx="0" cy="1504950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Conector recto 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A682ABF-C475-4B2B-B19D-50869A505CCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9144000" y="10287000"/>
+          <a:ext cx="857250" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Conector recto 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A538A40B-7BAA-4A49-BA3B-A6385E4F8CCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6115050" y="10287000"/>
+          <a:ext cx="1905000" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Conector recto 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C697D09-8662-4346-BF46-B219A1160516}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990725" y="9525000"/>
+          <a:ext cx="1914525" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Conector recto 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825D61D4-53F8-40E6-A5F7-006100AEDE36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1133475" y="9496425"/>
+          <a:ext cx="9525" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2646,7 +2215,7 @@
       </c>
       <c r="D2" s="15">
         <f ca="1">NOW()</f>
-        <v>44480.914987847224</v>
+        <v>44522.8277431713</v>
       </c>
       <c r="E2" s="15">
         <v>44673.458333333336</v>
@@ -2664,7 +2233,7 @@
       </c>
       <c r="D3" s="15">
         <f t="shared" ref="D3:D20" ca="1" si="0">NOW()</f>
-        <v>44480.914987847224</v>
+        <v>44522.8277431713</v>
       </c>
       <c r="E3" s="15">
         <v>44674.458333333336</v>
@@ -2682,7 +2251,7 @@
       </c>
       <c r="D4" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44480.914987847224</v>
+        <v>44522.8277431713</v>
       </c>
       <c r="E4" s="15">
         <v>44675.458333333336</v>
@@ -2700,7 +2269,7 @@
       </c>
       <c r="D5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44480.914987847224</v>
+        <v>44522.8277431713</v>
       </c>
       <c r="E5" s="15">
         <v>44676.458333333336</v>
@@ -2718,7 +2287,7 @@
       </c>
       <c r="D6" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44480.914987847224</v>
+        <v>44522.8277431713</v>
       </c>
       <c r="E6" s="15">
         <v>44677.458333333336</v>
@@ -2736,7 +2305,7 @@
       </c>
       <c r="D7" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44480.914987847224</v>
+        <v>44522.8277431713</v>
       </c>
       <c r="E7" s="15">
         <v>44678.458333333336</v>
@@ -2754,7 +2323,7 @@
       </c>
       <c r="D8" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44480.914987847224</v>
+        <v>44522.8277431713</v>
       </c>
       <c r="E8" s="15">
         <v>44679.458333333336</v>
@@ -2772,7 +2341,7 @@
       </c>
       <c r="D9" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44480.914987847224</v>
+        <v>44522.8277431713</v>
       </c>
       <c r="E9" s="15">
         <v>44680.458333333336</v>
@@ -2790,7 +2359,7 @@
       </c>
       <c r="D10" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44480.914987847224</v>
+        <v>44522.8277431713</v>
       </c>
       <c r="E10" s="15">
         <v>44681.458333333336</v>
@@ -2808,7 +2377,7 @@
       </c>
       <c r="D11" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44480.914987847224</v>
+        <v>44522.8277431713</v>
       </c>
       <c r="E11" s="15">
         <v>44682.458333333336</v>
@@ -2826,7 +2395,7 @@
       </c>
       <c r="D12" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44480.914987847224</v>
+        <v>44522.8277431713</v>
       </c>
       <c r="E12" s="15">
         <v>44683.458333333336</v>
@@ -2844,7 +2413,7 @@
       </c>
       <c r="D13" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44480.914987847224</v>
+        <v>44522.8277431713</v>
       </c>
       <c r="E13" s="15">
         <v>44684.458333333336</v>
@@ -2862,7 +2431,7 @@
       </c>
       <c r="D14" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44480.914987847224</v>
+        <v>44522.8277431713</v>
       </c>
       <c r="E14" s="15">
         <v>44685.458333333336</v>
@@ -2880,7 +2449,7 @@
       </c>
       <c r="D15" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44480.914987847224</v>
+        <v>44522.8277431713</v>
       </c>
       <c r="E15" s="15">
         <v>44686.458333333336</v>
@@ -2898,7 +2467,7 @@
       </c>
       <c r="D16" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44480.914987847224</v>
+        <v>44522.8277431713</v>
       </c>
       <c r="E16" s="15">
         <v>44687.458333333336</v>
@@ -2916,7 +2485,7 @@
       </c>
       <c r="D17" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44480.914987847224</v>
+        <v>44522.8277431713</v>
       </c>
       <c r="E17" s="15">
         <v>44688.458333333336</v>
@@ -2934,7 +2503,7 @@
       </c>
       <c r="D18" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44480.914987847224</v>
+        <v>44522.8277431713</v>
       </c>
       <c r="E18" s="15">
         <v>44689.458333333336</v>
@@ -2952,7 +2521,7 @@
       </c>
       <c r="D19" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44480.914987847224</v>
+        <v>44522.8277431713</v>
       </c>
       <c r="E19" s="15">
         <v>44690.458333333336</v>
@@ -2970,7 +2539,7 @@
       </c>
       <c r="D20" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44480.914987847224</v>
+        <v>44522.8277431713</v>
       </c>
       <c r="E20" s="15">
         <v>44691.458333333336</v>
@@ -3169,63 +2738,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="69">
+      <c r="B1" s="43"/>
+      <c r="C1" s="42">
         <v>1192831945</v>
       </c>
-      <c r="D1" s="69"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="5">
         <f ca="1">NOW()</f>
-        <v>44480.914987847224</v>
+        <v>44522.8277431713</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="71" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="69">
+      <c r="B4" s="42">
         <v>3172727783</v>
       </c>
-      <c r="C4" s="69"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="69"/>
+      <c r="F4" s="42"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -3418,39 +2987,39 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="69"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="6">
         <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69" t="s">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="69"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="6">
         <v>73.91</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69" t="s">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="69"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="6">
         <v>462.90999999999997</v>
       </c>
@@ -3473,6 +3042,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C18"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A1:B1"/>
@@ -3480,11 +3054,6 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C18"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4172,12 +3741,12 @@
         <v>135</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="L1" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="L1" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="40" t="s">
         <v>138</v>
       </c>
       <c r="N1" s="26" t="s">
@@ -4192,10 +3761,10 @@
       <c r="Q1" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="S1" s="40" t="s">
         <v>172</v>
       </c>
       <c r="T1" s="26" t="s">
@@ -4990,10 +4559,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154A3EB2-7D84-4648-B4B7-AFD12D379634}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:A44"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5020,39 +4589,33 @@
     <col min="25" max="25" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>1013576811</v>
       </c>
@@ -5066,23 +4629,17 @@
         <v>44</v>
       </c>
       <c r="E2" s="31"/>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="48" t="s">
         <v>45</v>
       </c>
       <c r="G2" s="31">
         <v>3122151254</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>1001096125</v>
       </c>
@@ -5098,23 +4655,17 @@
       <c r="E3" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="48" t="s">
         <v>49</v>
       </c>
       <c r="G3" s="31">
         <v>3012514581</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>1012316243</v>
       </c>
@@ -5130,23 +4681,17 @@
       <c r="E4" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="48" t="s">
         <v>52</v>
       </c>
       <c r="G4" s="31">
         <v>3204125846</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>1016942358</v>
       </c>
@@ -5162,23 +4707,17 @@
       <c r="E5" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="48" t="s">
         <v>56</v>
       </c>
       <c r="G5" s="31">
         <v>3043385964</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>1192831945</v>
       </c>
@@ -5194,23 +4733,17 @@
       <c r="E6" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="48" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="31">
         <v>3172727783</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>1016943117</v>
       </c>
@@ -5226,23 +4759,17 @@
       <c r="E7" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="48" t="s">
         <v>62</v>
       </c>
       <c r="G7" s="31">
         <v>3003441688</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>1010051342</v>
       </c>
@@ -5258,23 +4785,17 @@
       <c r="E8" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="48" t="s">
         <v>66</v>
       </c>
       <c r="G8" s="31">
         <v>3118271726</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>1006051207</v>
       </c>
@@ -5290,23 +4811,17 @@
       <c r="E9" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="48" t="s">
         <v>70</v>
       </c>
       <c r="G9" s="31">
         <v>3235940505</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>1014176160</v>
       </c>
@@ -5322,23 +4837,17 @@
       <c r="E10" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="48" t="s">
         <v>74</v>
       </c>
       <c r="G10" s="31">
         <v>3137528493</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>1000350620</v>
       </c>
@@ -5354,24 +4863,18 @@
       <c r="E11" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="48" t="s">
         <v>78</v>
       </c>
       <c r="G11" s="31">
         <v>3044568380</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="35">
         <v>1016841206</v>
       </c>
       <c r="B12" s="31" t="s">
@@ -5386,18 +4889,12 @@
       <c r="E12" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="35">
         <v>1003275748</v>
       </c>
       <c r="B13" s="31" t="s">
@@ -5410,18 +4907,12 @@
         <v>191</v>
       </c>
       <c r="E13" s="31"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="35">
         <v>1011153857</v>
       </c>
       <c r="B14" s="31" t="s">
@@ -5432,18 +4923,12 @@
         <v>115</v>
       </c>
       <c r="E14" s="31"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="35">
         <v>1026238784</v>
       </c>
       <c r="B15" s="31" t="s">
@@ -5458,18 +4943,12 @@
       <c r="E15" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="J15" s="31" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="35">
         <v>1011752470</v>
       </c>
       <c r="B16" s="31" t="s">
@@ -5482,18 +4961,12 @@
         <v>204</v>
       </c>
       <c r="E16" s="31"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="J16" s="31" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="35">
         <v>1000016762</v>
       </c>
       <c r="B17" s="31" t="s">
@@ -5508,18 +4981,12 @@
       <c r="E17" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="35">
         <v>1021928374</v>
       </c>
       <c r="B18" s="31" t="s">
@@ -5532,18 +4999,12 @@
         <v>123</v>
       </c>
       <c r="E18" s="31"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="J18" s="31" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="35">
         <v>1015159424</v>
       </c>
       <c r="B19" s="31" t="s">
@@ -5554,18 +5015,12 @@
         <v>125</v>
       </c>
       <c r="E19" s="31"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="J19" s="31" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="35">
         <v>1009812763</v>
       </c>
       <c r="B20" s="31" t="s">
@@ -5580,18 +5035,12 @@
       <c r="E20" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="J20" s="31" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="35">
         <v>10281927364</v>
       </c>
       <c r="B21" s="31" t="s">
@@ -5606,679 +5055,434 @@
       <c r="E21" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="31" t="s">
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="E24" s="39"/>
+      <c r="F24" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="36">
+        <v>1</v>
+      </c>
+      <c r="B25" s="50">
+        <v>1</v>
+      </c>
+      <c r="C25" s="51">
+        <v>389</v>
+      </c>
+      <c r="D25" s="52">
+        <v>44228</v>
+      </c>
+      <c r="F25" s="41">
+        <v>1</v>
+      </c>
+      <c r="G25" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="J21" s="31" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="72" t="s">
+      <c r="H25" s="62" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="36">
+        <v>2</v>
+      </c>
+      <c r="B26" s="50">
+        <v>2</v>
+      </c>
+      <c r="C26" s="51">
+        <v>389</v>
+      </c>
+      <c r="D26" s="52">
+        <v>44229</v>
+      </c>
+      <c r="F26" s="41">
+        <v>2</v>
+      </c>
+      <c r="G26" s="62" t="s">
         <v>253</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+      <c r="H26" s="62" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="36">
+        <v>3</v>
+      </c>
+      <c r="B27" s="50">
+        <v>3</v>
+      </c>
+      <c r="C27" s="51">
+        <v>389</v>
+      </c>
+      <c r="D27" s="52">
+        <v>44230</v>
+      </c>
+      <c r="F27" s="41">
+        <v>3</v>
+      </c>
+      <c r="G27" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="H27" s="62" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="36">
+        <v>4</v>
+      </c>
+      <c r="B28" s="50">
+        <v>4</v>
+      </c>
+      <c r="C28" s="51">
+        <v>389</v>
+      </c>
+      <c r="D28" s="52">
+        <v>44231</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+    </row>
+    <row r="29" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="36">
+        <v>5</v>
+      </c>
+      <c r="B29" s="50">
+        <v>5</v>
+      </c>
+      <c r="C29" s="51">
+        <v>389</v>
+      </c>
+      <c r="D29" s="52">
+        <v>44232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="36">
+        <v>6</v>
+      </c>
+      <c r="B30" s="50">
+        <v>6</v>
+      </c>
+      <c r="C30" s="51">
+        <v>389</v>
+      </c>
+      <c r="D30" s="52">
+        <v>44233</v>
+      </c>
+      <c r="F30" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="G30" s="61" t="s">
         <v>260</v>
       </c>
-      <c r="B24" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="43" t="s">
+    </row>
+    <row r="31" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="36">
+        <v>7</v>
+      </c>
+      <c r="B31" s="50">
+        <v>7</v>
+      </c>
+      <c r="C31" s="51">
+        <v>389</v>
+      </c>
+      <c r="D31" s="52">
+        <v>44234</v>
+      </c>
+      <c r="F31" s="60">
+        <v>1</v>
+      </c>
+      <c r="G31" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="D24" s="43" t="s">
+    </row>
+    <row r="32" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="36">
+        <v>8</v>
+      </c>
+      <c r="B32" s="50">
+        <v>8</v>
+      </c>
+      <c r="C32" s="51">
+        <v>389</v>
+      </c>
+      <c r="D32" s="52">
+        <v>44235</v>
+      </c>
+      <c r="F32" s="60">
+        <v>2</v>
+      </c>
+      <c r="G32" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="49" t="s">
+    </row>
+    <row r="33" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="36">
+        <v>9</v>
+      </c>
+      <c r="B33" s="50">
+        <v>9</v>
+      </c>
+      <c r="C33" s="51">
+        <v>389</v>
+      </c>
+      <c r="D33" s="52">
+        <v>44236</v>
+      </c>
+      <c r="F33" s="60">
+        <v>3</v>
+      </c>
+      <c r="G33" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="G24" s="51" t="s">
+    </row>
+    <row r="34" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="36">
+        <v>10</v>
+      </c>
+      <c r="B34" s="50">
+        <v>10</v>
+      </c>
+      <c r="C34" s="51">
+        <v>389</v>
+      </c>
+      <c r="D34" s="52">
+        <v>44237</v>
+      </c>
+      <c r="F34" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="H24" s="51" t="s">
-        <v>265</v>
-      </c>
-      <c r="I24" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="J24" s="36" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39">
+      <c r="G34" s="45"/>
+    </row>
+    <row r="35" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+    </row>
+    <row r="36" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="33">
         <v>1</v>
       </c>
-      <c r="B25" s="41">
-        <v>44228</v>
-      </c>
-      <c r="C25" s="48">
-        <v>389</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="F25" s="50">
-        <v>1</v>
-      </c>
-      <c r="G25" s="52">
-        <v>44540</v>
-      </c>
-      <c r="H25" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="I25" s="51"/>
-      <c r="J25" s="36" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39">
+      <c r="D38" s="34">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="33">
         <v>2</v>
       </c>
-      <c r="B26" s="41">
-        <v>44229</v>
-      </c>
-      <c r="C26" s="48">
-        <v>389</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="F26" s="50">
-        <v>2</v>
-      </c>
-      <c r="G26" s="52">
-        <v>44541</v>
-      </c>
-      <c r="H26" s="51" t="s">
-        <v>268</v>
-      </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="36" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39">
+      <c r="D39" s="34">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="33">
         <v>3</v>
       </c>
-      <c r="B27" s="41">
-        <v>44230</v>
-      </c>
-      <c r="C27" s="48">
-        <v>389</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="F27" s="50">
-        <v>3</v>
-      </c>
-      <c r="G27" s="52">
-        <v>44542</v>
-      </c>
-      <c r="H27" s="51" t="s">
-        <v>269</v>
-      </c>
-      <c r="I27" s="51"/>
-      <c r="J27" s="36" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39">
+      <c r="D40" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="33">
         <v>4</v>
       </c>
-      <c r="B28" s="41">
-        <v>44231</v>
-      </c>
-      <c r="C28" s="48">
-        <v>389</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="F28" s="50">
-        <v>4</v>
-      </c>
-      <c r="G28" s="52">
-        <v>44543</v>
-      </c>
-      <c r="H28" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="I28" s="51"/>
-      <c r="J28" s="36" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39">
+      <c r="D41" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="33">
         <v>5</v>
       </c>
-      <c r="B29" s="41">
-        <v>44232</v>
-      </c>
-      <c r="C29" s="48">
-        <v>389</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="F29" s="50">
-        <v>5</v>
-      </c>
-      <c r="G29" s="52">
-        <v>44544</v>
-      </c>
-      <c r="H29" s="51" t="s">
-        <v>271</v>
-      </c>
-      <c r="I29" s="51"/>
-      <c r="J29" s="36" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39">
+      <c r="D42" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="33">
         <v>6</v>
       </c>
-      <c r="B30" s="41">
-        <v>44233</v>
-      </c>
-      <c r="C30" s="48">
-        <v>389</v>
-      </c>
-      <c r="D30" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="F30" s="76" t="s">
-        <v>272</v>
-      </c>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-    </row>
-    <row r="31" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39">
+      <c r="D43" s="34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="33">
         <v>7</v>
       </c>
-      <c r="B31" s="41">
-        <v>44234</v>
-      </c>
-      <c r="C31" s="48">
-        <v>389</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39">
-        <v>8</v>
-      </c>
-      <c r="B32" s="41">
-        <v>44235</v>
-      </c>
-      <c r="C32" s="48">
-        <v>389</v>
-      </c>
-      <c r="D32" s="48" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39">
-        <v>9</v>
-      </c>
-      <c r="B33" s="41">
-        <v>44236</v>
-      </c>
-      <c r="C33" s="48">
-        <v>389</v>
-      </c>
-      <c r="D33" s="48" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39">
-        <v>10</v>
-      </c>
-      <c r="B34" s="41">
-        <v>44237</v>
-      </c>
-      <c r="C34" s="48">
-        <v>389</v>
-      </c>
-      <c r="D34" s="48" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="73" t="s">
-        <v>259</v>
-      </c>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-    </row>
-    <row r="36" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" s="36" t="s">
+      <c r="D44" s="34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="B47" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="E37" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="G37" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="H37" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="I37" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="J37" s="55" t="s">
-        <v>274</v>
-      </c>
-      <c r="K37" s="55" t="s">
-        <v>275</v>
-      </c>
-      <c r="L37" s="55" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="37">
-        <v>43</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="E38" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="G38" s="56">
-        <v>1</v>
-      </c>
-      <c r="H38" s="57">
-        <v>43871</v>
-      </c>
-      <c r="I38" s="53">
-        <v>389</v>
-      </c>
-      <c r="J38" s="53">
-        <v>73.91</v>
-      </c>
-      <c r="K38" s="54">
-        <v>129</v>
-      </c>
-      <c r="L38" s="58" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="37">
-        <v>76</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="E39" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="G39" s="56">
-        <v>2</v>
-      </c>
-      <c r="H39" s="57">
-        <v>43872</v>
-      </c>
-      <c r="I39" s="53">
-        <v>389</v>
-      </c>
-      <c r="J39" s="53">
-        <v>73.91</v>
-      </c>
-      <c r="K39" s="54">
-        <v>76</v>
-      </c>
-      <c r="L39" s="58" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="37">
-        <v>8</v>
-      </c>
-      <c r="D40" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="E40" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="G40" s="56">
-        <v>3</v>
-      </c>
-      <c r="H40" s="57">
-        <v>43873</v>
-      </c>
-      <c r="I40" s="53">
-        <v>389</v>
-      </c>
-      <c r="J40" s="53">
-        <v>73.91</v>
-      </c>
-      <c r="K40" s="54">
-        <v>16</v>
-      </c>
-      <c r="L40" s="58" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="37">
-        <v>6</v>
-      </c>
-      <c r="D41" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="E41" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="G41" s="56">
-        <v>4</v>
-      </c>
-      <c r="H41" s="57">
-        <v>43874</v>
-      </c>
-      <c r="I41" s="53">
-        <v>389</v>
-      </c>
-      <c r="J41" s="53">
-        <v>73.91</v>
-      </c>
-      <c r="K41" s="54">
-        <v>18</v>
-      </c>
-      <c r="L41" s="58" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="37">
-        <v>7</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="E42" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="G42" s="56">
-        <v>5</v>
-      </c>
-      <c r="H42" s="57">
-        <v>43875</v>
-      </c>
-      <c r="I42" s="53">
-        <v>389</v>
-      </c>
-      <c r="J42" s="53">
-        <v>73.91</v>
-      </c>
-      <c r="K42" s="54">
-        <v>14</v>
-      </c>
-      <c r="L42" s="58" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="37">
-        <v>23</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="E43" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="G43" s="56">
-        <v>6</v>
-      </c>
-      <c r="H43" s="57">
-        <v>43876</v>
-      </c>
-      <c r="I43" s="53">
-        <v>389</v>
-      </c>
-      <c r="J43" s="53">
-        <v>73.91</v>
-      </c>
-      <c r="K43" s="54">
-        <v>46</v>
-      </c>
-      <c r="L43" s="58" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="37">
-        <v>30</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="E44" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="G44" s="56">
-        <v>7</v>
-      </c>
-      <c r="H44" s="57">
-        <v>43877</v>
-      </c>
-      <c r="I44" s="53">
-        <v>389</v>
-      </c>
-      <c r="J44" s="53">
-        <v>73.91</v>
-      </c>
-      <c r="K44" s="54">
-        <v>90</v>
-      </c>
-      <c r="L44" s="58" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="78"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
-      <c r="G45" s="77" t="s">
-        <v>276</v>
-      </c>
-      <c r="H45" s="77"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="E47" s="42" t="s">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="B48" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48" s="54" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="B49" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="C49" s="54" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="F47" s="44" t="s">
+      <c r="B50" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="C50" s="54" t="s">
         <v>237</v>
       </c>
-      <c r="G47" s="44" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="29">
-        <v>1</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="E48" s="42" t="s">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="F48" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="G48" s="44" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="29">
-        <v>2</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="C49" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="E49" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="F49" s="44" t="s">
-        <v>238</v>
-      </c>
-      <c r="G49" s="44" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="29">
-        <v>3</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="C50" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="E50" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="F50" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="G50" s="44" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="B51" s="74"/>
-      <c r="C51" s="74"/>
-      <c r="E51" s="75" t="s">
-        <v>255</v>
-      </c>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A22:J22"/>
+  <mergeCells count="6">
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A51:C51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="G45:L45"/>
-    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F34:G34"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -6300,76 +5504,75 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15CDDD0-1EC6-46EB-86DD-BB5C7073D9F7}">
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="H1" s="42" t="s">
-        <v>236</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="K1" s="42" t="s">
-        <v>273</v>
+      <c r="B1" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>1013576811</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="36">
         <v>1</v>
       </c>
-      <c r="D2" s="29">
-        <v>1013576811</v>
-      </c>
-      <c r="E2" s="39">
+      <c r="D2" s="36">
         <v>1</v>
       </c>
-      <c r="G2" s="29">
-        <v>1013576811</v>
-      </c>
-      <c r="H2" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="J2" s="29">
-        <v>1013576811</v>
-      </c>
-      <c r="K2" s="56">
+      <c r="E2" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="60">
+        <v>1</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="41">
         <v>1</v>
       </c>
     </row>
@@ -6377,25 +5580,25 @@
       <c r="A3" s="29">
         <v>1001096125</v>
       </c>
-      <c r="B3" s="29">
-        <v>1</v>
-      </c>
-      <c r="D3" s="29">
-        <v>1001096125</v>
-      </c>
-      <c r="E3" s="39">
+      <c r="B3" s="36">
         <v>2</v>
       </c>
-      <c r="G3" s="29">
-        <v>1001096125</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="J3" s="29">
-        <v>1001096125</v>
-      </c>
-      <c r="K3" s="56">
+      <c r="D3" s="36">
+        <v>2</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="60">
+        <v>2</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="41">
         <v>2</v>
       </c>
     </row>
@@ -6403,25 +5606,25 @@
       <c r="A4" s="29">
         <v>1012316243</v>
       </c>
-      <c r="B4" s="29">
-        <v>1</v>
-      </c>
-      <c r="D4" s="29">
-        <v>1012316243</v>
-      </c>
-      <c r="E4" s="39">
+      <c r="B4" s="36">
         <v>3</v>
       </c>
-      <c r="G4" s="29">
-        <v>1012316243</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="J4" s="29">
-        <v>1012316243</v>
-      </c>
-      <c r="K4" s="56">
+      <c r="D4" s="36">
+        <v>3</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="60">
+        <v>3</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="41">
         <v>3</v>
       </c>
     </row>
@@ -6429,1003 +5632,778 @@
       <c r="A5" s="29">
         <v>1016942358</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="36">
+        <v>4</v>
+      </c>
+      <c r="D5" s="36">
+        <v>4</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="60">
         <v>1</v>
       </c>
-      <c r="D5" s="29">
-        <v>1016942358</v>
-      </c>
-      <c r="E5" s="39">
-        <v>4</v>
-      </c>
-      <c r="G5" s="29">
-        <v>1016942358</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="J5" s="29">
-        <v>1016942358</v>
-      </c>
-      <c r="K5" s="56">
-        <v>4</v>
+      <c r="J5" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="41">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>1192831945</v>
       </c>
-      <c r="B6" s="29">
-        <v>1</v>
-      </c>
-      <c r="D6" s="29">
-        <v>1192831945</v>
-      </c>
-      <c r="E6" s="39">
+      <c r="B6" s="36">
         <v>5</v>
       </c>
-      <c r="G6" s="29">
-        <v>1192831945</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="J6" s="29">
-        <v>1192831945</v>
-      </c>
-      <c r="K6" s="56">
+      <c r="D6" s="36">
         <v>5</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="60">
+        <v>2</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="41">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>1016943117</v>
       </c>
-      <c r="B7" s="29">
-        <v>1</v>
-      </c>
-      <c r="D7" s="29">
-        <v>1016943117</v>
-      </c>
-      <c r="E7" s="39">
+      <c r="B7" s="36">
         <v>6</v>
       </c>
-      <c r="G7" s="29">
-        <v>1016943117</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="J7" s="29">
-        <v>1016943117</v>
-      </c>
-      <c r="K7" s="56">
+      <c r="D7" s="36">
         <v>6</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="60">
+        <v>3</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="41">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>1010051342</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="36">
+        <v>7</v>
+      </c>
+      <c r="D8" s="36">
+        <v>7</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="60">
         <v>1</v>
       </c>
-      <c r="D8" s="29">
-        <v>1010051342</v>
-      </c>
-      <c r="E8" s="39">
-        <v>7</v>
-      </c>
-      <c r="G8" s="29">
-        <v>1010051342</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="J8" s="29">
-        <v>1010051342</v>
-      </c>
-      <c r="K8" s="56">
-        <v>7</v>
+      <c r="J8" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="41">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>1006051207</v>
       </c>
-      <c r="B9" s="29">
-        <v>1</v>
-      </c>
-      <c r="D9" s="29">
-        <v>1006051207</v>
-      </c>
-      <c r="E9" s="39">
+      <c r="B9" s="36">
         <v>8</v>
       </c>
-      <c r="G9" s="29">
-        <v>1006051207</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="J9" s="29">
-        <v>1006051207</v>
-      </c>
-      <c r="K9" s="56">
+      <c r="D9" s="36">
         <v>8</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="60">
+        <v>2</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="41">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>1014176160</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="36">
+        <v>9</v>
+      </c>
+      <c r="D10" s="36">
+        <v>9</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="60">
+        <v>3</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <v>1000350620</v>
+      </c>
+      <c r="B11" s="36">
+        <v>10</v>
+      </c>
+      <c r="D11" s="36">
+        <v>10</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="60">
         <v>1</v>
       </c>
-      <c r="D10" s="29">
-        <v>1014176160</v>
-      </c>
-      <c r="E10" s="39">
-        <v>9</v>
-      </c>
-      <c r="G10" s="29">
-        <v>1014176160</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="J10" s="29">
-        <v>1014176160</v>
-      </c>
-      <c r="K10" s="56">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="46">
-        <v>1000350620</v>
-      </c>
-      <c r="B11" s="29">
+      <c r="J11" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="41">
         <v>1</v>
       </c>
-      <c r="D11" s="29">
-        <v>1000350620</v>
-      </c>
-      <c r="E11" s="39">
-        <v>10</v>
-      </c>
-      <c r="G11" s="46">
-        <v>1000350620</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="J11" s="46">
-        <v>1000350620</v>
-      </c>
-      <c r="K11" s="56">
-        <v>10</v>
-      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
+      <c r="A12" s="35">
         <v>1016841206</v>
       </c>
-      <c r="B12" s="29">
-        <v>1</v>
-      </c>
-      <c r="D12" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="E12" s="80"/>
-      <c r="G12" s="38">
-        <v>1016841206</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="J12" s="38">
-        <v>1016841206</v>
-      </c>
-      <c r="K12" s="56">
+      <c r="B12" s="36">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+      <c r="D12" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="G12" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="H12" s="46"/>
+      <c r="J12" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="K12" s="46"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="35">
         <v>1003275748</v>
       </c>
-      <c r="B13" s="29">
-        <v>1</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="G13" s="38">
-        <v>1003275748</v>
-      </c>
-      <c r="H13" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="J13" s="38">
-        <v>1003275748</v>
-      </c>
-      <c r="K13" s="56">
+      <c r="B13" s="36">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="35">
         <v>1011153857</v>
       </c>
-      <c r="B14" s="29">
-        <v>1</v>
-      </c>
-      <c r="G14" s="38">
-        <v>1011153857</v>
-      </c>
-      <c r="H14" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="J14" s="38">
-        <v>1011153857</v>
-      </c>
-      <c r="K14" s="56">
+      <c r="B14" s="36">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="35">
         <v>1026238784</v>
       </c>
-      <c r="B15" s="29">
-        <v>1</v>
-      </c>
-      <c r="G15" s="38">
-        <v>1026238784</v>
-      </c>
-      <c r="H15" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="J15" s="38">
-        <v>1026238784</v>
-      </c>
-      <c r="K15" s="56">
+      <c r="B15" s="36">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="35">
         <v>1011752470</v>
       </c>
-      <c r="B16" s="29">
-        <v>1</v>
-      </c>
-      <c r="G16" s="38">
-        <v>1011752470</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="J16" s="38">
-        <v>1011752470</v>
-      </c>
-      <c r="K16" s="56">
+      <c r="B16" s="36">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="35">
         <v>1000016762</v>
       </c>
-      <c r="B17" s="29">
-        <v>1</v>
-      </c>
-      <c r="G17" s="38">
-        <v>1000016762</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="J17" s="38">
-        <v>1000016762</v>
-      </c>
-      <c r="K17" s="56">
+      <c r="B17" s="36">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="35">
         <v>1021928374</v>
       </c>
-      <c r="B18" s="29">
-        <v>1</v>
-      </c>
-      <c r="G18" s="38">
-        <v>1021928374</v>
-      </c>
-      <c r="H18" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="J18" s="38">
-        <v>1021928374</v>
-      </c>
-      <c r="K18" s="56">
+      <c r="B18" s="36">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="35">
         <v>1015159424</v>
       </c>
-      <c r="B19" s="29">
-        <v>1</v>
-      </c>
-      <c r="G19" s="38">
-        <v>1015159424</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="J19" s="38">
-        <v>1015159424</v>
-      </c>
-      <c r="K19" s="56">
+      <c r="B19" s="36">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="35">
         <v>1009812763</v>
       </c>
-      <c r="B20" s="29">
-        <v>1</v>
-      </c>
-      <c r="G20" s="38">
-        <v>1009812763</v>
-      </c>
-      <c r="H20" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="J20" s="38">
-        <v>1009812763</v>
-      </c>
-      <c r="K20" s="56">
+      <c r="B20" s="36">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="35">
         <v>10281927364</v>
       </c>
-      <c r="B21" s="29">
-        <v>1</v>
-      </c>
-      <c r="G21" s="38">
-        <v>10281927364</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="J21" s="38">
-        <v>10281927364</v>
-      </c>
-      <c r="K21" s="56">
+      <c r="B21" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="80" t="s">
-        <v>256</v>
-      </c>
-      <c r="B22" s="80"/>
-      <c r="G22" s="80" t="s">
-        <v>257</v>
-      </c>
-      <c r="H22" s="80"/>
-      <c r="J22" s="80" t="s">
-        <v>278</v>
-      </c>
-      <c r="K22" s="80"/>
-    </row>
-    <row r="23" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="B22" s="46"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="49" t="s">
-        <v>263</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="G24" s="49" t="s">
-        <v>263</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="K24" s="34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="53" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>1013576811</v>
       </c>
-      <c r="B25" s="50">
+      <c r="B25" s="41">
         <v>1</v>
       </c>
-      <c r="D25" s="39">
-        <v>1</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="50">
-        <v>1</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="56">
-        <v>1</v>
-      </c>
-      <c r="K25" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="29">
+        <v>1013576811</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>1001096125</v>
       </c>
-      <c r="B26" s="50">
+      <c r="B26" s="41">
         <v>2</v>
       </c>
-      <c r="D26" s="39">
-        <v>2</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="50">
-        <v>2</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="56">
-        <v>2</v>
-      </c>
-      <c r="K26" s="34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="29">
+        <v>1001096125</v>
+      </c>
+      <c r="E26" s="53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <v>1012316243</v>
       </c>
-      <c r="B27" s="50">
+      <c r="B27" s="41">
         <v>3</v>
       </c>
-      <c r="D27" s="39">
-        <v>3</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="50">
-        <v>3</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="J27" s="56">
-        <v>3</v>
-      </c>
-      <c r="K27" s="34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="29">
+        <v>1012316243</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
         <v>1016942358</v>
       </c>
-      <c r="B28" s="50">
-        <v>4</v>
-      </c>
-      <c r="D28" s="39">
-        <v>4</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="50">
-        <v>4</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="56">
-        <v>4</v>
-      </c>
-      <c r="K28" s="34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="41">
+        <v>1</v>
+      </c>
+      <c r="D28" s="29">
+        <v>1016942358</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
         <v>1192831945</v>
       </c>
-      <c r="B29" s="50">
-        <v>5</v>
-      </c>
-      <c r="D29" s="39">
-        <v>5</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="50">
-        <v>5</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="J29" s="56">
-        <v>5</v>
-      </c>
-      <c r="K29" s="34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="41">
+        <v>2</v>
+      </c>
+      <c r="D29" s="29">
+        <v>1192831945</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>1016943117</v>
       </c>
-      <c r="B30" s="50">
-        <v>6</v>
-      </c>
-      <c r="D30" s="39">
-        <v>6</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="50">
-        <v>6</v>
-      </c>
-      <c r="H30" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="56">
-        <v>6</v>
-      </c>
-      <c r="K30" s="34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="41">
+        <v>3</v>
+      </c>
+      <c r="D30" s="29">
+        <v>1016943117</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>1010051342</v>
       </c>
-      <c r="B31" s="50">
-        <v>7</v>
-      </c>
-      <c r="D31" s="39">
-        <v>7</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="50">
-        <v>7</v>
-      </c>
-      <c r="H31" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="J31" s="56">
-        <v>7</v>
-      </c>
-      <c r="K31" s="34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="41">
+        <v>1</v>
+      </c>
+      <c r="D31" s="29">
+        <v>1010051342</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <v>1006051207</v>
       </c>
-      <c r="B32" s="50">
-        <v>8</v>
-      </c>
-      <c r="D32" s="39">
-        <v>8</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" s="50">
-        <v>8</v>
-      </c>
-      <c r="H32" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="J32" s="56">
-        <v>8</v>
-      </c>
-      <c r="K32" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="41">
+        <v>2</v>
+      </c>
+      <c r="D32" s="29">
+        <v>1006051207</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="29">
         <v>1014176160</v>
       </c>
-      <c r="B33" s="50">
-        <v>9</v>
-      </c>
-      <c r="D33" s="39">
-        <v>9</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" s="50">
-        <v>9</v>
-      </c>
-      <c r="H33" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="J33" s="56">
-        <v>9</v>
-      </c>
-      <c r="K33" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="46">
+      <c r="B33" s="41">
+        <v>3</v>
+      </c>
+      <c r="D33" s="29">
+        <v>1014176160</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="29">
         <v>1000350620</v>
       </c>
-      <c r="B34" s="50">
-        <v>10</v>
-      </c>
-      <c r="D34" s="39">
-        <v>10</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="80" t="s">
-        <v>281</v>
-      </c>
-      <c r="H34" s="80"/>
-      <c r="J34" s="56">
-        <v>10</v>
-      </c>
-      <c r="K34" s="34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="38">
+      <c r="B34" s="41">
+        <v>1</v>
+      </c>
+      <c r="D34" s="29">
+        <v>1000350620</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="35">
         <v>1016841206</v>
       </c>
-      <c r="B35" s="50">
-        <v>11</v>
-      </c>
-      <c r="D35" s="80" t="s">
-        <v>280</v>
-      </c>
-      <c r="E35" s="80"/>
-      <c r="J35" s="80" t="s">
-        <v>282</v>
-      </c>
-      <c r="K35" s="80"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="38">
+      <c r="B35" s="41">
+        <v>2</v>
+      </c>
+      <c r="D35" s="35">
+        <v>1016841206</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="35">
         <v>1003275748</v>
       </c>
-      <c r="B36" s="50">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="38">
+      <c r="B36" s="41">
+        <v>3</v>
+      </c>
+      <c r="D36" s="35">
+        <v>1003275748</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="35">
         <v>1011153857</v>
       </c>
-      <c r="B37" s="50">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="38">
+      <c r="B37" s="41">
+        <v>1</v>
+      </c>
+      <c r="D37" s="35">
+        <v>1011153857</v>
+      </c>
+      <c r="E37" s="53" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="35">
         <v>1026238784</v>
       </c>
-      <c r="B38" s="50">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="38">
+      <c r="B38" s="41">
+        <v>2</v>
+      </c>
+      <c r="D38" s="35">
+        <v>1026238784</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="35">
         <v>1011752470</v>
       </c>
-      <c r="B39" s="50">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="38">
+      <c r="B39" s="41">
+        <v>3</v>
+      </c>
+      <c r="D39" s="35">
+        <v>1011752470</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="35">
         <v>1000016762</v>
       </c>
-      <c r="B40" s="50">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="38">
+      <c r="B40" s="41">
+        <v>1</v>
+      </c>
+      <c r="D40" s="35">
+        <v>1000016762</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="35">
         <v>1021928374</v>
       </c>
-      <c r="B41" s="50">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="38">
+      <c r="B41" s="41">
+        <v>2</v>
+      </c>
+      <c r="D41" s="35">
+        <v>1021928374</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="35">
         <v>1015159424</v>
       </c>
-      <c r="B42" s="50">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="38">
+      <c r="B42" s="41">
+        <v>3</v>
+      </c>
+      <c r="D42" s="35">
+        <v>1015159424</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="35">
         <v>1009812763</v>
       </c>
-      <c r="B43" s="50">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="38">
+      <c r="B43" s="41">
+        <v>1</v>
+      </c>
+      <c r="D43" s="35">
+        <v>1009812763</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="35">
         <v>10281927364</v>
       </c>
-      <c r="B44" s="50">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="80" t="s">
-        <v>279</v>
-      </c>
-      <c r="B45" s="80"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I47" s="85">
+      <c r="B44" s="41">
+        <v>2</v>
+      </c>
+      <c r="D44" s="35">
+        <v>10281927364</v>
+      </c>
+      <c r="E44" s="53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="B45" s="46"/>
+      <c r="D45" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="E45" s="46"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="41">
         <v>1</v>
       </c>
-      <c r="L47" s="83"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="79" t="s">
-        <v>283</v>
-      </c>
-      <c r="C48" s="79"/>
-      <c r="F48" s="66" t="s">
-        <v>230</v>
-      </c>
-      <c r="I48" s="85">
+      <c r="E47" s="55" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="41">
         <v>1</v>
       </c>
-      <c r="J48" s="83"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C49" s="59">
+      <c r="E48" s="41">
         <v>1</v>
       </c>
-      <c r="F49" s="65">
+      <c r="G48" s="18"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="41">
         <v>1</v>
       </c>
-      <c r="G49" s="85" t="s">
-        <v>230</v>
-      </c>
-      <c r="I49" s="82" t="s">
-        <v>255</v>
-      </c>
-      <c r="J49" s="79"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C50" s="60">
+      <c r="E49" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="F49" s="41">
         <v>1</v>
       </c>
-      <c r="F50" s="61" t="s">
-        <v>230</v>
-      </c>
-      <c r="G50" s="84">
+      <c r="G49" s="18"/>
+      <c r="I49" s="41" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="B50" s="65"/>
+      <c r="E50" s="66" t="s">
+        <v>244</v>
+      </c>
+      <c r="F50" s="66"/>
+      <c r="G50" s="64"/>
+      <c r="I50" s="63" t="s">
+        <v>266</v>
+      </c>
+      <c r="J50" s="63"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C51" s="66">
+      <c r="B51" s="41">
         <v>1</v>
       </c>
-      <c r="F51" s="79" t="s">
-        <v>253</v>
-      </c>
-      <c r="G51" s="79"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E52" s="62">
+      <c r="G51" s="18"/>
+      <c r="I51" s="41" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="E52" s="41">
         <v>1</v>
       </c>
-      <c r="F52" s="59">
+      <c r="F52" s="41">
         <v>1</v>
       </c>
-      <c r="G52" s="59">
+      <c r="G52" s="18"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="E53" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C53" s="79" t="s">
-        <v>276</v>
-      </c>
-      <c r="D53" s="79"/>
-      <c r="E53" s="63">
+      <c r="F53" s="41">
         <v>1</v>
       </c>
-      <c r="F53" s="60">
+      <c r="G53" s="18"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E54" s="41">
         <v>1</v>
       </c>
-      <c r="G53" s="60">
+      <c r="F54" s="41">
         <v>1</v>
       </c>
-      <c r="I53" s="79" t="s">
-        <v>259</v>
-      </c>
-      <c r="J53" s="79"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C54" s="68">
+      <c r="G54" s="18"/>
+      <c r="L54" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="M54" s="45"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="41">
         <v>1</v>
       </c>
-      <c r="D54" s="64">
+      <c r="E55" s="68" t="s">
+        <v>258</v>
+      </c>
+      <c r="F55" s="68"/>
+      <c r="G55" s="18"/>
+      <c r="L55" s="41">
         <v>1</v>
       </c>
-      <c r="E54" s="66">
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="41">
         <v>1</v>
       </c>
-      <c r="F54" s="66">
+      <c r="F56" s="18"/>
+      <c r="J56" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="L56" s="41">
         <v>1</v>
       </c>
-      <c r="G54" s="66">
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="41">
         <v>1</v>
       </c>
-      <c r="I54" s="65">
+      <c r="G57" s="18"/>
+      <c r="J57" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="L57" s="41">
         <v>1</v>
       </c>
-      <c r="J54" s="68">
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="B58" s="59"/>
+      <c r="F58" s="18"/>
+      <c r="I58" s="41">
         <v>1</v>
       </c>
-      <c r="L54" s="67" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D55" s="60" t="s">
-        <v>230</v>
-      </c>
-      <c r="I55" s="60">
+      <c r="J58" s="41">
         <v>1</v>
       </c>
-      <c r="L55" s="79" t="s">
-        <v>284</v>
-      </c>
-      <c r="M55" s="79"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D56" s="66" t="s">
-        <v>230</v>
-      </c>
-      <c r="I56" s="66">
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G59" s="18"/>
+      <c r="I59" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="J59" s="67"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G60" s="18"/>
+      <c r="I60" s="41">
         <v>1</v>
       </c>
-      <c r="M56" s="68" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="F57" s="66" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="F58" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="F59" s="61" t="s">
-        <v>230</v>
-      </c>
-      <c r="G59" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="F60" s="79" t="s">
-        <v>272</v>
-      </c>
-      <c r="G60" s="79"/>
-      <c r="I60" s="66" t="s">
-        <v>230</v>
-      </c>
-      <c r="J60" s="66" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="I61" s="81" t="s">
-        <v>281</v>
-      </c>
-      <c r="J61" s="81"/>
-      <c r="L61" s="67">
-        <v>1</v>
-      </c>
-      <c r="M61" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="L62" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="M62" s="79"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C63" s="67" t="s">
-        <v>230</v>
-      </c>
-      <c r="L63" s="68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C64" s="79" t="s">
-        <v>282</v>
-      </c>
-      <c r="D64" s="79"/>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D65" s="68" t="s">
-        <v>230</v>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G61" s="18"/>
+      <c r="I61" s="41" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G62" s="18"/>
+      <c r="I62" s="41" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C64:D64"/>
+  <mergeCells count="13">
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="A58:B58"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
